--- a/data_month/zb/价格指数/商品零售价格分类指数(上月=100)/城市商品零售价格指数(上月=100).xlsx
+++ b/data_month/zb/价格指数/商品零售价格分类指数(上月=100)/城市商品零售价格指数(上月=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -523,7248 +523,7248 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100.08775286</v>
+        <v>100.3</v>
       </c>
       <c r="C2" t="n">
-        <v>100.16281974</v>
+        <v>100</v>
       </c>
       <c r="D2" t="n">
-        <v>99.62521911</v>
+        <v>99.5</v>
       </c>
       <c r="E2" t="n">
-        <v>100.01581027</v>
+        <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>100.15426396</v>
+        <v>100.3</v>
       </c>
       <c r="G2" t="n">
-        <v>99.93546539</v>
+        <v>100.2</v>
       </c>
       <c r="H2" t="n">
-        <v>100.08053829</v>
+        <v>100.4</v>
       </c>
       <c r="I2" t="n">
-        <v>99.56027678</v>
+        <v>99.7</v>
       </c>
       <c r="J2" t="n">
-        <v>99.73609039</v>
+        <v>100.5</v>
       </c>
       <c r="K2" t="n">
-        <v>99.80123862000001</v>
+        <v>99.7</v>
       </c>
       <c r="L2" t="n">
-        <v>100.30766157</v>
+        <v>100.4</v>
       </c>
       <c r="M2" t="n">
-        <v>101.6677609</v>
+        <v>100.7</v>
       </c>
       <c r="N2" t="n">
-        <v>99.05948873</v>
+        <v>103.2</v>
       </c>
       <c r="O2" t="n">
-        <v>100.27683683</v>
+        <v>100.6</v>
       </c>
       <c r="P2" t="n">
-        <v>95.95736642999999</v>
+        <v>101.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>99.85090414</v>
+        <v>99.5</v>
       </c>
       <c r="R2" t="n">
-        <v>100.54671892</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100.1570974</v>
+        <v>100.5</v>
       </c>
       <c r="C3" t="n">
-        <v>100.02581079</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>99.74150057999999</v>
+        <v>99.5</v>
       </c>
       <c r="E3" t="n">
-        <v>100.14444783</v>
+        <v>100.2</v>
       </c>
       <c r="F3" t="n">
-        <v>100.16986664</v>
+        <v>100.1</v>
       </c>
       <c r="G3" t="n">
-        <v>99.9662866</v>
+        <v>100.1</v>
       </c>
       <c r="H3" t="n">
-        <v>100.29437693</v>
+        <v>100.2</v>
       </c>
       <c r="I3" t="n">
-        <v>100.09632356</v>
+        <v>99.8</v>
       </c>
       <c r="J3" t="n">
-        <v>99.93352976</v>
+        <v>100.4</v>
       </c>
       <c r="K3" t="n">
-        <v>100.10566202</v>
+        <v>99.8</v>
       </c>
       <c r="L3" t="n">
-        <v>100.21777423</v>
+        <v>100.3</v>
       </c>
       <c r="M3" t="n">
-        <v>101.46765445</v>
+        <v>100.5</v>
       </c>
       <c r="N3" t="n">
-        <v>99.54906809000001</v>
+        <v>101</v>
       </c>
       <c r="O3" t="n">
-        <v>100.47365154</v>
+        <v>100.7</v>
       </c>
       <c r="P3" t="n">
-        <v>101.57089787</v>
+        <v>101.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>99.33344541</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="R3" t="n">
-        <v>100.33324286</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100.10875688</v>
+        <v>100.5</v>
       </c>
       <c r="C4" t="n">
-        <v>100.0529553</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>99.64612226</v>
+        <v>99.5</v>
       </c>
       <c r="E4" t="n">
-        <v>100.00010246</v>
+        <v>100.2</v>
       </c>
       <c r="F4" t="n">
-        <v>100.01144996</v>
+        <v>100.3</v>
       </c>
       <c r="G4" t="n">
-        <v>100.38468846</v>
+        <v>100.2</v>
       </c>
       <c r="H4" t="n">
-        <v>99.75808386999999</v>
+        <v>100.4</v>
       </c>
       <c r="I4" t="n">
-        <v>99.63090438</v>
+        <v>99.8</v>
       </c>
       <c r="J4" t="n">
-        <v>99.83862728</v>
+        <v>100.3</v>
       </c>
       <c r="K4" t="n">
-        <v>99.85446195999999</v>
+        <v>99.7</v>
       </c>
       <c r="L4" t="n">
-        <v>100.02549567</v>
+        <v>100.3</v>
       </c>
       <c r="M4" t="n">
-        <v>100.03067889</v>
+        <v>99.7</v>
       </c>
       <c r="N4" t="n">
-        <v>100.15140463</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="O4" t="n">
-        <v>99.73141744</v>
+        <v>100.2</v>
       </c>
       <c r="P4" t="n">
-        <v>97.32144678</v>
+        <v>100.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>101.57975811</v>
+        <v>100.8</v>
       </c>
       <c r="R4" t="n">
-        <v>100.35946588</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100.3</v>
+        <v>100.49720327</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>100.04109184</v>
       </c>
       <c r="D5" t="n">
-        <v>99.5</v>
+        <v>99.54047129</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>100.0484585</v>
       </c>
       <c r="F5" t="n">
-        <v>100.3</v>
+        <v>100.06896861</v>
       </c>
       <c r="G5" t="n">
-        <v>100.2</v>
+        <v>100.276977</v>
       </c>
       <c r="H5" t="n">
-        <v>100.4</v>
+        <v>100.0908734</v>
       </c>
       <c r="I5" t="n">
-        <v>99.7</v>
+        <v>99.81990275</v>
       </c>
       <c r="J5" t="n">
-        <v>100.5</v>
+        <v>100.11866053</v>
       </c>
       <c r="K5" t="n">
-        <v>99.7</v>
+        <v>99.72012003</v>
       </c>
       <c r="L5" t="n">
-        <v>100.4</v>
+        <v>100.30151328</v>
       </c>
       <c r="M5" t="n">
-        <v>100.7</v>
+        <v>99.31468507</v>
       </c>
       <c r="N5" t="n">
-        <v>103.2</v>
+        <v>99.77144103000001</v>
       </c>
       <c r="O5" t="n">
-        <v>100.6</v>
+        <v>100.29396717</v>
       </c>
       <c r="P5" t="n">
-        <v>101.9</v>
+        <v>100.3525587</v>
       </c>
       <c r="Q5" t="n">
-        <v>99.5</v>
+        <v>101.15803135</v>
       </c>
       <c r="R5" t="n">
-        <v>100.5</v>
+        <v>100.25756269</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100.5</v>
+        <v>100.5091471</v>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>100.05405933</v>
       </c>
       <c r="D6" t="n">
-        <v>99.5</v>
+        <v>99.63660401999999</v>
       </c>
       <c r="E6" t="n">
-        <v>100.2</v>
+        <v>100.24180178</v>
       </c>
       <c r="F6" t="n">
-        <v>100.1</v>
+        <v>100.43526991</v>
       </c>
       <c r="G6" t="n">
-        <v>100.1</v>
+        <v>100.30498465</v>
       </c>
       <c r="H6" t="n">
-        <v>100.2</v>
+        <v>100.35392785</v>
       </c>
       <c r="I6" t="n">
-        <v>99.8</v>
+        <v>99.80008359999999</v>
       </c>
       <c r="J6" t="n">
-        <v>100.4</v>
+        <v>100.35164395</v>
       </c>
       <c r="K6" t="n">
-        <v>99.8</v>
+        <v>99.75646887000001</v>
       </c>
       <c r="L6" t="n">
-        <v>100.3</v>
+        <v>100.32944636</v>
       </c>
       <c r="M6" t="n">
-        <v>100.5</v>
+        <v>100.02534102</v>
       </c>
       <c r="N6" t="n">
-        <v>101</v>
+        <v>100.06419895</v>
       </c>
       <c r="O6" t="n">
-        <v>100.7</v>
+        <v>100.23211732</v>
       </c>
       <c r="P6" t="n">
-        <v>101.8</v>
+        <v>104.67020826</v>
       </c>
       <c r="Q6" t="n">
-        <v>99.59999999999999</v>
+        <v>100.5690839</v>
       </c>
       <c r="R6" t="n">
-        <v>100.4</v>
+        <v>100.21871302</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100.5</v>
+        <v>100.11208375</v>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>100.18098475</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5</v>
+        <v>99.50589279</v>
       </c>
       <c r="E7" t="n">
-        <v>100.2</v>
+        <v>100.03175901</v>
       </c>
       <c r="F7" t="n">
-        <v>100.3</v>
+        <v>100.13858916</v>
       </c>
       <c r="G7" t="n">
-        <v>100.2</v>
+        <v>100.46354021</v>
       </c>
       <c r="H7" t="n">
-        <v>100.4</v>
+        <v>100.10134615</v>
       </c>
       <c r="I7" t="n">
-        <v>99.8</v>
+        <v>99.54226663</v>
       </c>
       <c r="J7" t="n">
-        <v>100.3</v>
+        <v>100.19448511</v>
       </c>
       <c r="K7" t="n">
-        <v>99.7</v>
+        <v>99.86365269</v>
       </c>
       <c r="L7" t="n">
-        <v>100.3</v>
+        <v>100.30955371</v>
       </c>
       <c r="M7" t="n">
-        <v>99.7</v>
+        <v>100.94372452</v>
       </c>
       <c r="N7" t="n">
-        <v>99.40000000000001</v>
+        <v>100.2767414</v>
       </c>
       <c r="O7" t="n">
-        <v>100.2</v>
+        <v>100.20592057</v>
       </c>
       <c r="P7" t="n">
-        <v>100.5</v>
+        <v>101.40973383</v>
       </c>
       <c r="Q7" t="n">
-        <v>100.8</v>
+        <v>101.11284903</v>
       </c>
       <c r="R7" t="n">
-        <v>100.4</v>
+        <v>100.64765901</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100.49720327</v>
+        <v>100.08775286</v>
       </c>
       <c r="C8" t="n">
-        <v>100.04109184</v>
+        <v>100.16281974</v>
       </c>
       <c r="D8" t="n">
-        <v>99.54047129</v>
+        <v>99.62521911</v>
       </c>
       <c r="E8" t="n">
-        <v>100.0484585</v>
+        <v>100.01581027</v>
       </c>
       <c r="F8" t="n">
-        <v>100.06896861</v>
+        <v>100.15426396</v>
       </c>
       <c r="G8" t="n">
-        <v>100.276977</v>
+        <v>99.93546539</v>
       </c>
       <c r="H8" t="n">
-        <v>100.0908734</v>
+        <v>100.08053829</v>
       </c>
       <c r="I8" t="n">
-        <v>99.81990275</v>
+        <v>99.56027678</v>
       </c>
       <c r="J8" t="n">
-        <v>100.11866053</v>
+        <v>99.73609039</v>
       </c>
       <c r="K8" t="n">
-        <v>99.72012003</v>
+        <v>99.80123862000001</v>
       </c>
       <c r="L8" t="n">
-        <v>100.30151328</v>
+        <v>100.30766157</v>
       </c>
       <c r="M8" t="n">
-        <v>99.31468507</v>
+        <v>101.6677609</v>
       </c>
       <c r="N8" t="n">
-        <v>99.77144103000001</v>
+        <v>99.05948873</v>
       </c>
       <c r="O8" t="n">
-        <v>100.29396717</v>
+        <v>100.27683683</v>
       </c>
       <c r="P8" t="n">
-        <v>100.3525587</v>
+        <v>95.95736642999999</v>
       </c>
       <c r="Q8" t="n">
-        <v>101.15803135</v>
+        <v>99.85090414</v>
       </c>
       <c r="R8" t="n">
-        <v>100.25756269</v>
+        <v>100.54671892</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>100.5091471</v>
+        <v>100.1570974</v>
       </c>
       <c r="C9" t="n">
-        <v>100.05405933</v>
+        <v>100.02581079</v>
       </c>
       <c r="D9" t="n">
-        <v>99.63660401999999</v>
+        <v>99.74150057999999</v>
       </c>
       <c r="E9" t="n">
-        <v>100.24180178</v>
+        <v>100.14444783</v>
       </c>
       <c r="F9" t="n">
-        <v>100.43526991</v>
+        <v>100.16986664</v>
       </c>
       <c r="G9" t="n">
-        <v>100.30498465</v>
+        <v>99.9662866</v>
       </c>
       <c r="H9" t="n">
-        <v>100.35392785</v>
+        <v>100.29437693</v>
       </c>
       <c r="I9" t="n">
-        <v>99.80008359999999</v>
+        <v>100.09632356</v>
       </c>
       <c r="J9" t="n">
-        <v>100.35164395</v>
+        <v>99.93352976</v>
       </c>
       <c r="K9" t="n">
-        <v>99.75646887000001</v>
+        <v>100.10566202</v>
       </c>
       <c r="L9" t="n">
-        <v>100.32944636</v>
+        <v>100.21777423</v>
       </c>
       <c r="M9" t="n">
-        <v>100.02534102</v>
+        <v>101.46765445</v>
       </c>
       <c r="N9" t="n">
-        <v>100.06419895</v>
+        <v>99.54906809000001</v>
       </c>
       <c r="O9" t="n">
-        <v>100.23211732</v>
+        <v>100.47365154</v>
       </c>
       <c r="P9" t="n">
-        <v>104.67020826</v>
+        <v>101.57089787</v>
       </c>
       <c r="Q9" t="n">
-        <v>100.5690839</v>
+        <v>99.33344541</v>
       </c>
       <c r="R9" t="n">
-        <v>100.21871302</v>
+        <v>100.33324286</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>100.11208375</v>
+        <v>100.10875688</v>
       </c>
       <c r="C10" t="n">
-        <v>100.18098475</v>
+        <v>100.0529553</v>
       </c>
       <c r="D10" t="n">
-        <v>99.50589279</v>
+        <v>99.64612226</v>
       </c>
       <c r="E10" t="n">
-        <v>100.03175901</v>
+        <v>100.00010246</v>
       </c>
       <c r="F10" t="n">
-        <v>100.13858916</v>
+        <v>100.01144996</v>
       </c>
       <c r="G10" t="n">
-        <v>100.46354021</v>
+        <v>100.38468846</v>
       </c>
       <c r="H10" t="n">
-        <v>100.10134615</v>
+        <v>99.75808386999999</v>
       </c>
       <c r="I10" t="n">
-        <v>99.54226663</v>
+        <v>99.63090438</v>
       </c>
       <c r="J10" t="n">
-        <v>100.19448511</v>
+        <v>99.83862728</v>
       </c>
       <c r="K10" t="n">
-        <v>99.86365269</v>
+        <v>99.85446195999999</v>
       </c>
       <c r="L10" t="n">
-        <v>100.30955371</v>
+        <v>100.02549567</v>
       </c>
       <c r="M10" t="n">
-        <v>100.94372452</v>
+        <v>100.03067889</v>
       </c>
       <c r="N10" t="n">
-        <v>100.2767414</v>
+        <v>100.15140463</v>
       </c>
       <c r="O10" t="n">
-        <v>100.20592057</v>
+        <v>99.73141744</v>
       </c>
       <c r="P10" t="n">
-        <v>101.40973383</v>
+        <v>97.32144678</v>
       </c>
       <c r="Q10" t="n">
-        <v>101.11284903</v>
+        <v>101.57975811</v>
       </c>
       <c r="R10" t="n">
-        <v>100.64765901</v>
+        <v>100.35946588</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-01</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100.05115787</v>
+        <v>99.98680830000001</v>
       </c>
       <c r="C11" t="n">
-        <v>100.03440479</v>
+        <v>100.48806953</v>
       </c>
       <c r="D11" t="n">
-        <v>99.78102002999999</v>
+        <v>99.67730872999999</v>
       </c>
       <c r="E11" t="n">
-        <v>99.98737009</v>
+        <v>100.01022566</v>
       </c>
       <c r="F11" t="n">
-        <v>100.07637022</v>
+        <v>100.14329589</v>
       </c>
       <c r="G11" t="n">
-        <v>99.8817123</v>
+        <v>101.10774646</v>
       </c>
       <c r="H11" t="n">
-        <v>99.95868815</v>
+        <v>100.33375731</v>
       </c>
       <c r="I11" t="n">
-        <v>99.59484985</v>
+        <v>99.76474946</v>
       </c>
       <c r="J11" t="n">
-        <v>100.12098187</v>
+        <v>100.13929917</v>
       </c>
       <c r="K11" t="n">
-        <v>99.76896803</v>
+        <v>99.9700622</v>
       </c>
       <c r="L11" t="n">
-        <v>100.11041451</v>
+        <v>99.95815895</v>
       </c>
       <c r="M11" t="n">
-        <v>100.87077475</v>
+        <v>98.55059541</v>
       </c>
       <c r="N11" t="n">
-        <v>101.15305331</v>
+        <v>100.10889027</v>
       </c>
       <c r="O11" t="n">
-        <v>100.00906349</v>
+        <v>99.35365792</v>
       </c>
       <c r="P11" t="n">
-        <v>101.03621603</v>
+        <v>97.90498842</v>
       </c>
       <c r="Q11" t="n">
-        <v>99.06308845</v>
+        <v>104.31743818</v>
       </c>
       <c r="R11" t="n">
-        <v>100.17083429</v>
+        <v>100.15515617</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>100.1058425</v>
+        <v>100.15095114</v>
       </c>
       <c r="C12" t="n">
-        <v>100.00742539</v>
+        <v>100.19189265</v>
       </c>
       <c r="D12" t="n">
-        <v>99.70537985</v>
+        <v>99.76911398999999</v>
       </c>
       <c r="E12" t="n">
-        <v>99.95701702</v>
+        <v>100.03202538</v>
       </c>
       <c r="F12" t="n">
-        <v>100.16038513</v>
+        <v>100.2096559</v>
       </c>
       <c r="G12" t="n">
-        <v>100.17577506</v>
+        <v>100.05015351</v>
       </c>
       <c r="H12" t="n">
-        <v>100.45683413</v>
+        <v>100.056703</v>
       </c>
       <c r="I12" t="n">
-        <v>100.08614263</v>
+        <v>99.97889622</v>
       </c>
       <c r="J12" t="n">
-        <v>100.23527854</v>
+        <v>99.85901127</v>
       </c>
       <c r="K12" t="n">
-        <v>99.94289363</v>
+        <v>99.88407513999999</v>
       </c>
       <c r="L12" t="n">
-        <v>100.02997365</v>
+        <v>100.250033</v>
       </c>
       <c r="M12" t="n">
-        <v>100.98832883</v>
+        <v>99.81226504999999</v>
       </c>
       <c r="N12" t="n">
-        <v>99.61385761</v>
+        <v>101.49978668</v>
       </c>
       <c r="O12" t="n">
-        <v>100.32186469</v>
+        <v>100.81943457</v>
       </c>
       <c r="P12" t="n">
-        <v>98.43353128</v>
+        <v>102.96280639</v>
       </c>
       <c r="Q12" t="n">
-        <v>100.42344475</v>
+        <v>99.58585223999999</v>
       </c>
       <c r="R12" t="n">
-        <v>100.11189229</v>
+        <v>100.21090928</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.99724241</v>
+        <v>100.18971822</v>
       </c>
       <c r="C13" t="n">
-        <v>100.00067853</v>
+        <v>100.12084592</v>
       </c>
       <c r="D13" t="n">
-        <v>99.80679029</v>
+        <v>99.75635645</v>
       </c>
       <c r="E13" t="n">
-        <v>99.96507145</v>
+        <v>100.04566181</v>
       </c>
       <c r="F13" t="n">
-        <v>100.08507653</v>
+        <v>99.91565126</v>
       </c>
       <c r="G13" t="n">
-        <v>100.71134788</v>
+        <v>100.36209998</v>
       </c>
       <c r="H13" t="n">
-        <v>99.98884878</v>
+        <v>99.89711572</v>
       </c>
       <c r="I13" t="n">
-        <v>99.8625797</v>
+        <v>99.70687601</v>
       </c>
       <c r="J13" t="n">
-        <v>100.00914737</v>
+        <v>99.95445398</v>
       </c>
       <c r="K13" t="n">
-        <v>99.88025973000001</v>
+        <v>99.81234709</v>
       </c>
       <c r="L13" t="n">
-        <v>100.00700413</v>
+        <v>100.07224993</v>
       </c>
       <c r="M13" t="n">
-        <v>99.80158391000001</v>
+        <v>100.62373381</v>
       </c>
       <c r="N13" t="n">
-        <v>99.42464557</v>
+        <v>103.04688367</v>
       </c>
       <c r="O13" t="n">
-        <v>100.27923275</v>
+        <v>99.69571005</v>
       </c>
       <c r="P13" t="n">
-        <v>99.05828542</v>
+        <v>99.35017443</v>
       </c>
       <c r="Q13" t="n">
-        <v>102.68954477</v>
+        <v>100.3248622</v>
       </c>
       <c r="R13" t="n">
-        <v>100.09486472</v>
+        <v>100.24815589</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年1月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>99.98680830000001</v>
+        <v>100.18537222</v>
       </c>
       <c r="C14" t="n">
-        <v>100.48806953</v>
+        <v>99.9991374</v>
       </c>
       <c r="D14" t="n">
-        <v>99.67730872999999</v>
+        <v>99.41576458999999</v>
       </c>
       <c r="E14" t="n">
-        <v>100.01022566</v>
+        <v>100.01088169</v>
       </c>
       <c r="F14" t="n">
-        <v>100.14329589</v>
+        <v>100.64385426</v>
       </c>
       <c r="G14" t="n">
-        <v>101.10774646</v>
+        <v>99.85989858000001</v>
       </c>
       <c r="H14" t="n">
-        <v>100.33375731</v>
+        <v>100.15682646</v>
       </c>
       <c r="I14" t="n">
-        <v>99.76474946</v>
+        <v>99.75757088</v>
       </c>
       <c r="J14" t="n">
-        <v>100.13929917</v>
+        <v>100.11917828</v>
       </c>
       <c r="K14" t="n">
-        <v>99.9700622</v>
+        <v>99.63922288000001</v>
       </c>
       <c r="L14" t="n">
-        <v>99.95815895</v>
+        <v>100.21033095</v>
       </c>
       <c r="M14" t="n">
-        <v>98.55059541</v>
+        <v>100.52621001</v>
       </c>
       <c r="N14" t="n">
-        <v>100.10889027</v>
+        <v>102.22020871</v>
       </c>
       <c r="O14" t="n">
-        <v>99.35365792</v>
+        <v>99.88942599000001</v>
       </c>
       <c r="P14" t="n">
-        <v>97.90498842</v>
+        <v>99.24897479000001</v>
       </c>
       <c r="Q14" t="n">
-        <v>104.31743818</v>
+        <v>98.91379001999999</v>
       </c>
       <c r="R14" t="n">
-        <v>100.15515617</v>
+        <v>100.3152913</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>100.15095114</v>
+        <v>100.13364176</v>
       </c>
       <c r="C15" t="n">
-        <v>100.19189265</v>
+        <v>100.00304191</v>
       </c>
       <c r="D15" t="n">
-        <v>99.76911398999999</v>
+        <v>99.49074112</v>
       </c>
       <c r="E15" t="n">
-        <v>100.03202538</v>
+        <v>100.05471515</v>
       </c>
       <c r="F15" t="n">
-        <v>100.2096559</v>
+        <v>100.38135451</v>
       </c>
       <c r="G15" t="n">
-        <v>100.05015351</v>
+        <v>99.51237329999999</v>
       </c>
       <c r="H15" t="n">
-        <v>100.056703</v>
+        <v>99.96683302</v>
       </c>
       <c r="I15" t="n">
-        <v>99.97889622</v>
+        <v>99.89075364</v>
       </c>
       <c r="J15" t="n">
-        <v>99.85901127</v>
+        <v>99.8841767</v>
       </c>
       <c r="K15" t="n">
-        <v>99.88407513999999</v>
+        <v>99.77875203000001</v>
       </c>
       <c r="L15" t="n">
-        <v>100.250033</v>
+        <v>100.25530545</v>
       </c>
       <c r="M15" t="n">
-        <v>99.81226504999999</v>
+        <v>99.95981753</v>
       </c>
       <c r="N15" t="n">
-        <v>101.49978668</v>
+        <v>98.03784232</v>
       </c>
       <c r="O15" t="n">
-        <v>100.81943457</v>
+        <v>99.91669078</v>
       </c>
       <c r="P15" t="n">
-        <v>102.96280639</v>
+        <v>98.41155284</v>
       </c>
       <c r="Q15" t="n">
-        <v>99.58585223999999</v>
+        <v>99.12047669</v>
       </c>
       <c r="R15" t="n">
-        <v>100.21090928</v>
+        <v>100.27433145</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>100.18971822</v>
+        <v>100.05198548</v>
       </c>
       <c r="C16" t="n">
-        <v>100.12084592</v>
+        <v>100.05309241</v>
       </c>
       <c r="D16" t="n">
-        <v>99.75635645</v>
+        <v>99.63620361</v>
       </c>
       <c r="E16" t="n">
-        <v>100.04566181</v>
+        <v>100.30548854</v>
       </c>
       <c r="F16" t="n">
-        <v>99.91565126</v>
+        <v>100.19498234</v>
       </c>
       <c r="G16" t="n">
-        <v>100.36209998</v>
+        <v>99.12286906999999</v>
       </c>
       <c r="H16" t="n">
-        <v>99.89711572</v>
+        <v>100.14199307</v>
       </c>
       <c r="I16" t="n">
-        <v>99.70687601</v>
+        <v>99.96597937999999</v>
       </c>
       <c r="J16" t="n">
-        <v>99.95445398</v>
+        <v>99.85837372</v>
       </c>
       <c r="K16" t="n">
-        <v>99.81234709</v>
+        <v>99.78231558</v>
       </c>
       <c r="L16" t="n">
-        <v>100.07224993</v>
+        <v>100.1507426</v>
       </c>
       <c r="M16" t="n">
-        <v>100.62373381</v>
+        <v>99.8961137</v>
       </c>
       <c r="N16" t="n">
-        <v>103.04688367</v>
+        <v>96.12378475</v>
       </c>
       <c r="O16" t="n">
-        <v>99.69571005</v>
+        <v>99.92367745999999</v>
       </c>
       <c r="P16" t="n">
-        <v>99.35017443</v>
+        <v>99.94881131</v>
       </c>
       <c r="Q16" t="n">
-        <v>100.3248622</v>
+        <v>98.26363163000001</v>
       </c>
       <c r="R16" t="n">
-        <v>100.24815589</v>
+        <v>100.16187448</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>100.18537222</v>
+        <v>100.08396761</v>
       </c>
       <c r="C17" t="n">
-        <v>99.9991374</v>
+        <v>100.00521385</v>
       </c>
       <c r="D17" t="n">
-        <v>99.41576458999999</v>
+        <v>99.66196085999999</v>
       </c>
       <c r="E17" t="n">
-        <v>100.01088169</v>
+        <v>100.0923477</v>
       </c>
       <c r="F17" t="n">
-        <v>100.64385426</v>
+        <v>100.29131011</v>
       </c>
       <c r="G17" t="n">
-        <v>99.85989858000001</v>
+        <v>99.66840575000001</v>
       </c>
       <c r="H17" t="n">
-        <v>100.15682646</v>
+        <v>99.95560266</v>
       </c>
       <c r="I17" t="n">
-        <v>99.75757088</v>
+        <v>99.79647342</v>
       </c>
       <c r="J17" t="n">
-        <v>100.11917828</v>
+        <v>99.86386157</v>
       </c>
       <c r="K17" t="n">
-        <v>99.63922288000001</v>
+        <v>99.64976915</v>
       </c>
       <c r="L17" t="n">
-        <v>100.21033095</v>
+        <v>100.03053792</v>
       </c>
       <c r="M17" t="n">
-        <v>100.52621001</v>
+        <v>99.33453707</v>
       </c>
       <c r="N17" t="n">
-        <v>102.22020871</v>
+        <v>97.50642028999999</v>
       </c>
       <c r="O17" t="n">
-        <v>99.88942599000001</v>
+        <v>100.54974408</v>
       </c>
       <c r="P17" t="n">
-        <v>99.24897479000001</v>
+        <v>99.84372930000001</v>
       </c>
       <c r="Q17" t="n">
-        <v>98.91379001999999</v>
+        <v>99.89451443999999</v>
       </c>
       <c r="R17" t="n">
-        <v>100.3152913</v>
+        <v>100.03714483</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>100.13364176</v>
+        <v>100.05646034</v>
       </c>
       <c r="C18" t="n">
-        <v>100.00304191</v>
+        <v>100.08794686</v>
       </c>
       <c r="D18" t="n">
-        <v>99.49074112</v>
+        <v>99.64865562999999</v>
       </c>
       <c r="E18" t="n">
-        <v>100.05471515</v>
+        <v>100.19565869</v>
       </c>
       <c r="F18" t="n">
-        <v>100.38135451</v>
+        <v>100.21830115</v>
       </c>
       <c r="G18" t="n">
-        <v>99.51237329999999</v>
+        <v>100.56074699</v>
       </c>
       <c r="H18" t="n">
-        <v>99.96683302</v>
+        <v>100.14476298</v>
       </c>
       <c r="I18" t="n">
-        <v>99.89075364</v>
+        <v>99.72218820000001</v>
       </c>
       <c r="J18" t="n">
-        <v>99.8841767</v>
+        <v>99.76617444</v>
       </c>
       <c r="K18" t="n">
-        <v>99.77875203000001</v>
+        <v>99.78883639</v>
       </c>
       <c r="L18" t="n">
-        <v>100.25530545</v>
+        <v>100.16279305</v>
       </c>
       <c r="M18" t="n">
-        <v>99.95981753</v>
+        <v>99.82524368999999</v>
       </c>
       <c r="N18" t="n">
-        <v>98.03784232</v>
+        <v>101.51930055</v>
       </c>
       <c r="O18" t="n">
-        <v>99.91669078</v>
+        <v>100.26117853</v>
       </c>
       <c r="P18" t="n">
-        <v>98.41155284</v>
+        <v>100.30232173</v>
       </c>
       <c r="Q18" t="n">
-        <v>99.12047669</v>
+        <v>101.6196854</v>
       </c>
       <c r="R18" t="n">
-        <v>100.27433145</v>
+        <v>100.06970272</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>100.05198548</v>
+        <v>100.03723202</v>
       </c>
       <c r="C19" t="n">
-        <v>100.05309241</v>
+        <v>100.42542259</v>
       </c>
       <c r="D19" t="n">
-        <v>99.63620361</v>
+        <v>99.66411066000001</v>
       </c>
       <c r="E19" t="n">
-        <v>100.30548854</v>
+        <v>100.1410159</v>
       </c>
       <c r="F19" t="n">
-        <v>100.19498234</v>
+        <v>100.06917495</v>
       </c>
       <c r="G19" t="n">
-        <v>99.12286906999999</v>
+        <v>100.39052819</v>
       </c>
       <c r="H19" t="n">
-        <v>100.14199307</v>
+        <v>100.09055758</v>
       </c>
       <c r="I19" t="n">
-        <v>99.96597937999999</v>
+        <v>99.71217258999999</v>
       </c>
       <c r="J19" t="n">
-        <v>99.85837372</v>
+        <v>99.85849801000001</v>
       </c>
       <c r="K19" t="n">
-        <v>99.78231558</v>
+        <v>99.81184579000001</v>
       </c>
       <c r="L19" t="n">
-        <v>100.1507426</v>
+        <v>100.08600166</v>
       </c>
       <c r="M19" t="n">
-        <v>99.8961137</v>
+        <v>101.4551994</v>
       </c>
       <c r="N19" t="n">
-        <v>96.12378475</v>
+        <v>102.89296038</v>
       </c>
       <c r="O19" t="n">
-        <v>99.92367745999999</v>
+        <v>99.86927694000001</v>
       </c>
       <c r="P19" t="n">
-        <v>99.94881131</v>
+        <v>104.00356185</v>
       </c>
       <c r="Q19" t="n">
-        <v>98.26363163000001</v>
+        <v>100.00971834</v>
       </c>
       <c r="R19" t="n">
-        <v>100.16187448</v>
+        <v>100.05394047</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>100.08396761</v>
+        <v>100.05115787</v>
       </c>
       <c r="C20" t="n">
-        <v>100.00521385</v>
+        <v>100.03440479</v>
       </c>
       <c r="D20" t="n">
-        <v>99.66196085999999</v>
+        <v>99.78102002999999</v>
       </c>
       <c r="E20" t="n">
-        <v>100.0923477</v>
+        <v>99.98737009</v>
       </c>
       <c r="F20" t="n">
-        <v>100.29131011</v>
+        <v>100.07637022</v>
       </c>
       <c r="G20" t="n">
-        <v>99.66840575000001</v>
+        <v>99.8817123</v>
       </c>
       <c r="H20" t="n">
-        <v>99.95560266</v>
+        <v>99.95868815</v>
       </c>
       <c r="I20" t="n">
-        <v>99.79647342</v>
+        <v>99.59484985</v>
       </c>
       <c r="J20" t="n">
-        <v>99.86386157</v>
+        <v>100.12098187</v>
       </c>
       <c r="K20" t="n">
-        <v>99.64976915</v>
+        <v>99.76896803</v>
       </c>
       <c r="L20" t="n">
-        <v>100.03053792</v>
+        <v>100.11041451</v>
       </c>
       <c r="M20" t="n">
-        <v>99.33453707</v>
+        <v>100.87077475</v>
       </c>
       <c r="N20" t="n">
-        <v>97.50642028999999</v>
+        <v>101.15305331</v>
       </c>
       <c r="O20" t="n">
-        <v>100.54974408</v>
+        <v>100.00906349</v>
       </c>
       <c r="P20" t="n">
-        <v>99.84372930000001</v>
+        <v>101.03621603</v>
       </c>
       <c r="Q20" t="n">
-        <v>99.89451443999999</v>
+        <v>99.06308845</v>
       </c>
       <c r="R20" t="n">
-        <v>100.03714483</v>
+        <v>100.17083429</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>100.05646034</v>
+        <v>100.1058425</v>
       </c>
       <c r="C21" t="n">
-        <v>100.08794686</v>
+        <v>100.00742539</v>
       </c>
       <c r="D21" t="n">
-        <v>99.64865562999999</v>
+        <v>99.70537985</v>
       </c>
       <c r="E21" t="n">
-        <v>100.19565869</v>
+        <v>99.95701702</v>
       </c>
       <c r="F21" t="n">
-        <v>100.21830115</v>
+        <v>100.16038513</v>
       </c>
       <c r="G21" t="n">
-        <v>100.56074699</v>
+        <v>100.17577506</v>
       </c>
       <c r="H21" t="n">
-        <v>100.14476298</v>
+        <v>100.45683413</v>
       </c>
       <c r="I21" t="n">
-        <v>99.72218820000001</v>
+        <v>100.08614263</v>
       </c>
       <c r="J21" t="n">
-        <v>99.76617444</v>
+        <v>100.23527854</v>
       </c>
       <c r="K21" t="n">
-        <v>99.78883639</v>
+        <v>99.94289363</v>
       </c>
       <c r="L21" t="n">
-        <v>100.16279305</v>
+        <v>100.02997365</v>
       </c>
       <c r="M21" t="n">
-        <v>99.82524368999999</v>
+        <v>100.98832883</v>
       </c>
       <c r="N21" t="n">
-        <v>101.51930055</v>
+        <v>99.61385761</v>
       </c>
       <c r="O21" t="n">
-        <v>100.26117853</v>
+        <v>100.32186469</v>
       </c>
       <c r="P21" t="n">
-        <v>100.30232173</v>
+        <v>98.43353128</v>
       </c>
       <c r="Q21" t="n">
-        <v>101.6196854</v>
+        <v>100.42344475</v>
       </c>
       <c r="R21" t="n">
-        <v>100.06970272</v>
+        <v>100.11189229</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>100.03723202</v>
+        <v>99.99724241</v>
       </c>
       <c r="C22" t="n">
-        <v>100.42542259</v>
+        <v>100.00067853</v>
       </c>
       <c r="D22" t="n">
-        <v>99.66411066000001</v>
+        <v>99.80679029</v>
       </c>
       <c r="E22" t="n">
-        <v>100.1410159</v>
+        <v>99.96507145</v>
       </c>
       <c r="F22" t="n">
-        <v>100.06917495</v>
+        <v>100.08507653</v>
       </c>
       <c r="G22" t="n">
-        <v>100.39052819</v>
+        <v>100.71134788</v>
       </c>
       <c r="H22" t="n">
-        <v>100.09055758</v>
+        <v>99.98884878</v>
       </c>
       <c r="I22" t="n">
-        <v>99.71217258999999</v>
+        <v>99.8625797</v>
       </c>
       <c r="J22" t="n">
-        <v>99.85849801000001</v>
+        <v>100.00914737</v>
       </c>
       <c r="K22" t="n">
-        <v>99.81184579000001</v>
+        <v>99.88025973000001</v>
       </c>
       <c r="L22" t="n">
-        <v>100.08600166</v>
+        <v>100.00700413</v>
       </c>
       <c r="M22" t="n">
-        <v>101.4551994</v>
+        <v>99.80158391000001</v>
       </c>
       <c r="N22" t="n">
-        <v>102.89296038</v>
+        <v>99.42464557</v>
       </c>
       <c r="O22" t="n">
-        <v>99.86927694000001</v>
+        <v>100.27923275</v>
       </c>
       <c r="P22" t="n">
-        <v>104.00356185</v>
+        <v>99.05828542</v>
       </c>
       <c r="Q22" t="n">
-        <v>100.00971834</v>
+        <v>102.68954477</v>
       </c>
       <c r="R22" t="n">
-        <v>100.05394047</v>
+        <v>100.09486472</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
+          <t>2013-01</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>100.16107454</v>
+        <v>99.96700427</v>
       </c>
       <c r="C23" t="n">
-        <v>100.04450703</v>
+        <v>100.29838603</v>
       </c>
       <c r="D23" t="n">
-        <v>99.83837353</v>
+        <v>99.96146818</v>
       </c>
       <c r="E23" t="n">
-        <v>100.03460114</v>
+        <v>100.24690047</v>
       </c>
       <c r="F23" t="n">
-        <v>100.01357926</v>
+        <v>100.12643312</v>
       </c>
       <c r="G23" t="n">
-        <v>99.92245151</v>
+        <v>100.82952124</v>
       </c>
       <c r="H23" t="n">
-        <v>100.09749878</v>
+        <v>100.18509687</v>
       </c>
       <c r="I23" t="n">
-        <v>99.84687814999999</v>
+        <v>99.80806336000001</v>
       </c>
       <c r="J23" t="n">
-        <v>100.15559993</v>
+        <v>100.21472472</v>
       </c>
       <c r="K23" t="n">
-        <v>99.97493728000001</v>
+        <v>99.96888420000001</v>
       </c>
       <c r="L23" t="n">
-        <v>100.12668395</v>
+        <v>100.09843977</v>
       </c>
       <c r="M23" t="n">
-        <v>101.16529276</v>
+        <v>99.37162902999999</v>
       </c>
       <c r="N23" t="n">
-        <v>99.28562257</v>
+        <v>100.15743618</v>
       </c>
       <c r="O23" t="n">
-        <v>100.60792848</v>
+        <v>99.83176469</v>
       </c>
       <c r="P23" t="n">
-        <v>98.40374624</v>
+        <v>99.8319065</v>
       </c>
       <c r="Q23" t="n">
-        <v>99.60322232</v>
+        <v>102.8243056</v>
       </c>
       <c r="R23" t="n">
-        <v>100.16369671</v>
+        <v>99.95642021</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>100.15470327</v>
+        <v>100.0718742</v>
       </c>
       <c r="C24" t="n">
-        <v>100.13610635</v>
+        <v>100.19101695</v>
       </c>
       <c r="D24" t="n">
-        <v>99.82710786</v>
+        <v>99.85155475000001</v>
       </c>
       <c r="E24" t="n">
-        <v>99.98407274</v>
+        <v>99.9557172</v>
       </c>
       <c r="F24" t="n">
-        <v>100.00843203</v>
+        <v>100.02344282</v>
       </c>
       <c r="G24" t="n">
-        <v>99.95427074</v>
+        <v>100.80989344</v>
       </c>
       <c r="H24" t="n">
-        <v>100.26930416</v>
+        <v>100.09679361</v>
       </c>
       <c r="I24" t="n">
-        <v>99.86466511</v>
+        <v>99.74753688</v>
       </c>
       <c r="J24" t="n">
-        <v>100.23875061</v>
+        <v>100.2078267</v>
       </c>
       <c r="K24" t="n">
-        <v>99.8300136</v>
+        <v>99.95419106</v>
       </c>
       <c r="L24" t="n">
-        <v>100.03404934</v>
+        <v>99.93346843</v>
       </c>
       <c r="M24" t="n">
-        <v>100.39729642</v>
+        <v>99.25466702</v>
       </c>
       <c r="N24" t="n">
-        <v>99.5748512</v>
+        <v>100.10699888</v>
       </c>
       <c r="O24" t="n">
-        <v>99.94994688</v>
+        <v>99.63202388000001</v>
       </c>
       <c r="P24" t="n">
-        <v>98.37953904</v>
+        <v>99.15273812</v>
       </c>
       <c r="Q24" t="n">
-        <v>99.89484704</v>
+        <v>102.9033092</v>
       </c>
       <c r="R24" t="n">
-        <v>100.12559582</v>
+        <v>99.86344371</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>100.16699095</v>
+        <v>100.18770425</v>
       </c>
       <c r="C25" t="n">
-        <v>100.04911158</v>
+        <v>100.09187955</v>
       </c>
       <c r="D25" t="n">
-        <v>100.05142492</v>
+        <v>99.68596058999999</v>
       </c>
       <c r="E25" t="n">
-        <v>100.10182887</v>
+        <v>99.94917427999999</v>
       </c>
       <c r="F25" t="n">
-        <v>99.99612411</v>
+        <v>100.01621958</v>
       </c>
       <c r="G25" t="n">
-        <v>100.3108962</v>
+        <v>99.14375711</v>
       </c>
       <c r="H25" t="n">
-        <v>100.29935281</v>
+        <v>100.04730496</v>
       </c>
       <c r="I25" t="n">
-        <v>99.85323895000001</v>
+        <v>99.88607843</v>
       </c>
       <c r="J25" t="n">
-        <v>100.18992204</v>
+        <v>99.9989329</v>
       </c>
       <c r="K25" t="n">
-        <v>99.87342707000001</v>
+        <v>99.98523068</v>
       </c>
       <c r="L25" t="n">
-        <v>100.05579137</v>
+        <v>99.99790818</v>
       </c>
       <c r="M25" t="n">
-        <v>99.95811998000001</v>
+        <v>100.97064456</v>
       </c>
       <c r="N25" t="n">
-        <v>101.65007326</v>
+        <v>101.09215794</v>
       </c>
       <c r="O25" t="n">
-        <v>99.90386673</v>
+        <v>100.30302266</v>
       </c>
       <c r="P25" t="n">
-        <v>96.69257929</v>
+        <v>98.65596154000001</v>
       </c>
       <c r="Q25" t="n">
-        <v>100.66027802</v>
+        <v>96.88177455</v>
       </c>
       <c r="R25" t="n">
-        <v>100.03698111</v>
+        <v>100.14292428</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2013年1月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>99.96700427</v>
+        <v>100.2643868</v>
       </c>
       <c r="C26" t="n">
-        <v>100.29838603</v>
+        <v>100.03412421</v>
       </c>
       <c r="D26" t="n">
-        <v>99.96146818</v>
+        <v>99.72806284000001</v>
       </c>
       <c r="E26" t="n">
-        <v>100.24690047</v>
+        <v>100.0381237</v>
       </c>
       <c r="F26" t="n">
-        <v>100.12643312</v>
+        <v>100.27221326</v>
       </c>
       <c r="G26" t="n">
-        <v>100.82952124</v>
+        <v>100.01744315</v>
       </c>
       <c r="H26" t="n">
-        <v>100.18509687</v>
+        <v>100.10676471</v>
       </c>
       <c r="I26" t="n">
-        <v>99.80806336000001</v>
+        <v>99.81416063</v>
       </c>
       <c r="J26" t="n">
-        <v>100.21472472</v>
+        <v>100.18395715</v>
       </c>
       <c r="K26" t="n">
-        <v>99.96888420000001</v>
+        <v>99.97314962</v>
       </c>
       <c r="L26" t="n">
-        <v>100.09843977</v>
+        <v>100.0389541</v>
       </c>
       <c r="M26" t="n">
-        <v>99.37162902999999</v>
+        <v>100.6941901</v>
       </c>
       <c r="N26" t="n">
-        <v>100.15743618</v>
+        <v>98.12271652</v>
       </c>
       <c r="O26" t="n">
-        <v>99.83176469</v>
+        <v>100.1478204</v>
       </c>
       <c r="P26" t="n">
-        <v>99.8319065</v>
+        <v>97.27108307</v>
       </c>
       <c r="Q26" t="n">
-        <v>102.8243056</v>
+        <v>100.50763191</v>
       </c>
       <c r="R26" t="n">
-        <v>99.95642021</v>
+        <v>99.89375582</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>100.0718742</v>
+        <v>100.17974535</v>
       </c>
       <c r="C27" t="n">
-        <v>100.19101695</v>
+        <v>100.08119778</v>
       </c>
       <c r="D27" t="n">
-        <v>99.85155475000001</v>
+        <v>99.62261578</v>
       </c>
       <c r="E27" t="n">
-        <v>99.9557172</v>
+        <v>100.0683236</v>
       </c>
       <c r="F27" t="n">
-        <v>100.02344282</v>
+        <v>100.04055386</v>
       </c>
       <c r="G27" t="n">
-        <v>100.80989344</v>
+        <v>99.26961046</v>
       </c>
       <c r="H27" t="n">
-        <v>100.09679361</v>
+        <v>100.08127541</v>
       </c>
       <c r="I27" t="n">
-        <v>99.74753688</v>
+        <v>99.89951478</v>
       </c>
       <c r="J27" t="n">
-        <v>100.2078267</v>
+        <v>100.0107322</v>
       </c>
       <c r="K27" t="n">
-        <v>99.95419106</v>
+        <v>99.85812915</v>
       </c>
       <c r="L27" t="n">
-        <v>99.93346843</v>
+        <v>100.091382</v>
       </c>
       <c r="M27" t="n">
-        <v>99.25466702</v>
+        <v>100.00396678</v>
       </c>
       <c r="N27" t="n">
-        <v>100.10699888</v>
+        <v>98.41045883</v>
       </c>
       <c r="O27" t="n">
-        <v>99.63202388000001</v>
+        <v>100.10583261</v>
       </c>
       <c r="P27" t="n">
-        <v>99.15273812</v>
+        <v>98.09663759</v>
       </c>
       <c r="Q27" t="n">
-        <v>102.9033092</v>
+        <v>98.27140976</v>
       </c>
       <c r="R27" t="n">
-        <v>99.86344371</v>
+        <v>99.87054127</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.18770425</v>
+        <v>100.25344706</v>
       </c>
       <c r="C28" t="n">
-        <v>100.09187955</v>
+        <v>100.01454879</v>
       </c>
       <c r="D28" t="n">
-        <v>99.68596058999999</v>
+        <v>99.72059184</v>
       </c>
       <c r="E28" t="n">
-        <v>99.94917427999999</v>
+        <v>99.90141111</v>
       </c>
       <c r="F28" t="n">
-        <v>100.01621958</v>
+        <v>100.10498008</v>
       </c>
       <c r="G28" t="n">
-        <v>99.14375711</v>
+        <v>99.83348735</v>
       </c>
       <c r="H28" t="n">
-        <v>100.04730496</v>
+        <v>100.08381078</v>
       </c>
       <c r="I28" t="n">
-        <v>99.88607843</v>
+        <v>99.98231758</v>
       </c>
       <c r="J28" t="n">
-        <v>99.9989329</v>
+        <v>99.82975998000001</v>
       </c>
       <c r="K28" t="n">
-        <v>99.98523068</v>
+        <v>99.77551699</v>
       </c>
       <c r="L28" t="n">
-        <v>99.99790818</v>
+        <v>99.98201387</v>
       </c>
       <c r="M28" t="n">
-        <v>100.97064456</v>
+        <v>99.47811827</v>
       </c>
       <c r="N28" t="n">
-        <v>101.09215794</v>
+        <v>99.64592025</v>
       </c>
       <c r="O28" t="n">
-        <v>100.30302266</v>
+        <v>99.81869028</v>
       </c>
       <c r="P28" t="n">
-        <v>98.65596154000001</v>
+        <v>97.33464596</v>
       </c>
       <c r="Q28" t="n">
-        <v>96.88177455</v>
+        <v>99.94326498</v>
       </c>
       <c r="R28" t="n">
-        <v>100.14292428</v>
+        <v>99.96989203</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>100.2643868</v>
+        <v>100.24466237</v>
       </c>
       <c r="C29" t="n">
-        <v>100.03412421</v>
+        <v>100.04928231</v>
       </c>
       <c r="D29" t="n">
-        <v>99.72806284000001</v>
+        <v>99.97791847000001</v>
       </c>
       <c r="E29" t="n">
-        <v>100.0381237</v>
+        <v>100.18480256</v>
       </c>
       <c r="F29" t="n">
-        <v>100.27221326</v>
+        <v>100.05230363</v>
       </c>
       <c r="G29" t="n">
-        <v>100.01744315</v>
+        <v>99.92989645999999</v>
       </c>
       <c r="H29" t="n">
-        <v>100.10676471</v>
+        <v>100.20333602</v>
       </c>
       <c r="I29" t="n">
-        <v>99.81416063</v>
+        <v>99.94404809</v>
       </c>
       <c r="J29" t="n">
-        <v>100.18395715</v>
+        <v>100.01827656</v>
       </c>
       <c r="K29" t="n">
-        <v>99.97314962</v>
+        <v>99.90744646</v>
       </c>
       <c r="L29" t="n">
-        <v>100.0389541</v>
+        <v>100.06206088</v>
       </c>
       <c r="M29" t="n">
-        <v>100.6941901</v>
+        <v>99.27712364999999</v>
       </c>
       <c r="N29" t="n">
-        <v>98.12271652</v>
+        <v>100.47433086</v>
       </c>
       <c r="O29" t="n">
-        <v>100.1478204</v>
+        <v>100.28061557</v>
       </c>
       <c r="P29" t="n">
-        <v>97.27108307</v>
+        <v>96.41425051</v>
       </c>
       <c r="Q29" t="n">
-        <v>100.50763191</v>
+        <v>99.97936266000001</v>
       </c>
       <c r="R29" t="n">
-        <v>99.89375582</v>
+        <v>99.93164849999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>100.17974535</v>
+        <v>100.21798813</v>
       </c>
       <c r="C30" t="n">
-        <v>100.08119778</v>
+        <v>100.06819917</v>
       </c>
       <c r="D30" t="n">
-        <v>99.62261578</v>
+        <v>99.85706202</v>
       </c>
       <c r="E30" t="n">
-        <v>100.0683236</v>
+        <v>100.06896885</v>
       </c>
       <c r="F30" t="n">
-        <v>100.04055386</v>
+        <v>99.96800845999999</v>
       </c>
       <c r="G30" t="n">
-        <v>99.26961046</v>
+        <v>100.42158921</v>
       </c>
       <c r="H30" t="n">
-        <v>100.08127541</v>
+        <v>100.23653201</v>
       </c>
       <c r="I30" t="n">
-        <v>99.89951478</v>
+        <v>99.8362781</v>
       </c>
       <c r="J30" t="n">
-        <v>100.0107322</v>
+        <v>100.03031476</v>
       </c>
       <c r="K30" t="n">
-        <v>99.85812915</v>
+        <v>99.65338962</v>
       </c>
       <c r="L30" t="n">
-        <v>100.091382</v>
+        <v>100.06292729</v>
       </c>
       <c r="M30" t="n">
-        <v>100.00396678</v>
+        <v>99.97283242</v>
       </c>
       <c r="N30" t="n">
-        <v>98.41045883</v>
+        <v>101.07491754</v>
       </c>
       <c r="O30" t="n">
-        <v>100.10583261</v>
+        <v>99.8983321</v>
       </c>
       <c r="P30" t="n">
-        <v>98.09663759</v>
+        <v>101.10439883</v>
       </c>
       <c r="Q30" t="n">
-        <v>98.27140976</v>
+        <v>101.05293693</v>
       </c>
       <c r="R30" t="n">
-        <v>99.87054127</v>
+        <v>100.06878367</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.25344706</v>
+        <v>100.33200024</v>
       </c>
       <c r="C31" t="n">
-        <v>100.01454879</v>
+        <v>100.08523712</v>
       </c>
       <c r="D31" t="n">
-        <v>99.72059184</v>
+        <v>99.80470515</v>
       </c>
       <c r="E31" t="n">
-        <v>99.90141111</v>
+        <v>100.01529902</v>
       </c>
       <c r="F31" t="n">
-        <v>100.10498008</v>
+        <v>100.16133217</v>
       </c>
       <c r="G31" t="n">
-        <v>99.83348735</v>
+        <v>100.72264058</v>
       </c>
       <c r="H31" t="n">
-        <v>100.08381078</v>
+        <v>100.06105141</v>
       </c>
       <c r="I31" t="n">
-        <v>99.98231758</v>
+        <v>99.67685876</v>
       </c>
       <c r="J31" t="n">
-        <v>99.82975998000001</v>
+        <v>100.03775048</v>
       </c>
       <c r="K31" t="n">
-        <v>99.77551699</v>
+        <v>99.80004588</v>
       </c>
       <c r="L31" t="n">
-        <v>99.98201387</v>
+        <v>100.0010219</v>
       </c>
       <c r="M31" t="n">
-        <v>99.47811827</v>
+        <v>101.32074349</v>
       </c>
       <c r="N31" t="n">
-        <v>99.64592025</v>
+        <v>101.67364329</v>
       </c>
       <c r="O31" t="n">
-        <v>99.81869028</v>
+        <v>100.20156257</v>
       </c>
       <c r="P31" t="n">
-        <v>97.33464596</v>
+        <v>99.98480619</v>
       </c>
       <c r="Q31" t="n">
-        <v>99.94326498</v>
+        <v>101.5531929</v>
       </c>
       <c r="R31" t="n">
-        <v>99.96989203</v>
+        <v>99.9054185</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>100.24466237</v>
+        <v>100.16107454</v>
       </c>
       <c r="C32" t="n">
-        <v>100.04928231</v>
+        <v>100.04450703</v>
       </c>
       <c r="D32" t="n">
-        <v>99.97791847000001</v>
+        <v>99.83837353</v>
       </c>
       <c r="E32" t="n">
-        <v>100.18480256</v>
+        <v>100.03460114</v>
       </c>
       <c r="F32" t="n">
-        <v>100.05230363</v>
+        <v>100.01357926</v>
       </c>
       <c r="G32" t="n">
-        <v>99.92989645999999</v>
+        <v>99.92245151</v>
       </c>
       <c r="H32" t="n">
-        <v>100.20333602</v>
+        <v>100.09749878</v>
       </c>
       <c r="I32" t="n">
-        <v>99.94404809</v>
+        <v>99.84687814999999</v>
       </c>
       <c r="J32" t="n">
-        <v>100.01827656</v>
+        <v>100.15559993</v>
       </c>
       <c r="K32" t="n">
-        <v>99.90744646</v>
+        <v>99.97493728000001</v>
       </c>
       <c r="L32" t="n">
-        <v>100.06206088</v>
+        <v>100.12668395</v>
       </c>
       <c r="M32" t="n">
-        <v>99.27712364999999</v>
+        <v>101.16529276</v>
       </c>
       <c r="N32" t="n">
-        <v>100.47433086</v>
+        <v>99.28562257</v>
       </c>
       <c r="O32" t="n">
-        <v>100.28061557</v>
+        <v>100.60792848</v>
       </c>
       <c r="P32" t="n">
-        <v>96.41425051</v>
+        <v>98.40374624</v>
       </c>
       <c r="Q32" t="n">
-        <v>99.97936266000001</v>
+        <v>99.60322232</v>
       </c>
       <c r="R32" t="n">
-        <v>99.93164849999999</v>
+        <v>100.16369671</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>100.21798813</v>
+        <v>100.15470327</v>
       </c>
       <c r="C33" t="n">
-        <v>100.06819917</v>
+        <v>100.13610635</v>
       </c>
       <c r="D33" t="n">
-        <v>99.85706202</v>
+        <v>99.82710786</v>
       </c>
       <c r="E33" t="n">
-        <v>100.06896885</v>
+        <v>99.98407274</v>
       </c>
       <c r="F33" t="n">
-        <v>99.96800845999999</v>
+        <v>100.00843203</v>
       </c>
       <c r="G33" t="n">
-        <v>100.42158921</v>
+        <v>99.95427074</v>
       </c>
       <c r="H33" t="n">
-        <v>100.23653201</v>
+        <v>100.26930416</v>
       </c>
       <c r="I33" t="n">
-        <v>99.8362781</v>
+        <v>99.86466511</v>
       </c>
       <c r="J33" t="n">
-        <v>100.03031476</v>
+        <v>100.23875061</v>
       </c>
       <c r="K33" t="n">
-        <v>99.65338962</v>
+        <v>99.8300136</v>
       </c>
       <c r="L33" t="n">
-        <v>100.06292729</v>
+        <v>100.03404934</v>
       </c>
       <c r="M33" t="n">
-        <v>99.97283242</v>
+        <v>100.39729642</v>
       </c>
       <c r="N33" t="n">
-        <v>101.07491754</v>
+        <v>99.5748512</v>
       </c>
       <c r="O33" t="n">
-        <v>99.8983321</v>
+        <v>99.94994688</v>
       </c>
       <c r="P33" t="n">
-        <v>101.10439883</v>
+        <v>98.37953904</v>
       </c>
       <c r="Q33" t="n">
-        <v>101.05293693</v>
+        <v>99.89484704</v>
       </c>
       <c r="R33" t="n">
-        <v>100.06878367</v>
+        <v>100.12559582</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.33200024</v>
+        <v>100.16699095</v>
       </c>
       <c r="C34" t="n">
-        <v>100.08523712</v>
+        <v>100.04911158</v>
       </c>
       <c r="D34" t="n">
-        <v>99.80470515</v>
+        <v>100.05142492</v>
       </c>
       <c r="E34" t="n">
-        <v>100.01529902</v>
+        <v>100.10182887</v>
       </c>
       <c r="F34" t="n">
-        <v>100.16133217</v>
+        <v>99.99612411</v>
       </c>
       <c r="G34" t="n">
-        <v>100.72264058</v>
+        <v>100.3108962</v>
       </c>
       <c r="H34" t="n">
-        <v>100.06105141</v>
+        <v>100.29935281</v>
       </c>
       <c r="I34" t="n">
-        <v>99.67685876</v>
+        <v>99.85323895000001</v>
       </c>
       <c r="J34" t="n">
-        <v>100.03775048</v>
+        <v>100.18992204</v>
       </c>
       <c r="K34" t="n">
-        <v>99.80004588</v>
+        <v>99.87342707000001</v>
       </c>
       <c r="L34" t="n">
-        <v>100.0010219</v>
+        <v>100.05579137</v>
       </c>
       <c r="M34" t="n">
-        <v>101.32074349</v>
+        <v>99.95811998000001</v>
       </c>
       <c r="N34" t="n">
-        <v>101.67364329</v>
+        <v>101.65007326</v>
       </c>
       <c r="O34" t="n">
-        <v>100.20156257</v>
+        <v>99.90386673</v>
       </c>
       <c r="P34" t="n">
-        <v>99.98480619</v>
+        <v>96.69257929</v>
       </c>
       <c r="Q34" t="n">
-        <v>101.5531929</v>
+        <v>100.66027802</v>
       </c>
       <c r="R34" t="n">
-        <v>99.9054185</v>
+        <v>100.03698111</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>100.1682638</v>
+        <v>99.93922618000001</v>
       </c>
       <c r="C35" t="n">
-        <v>100.01606682</v>
+        <v>100.49792706</v>
       </c>
       <c r="D35" t="n">
-        <v>99.8308182</v>
+        <v>100.0404814</v>
       </c>
       <c r="E35" t="n">
-        <v>100.05869937</v>
+        <v>100.26862587</v>
       </c>
       <c r="F35" t="n">
-        <v>100.07912055</v>
+        <v>100.06471408</v>
       </c>
       <c r="G35" t="n">
-        <v>99.84672589</v>
+        <v>100.7513155</v>
       </c>
       <c r="H35" t="n">
-        <v>100.26877776</v>
+        <v>100.13480974</v>
       </c>
       <c r="I35" t="n">
-        <v>99.74522269000001</v>
+        <v>99.69155556</v>
       </c>
       <c r="J35" t="n">
-        <v>100.0305928</v>
+        <v>100.05218266</v>
       </c>
       <c r="K35" t="n">
-        <v>99.9881036</v>
+        <v>99.89277589</v>
       </c>
       <c r="L35" t="n">
-        <v>100.13678632</v>
+        <v>99.96323452999999</v>
       </c>
       <c r="M35" t="n">
-        <v>100.96848564</v>
+        <v>99.27279372</v>
       </c>
       <c r="N35" t="n">
-        <v>98.42252504</v>
+        <v>100.02839034</v>
       </c>
       <c r="O35" t="n">
-        <v>100.2468299</v>
+        <v>99.75849681</v>
       </c>
       <c r="P35" t="n">
-        <v>98.47622373</v>
+        <v>100.57093175</v>
       </c>
       <c r="Q35" t="n">
-        <v>99.6696642</v>
+        <v>102.64338</v>
       </c>
       <c r="R35" t="n">
-        <v>100.11498407</v>
+        <v>99.62926232</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>100.25869626</v>
+        <v>100.06898492</v>
       </c>
       <c r="C36" t="n">
-        <v>100.05241418</v>
+        <v>100.08178174</v>
       </c>
       <c r="D36" t="n">
-        <v>100.00642012</v>
+        <v>99.84705296999999</v>
       </c>
       <c r="E36" t="n">
-        <v>100.04222052</v>
+        <v>100.02339701</v>
       </c>
       <c r="F36" t="n">
-        <v>99.90396362</v>
+        <v>100.12206726</v>
       </c>
       <c r="G36" t="n">
-        <v>99.77630653</v>
+        <v>100.50696738</v>
       </c>
       <c r="H36" t="n">
-        <v>100.15965467</v>
+        <v>100.2011437</v>
       </c>
       <c r="I36" t="n">
-        <v>100.14365621</v>
+        <v>99.8378687</v>
       </c>
       <c r="J36" t="n">
-        <v>100.16888513</v>
+        <v>99.98518922</v>
       </c>
       <c r="K36" t="n">
-        <v>100.02336516</v>
+        <v>99.88978914</v>
       </c>
       <c r="L36" t="n">
-        <v>100.04069779</v>
+        <v>100.05543055</v>
       </c>
       <c r="M36" t="n">
-        <v>100.86401428</v>
+        <v>99.71868827</v>
       </c>
       <c r="N36" t="n">
-        <v>96.97405601</v>
+        <v>99.20376106000001</v>
       </c>
       <c r="O36" t="n">
-        <v>100.03285716</v>
+        <v>99.95425459000001</v>
       </c>
       <c r="P36" t="n">
-        <v>97.67917507</v>
+        <v>101.44974583</v>
       </c>
       <c r="Q36" t="n">
-        <v>99.73604704</v>
+        <v>101.81959554</v>
       </c>
       <c r="R36" t="n">
-        <v>100.12002793</v>
+        <v>100.03021609</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>100.29404523</v>
+        <v>100.1347413</v>
       </c>
       <c r="C37" t="n">
-        <v>100.15693003</v>
+        <v>100.07574775</v>
       </c>
       <c r="D37" t="n">
-        <v>99.88168835</v>
+        <v>99.95677757999999</v>
       </c>
       <c r="E37" t="n">
-        <v>99.96747114999999</v>
+        <v>100.07047443</v>
       </c>
       <c r="F37" t="n">
-        <v>100.05974962</v>
+        <v>100.00670325</v>
       </c>
       <c r="G37" t="n">
-        <v>100.25153069</v>
+        <v>99.649417</v>
       </c>
       <c r="H37" t="n">
-        <v>100.06852698</v>
+        <v>100.06339814</v>
       </c>
       <c r="I37" t="n">
-        <v>99.90696672</v>
+        <v>99.83266066</v>
       </c>
       <c r="J37" t="n">
-        <v>99.92463384</v>
+        <v>99.73430163</v>
       </c>
       <c r="K37" t="n">
-        <v>100.04045691</v>
+        <v>99.93444226</v>
       </c>
       <c r="L37" t="n">
-        <v>100.00651509</v>
+        <v>100.00707379</v>
       </c>
       <c r="M37" t="n">
-        <v>100.0555241</v>
+        <v>100.90180438</v>
       </c>
       <c r="N37" t="n">
-        <v>97.46222948</v>
+        <v>100.72524319</v>
       </c>
       <c r="O37" t="n">
-        <v>100.13088021</v>
+        <v>99.99000851</v>
       </c>
       <c r="P37" t="n">
-        <v>100.04889249</v>
+        <v>102.17966378</v>
       </c>
       <c r="Q37" t="n">
-        <v>101.32779105</v>
+        <v>98.42222002</v>
       </c>
       <c r="R37" t="n">
-        <v>100.01101541</v>
+        <v>100.17060121</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2014年1月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>99.93922618000001</v>
+        <v>100.04877762</v>
       </c>
       <c r="C38" t="n">
-        <v>100.49792706</v>
+        <v>100.05948433</v>
       </c>
       <c r="D38" t="n">
-        <v>100.0404814</v>
+        <v>99.73504327000001</v>
       </c>
       <c r="E38" t="n">
-        <v>100.26862587</v>
+        <v>100.10995016</v>
       </c>
       <c r="F38" t="n">
-        <v>100.06471408</v>
+        <v>100.20375406</v>
       </c>
       <c r="G38" t="n">
-        <v>100.7513155</v>
+        <v>99.52945462</v>
       </c>
       <c r="H38" t="n">
-        <v>100.13480974</v>
+        <v>100.09537257</v>
       </c>
       <c r="I38" t="n">
-        <v>99.69155556</v>
+        <v>99.90434227</v>
       </c>
       <c r="J38" t="n">
-        <v>100.05218266</v>
+        <v>100.177837</v>
       </c>
       <c r="K38" t="n">
-        <v>99.89277589</v>
+        <v>99.94951561000001</v>
       </c>
       <c r="L38" t="n">
-        <v>99.96323452999999</v>
+        <v>100.00215624</v>
       </c>
       <c r="M38" t="n">
-        <v>99.27279372</v>
+        <v>100.70579031</v>
       </c>
       <c r="N38" t="n">
-        <v>100.02839034</v>
+        <v>99.39273136</v>
       </c>
       <c r="O38" t="n">
-        <v>99.75849681</v>
+        <v>100.29367292</v>
       </c>
       <c r="P38" t="n">
-        <v>100.57093175</v>
+        <v>98.89246228</v>
       </c>
       <c r="Q38" t="n">
-        <v>102.64338</v>
+        <v>98.55829746000001</v>
       </c>
       <c r="R38" t="n">
-        <v>99.62926232</v>
+        <v>100.00606774</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>100.06898492</v>
+        <v>100.13166204</v>
       </c>
       <c r="C39" t="n">
-        <v>100.08178174</v>
+        <v>100.03216548</v>
       </c>
       <c r="D39" t="n">
-        <v>99.84705296999999</v>
+        <v>99.8981819</v>
       </c>
       <c r="E39" t="n">
-        <v>100.02339701</v>
+        <v>99.98994227</v>
       </c>
       <c r="F39" t="n">
-        <v>100.12206726</v>
+        <v>100.16976832</v>
       </c>
       <c r="G39" t="n">
-        <v>100.50696738</v>
+        <v>100.0938999</v>
       </c>
       <c r="H39" t="n">
-        <v>100.2011437</v>
+        <v>99.96820378</v>
       </c>
       <c r="I39" t="n">
-        <v>99.8378687</v>
+        <v>99.98466194</v>
       </c>
       <c r="J39" t="n">
-        <v>99.98518922</v>
+        <v>99.88780903999999</v>
       </c>
       <c r="K39" t="n">
-        <v>99.88978914</v>
+        <v>99.91235433</v>
       </c>
       <c r="L39" t="n">
-        <v>100.05543055</v>
+        <v>100.01546998</v>
       </c>
       <c r="M39" t="n">
-        <v>99.71868827</v>
+        <v>100.25218226</v>
       </c>
       <c r="N39" t="n">
-        <v>99.20376106000001</v>
+        <v>100.36086704</v>
       </c>
       <c r="O39" t="n">
-        <v>99.95425459000001</v>
+        <v>100.10093436</v>
       </c>
       <c r="P39" t="n">
-        <v>101.44974583</v>
+        <v>99.83843840999999</v>
       </c>
       <c r="Q39" t="n">
-        <v>101.81959554</v>
+        <v>100.14597535</v>
       </c>
       <c r="R39" t="n">
-        <v>100.03021609</v>
+        <v>100.03241887</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>100.1347413</v>
+        <v>100.12108126</v>
       </c>
       <c r="C40" t="n">
-        <v>100.07574775</v>
+        <v>100.01450376</v>
       </c>
       <c r="D40" t="n">
-        <v>99.95677757999999</v>
+        <v>99.96633153000001</v>
       </c>
       <c r="E40" t="n">
-        <v>100.07047443</v>
+        <v>100.0020885</v>
       </c>
       <c r="F40" t="n">
-        <v>100.00670325</v>
+        <v>99.99109262</v>
       </c>
       <c r="G40" t="n">
-        <v>99.649417</v>
+        <v>99.80816129999999</v>
       </c>
       <c r="H40" t="n">
-        <v>100.06339814</v>
+        <v>100.19836223</v>
       </c>
       <c r="I40" t="n">
-        <v>99.83266066</v>
+        <v>100.00765165</v>
       </c>
       <c r="J40" t="n">
-        <v>99.73430163</v>
+        <v>99.9835831</v>
       </c>
       <c r="K40" t="n">
-        <v>99.93444226</v>
+        <v>99.89109748</v>
       </c>
       <c r="L40" t="n">
-        <v>100.00707379</v>
+        <v>100.0609122</v>
       </c>
       <c r="M40" t="n">
-        <v>100.90180438</v>
+        <v>99.70329886</v>
       </c>
       <c r="N40" t="n">
-        <v>100.72524319</v>
+        <v>100.03206258</v>
       </c>
       <c r="O40" t="n">
-        <v>99.99000851</v>
+        <v>99.90592143000001</v>
       </c>
       <c r="P40" t="n">
-        <v>102.17966378</v>
+        <v>99.84870157</v>
       </c>
       <c r="Q40" t="n">
-        <v>98.42222002</v>
+        <v>99.46629625999999</v>
       </c>
       <c r="R40" t="n">
-        <v>100.17060121</v>
+        <v>99.97946894</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>100.04877762</v>
+        <v>100.10140219</v>
       </c>
       <c r="C41" t="n">
-        <v>100.05948433</v>
+        <v>100.00074153</v>
       </c>
       <c r="D41" t="n">
-        <v>99.73504327000001</v>
+        <v>99.88049839</v>
       </c>
       <c r="E41" t="n">
-        <v>100.10995016</v>
+        <v>100.00600289</v>
       </c>
       <c r="F41" t="n">
-        <v>100.20375406</v>
+        <v>100.03528011</v>
       </c>
       <c r="G41" t="n">
-        <v>99.52945462</v>
+        <v>99.89391406</v>
       </c>
       <c r="H41" t="n">
-        <v>100.09537257</v>
+        <v>99.91766622999999</v>
       </c>
       <c r="I41" t="n">
-        <v>99.90434227</v>
+        <v>99.89267426000001</v>
       </c>
       <c r="J41" t="n">
-        <v>100.177837</v>
+        <v>99.96104654</v>
       </c>
       <c r="K41" t="n">
-        <v>99.94951561000001</v>
+        <v>99.93656319999999</v>
       </c>
       <c r="L41" t="n">
-        <v>100.00215624</v>
+        <v>99.95206579000001</v>
       </c>
       <c r="M41" t="n">
-        <v>100.70579031</v>
+        <v>99.32825527999999</v>
       </c>
       <c r="N41" t="n">
-        <v>99.39273136</v>
+        <v>100.11026049</v>
       </c>
       <c r="O41" t="n">
-        <v>100.29367292</v>
+        <v>100.05151692</v>
       </c>
       <c r="P41" t="n">
-        <v>98.89246228</v>
+        <v>101.03631388</v>
       </c>
       <c r="Q41" t="n">
-        <v>98.55829746000001</v>
+        <v>99.84221757</v>
       </c>
       <c r="R41" t="n">
-        <v>100.00606774</v>
+        <v>99.96709842999999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>100.13166204</v>
+        <v>100.19964816</v>
       </c>
       <c r="C42" t="n">
-        <v>100.03216548</v>
+        <v>100.04398833</v>
       </c>
       <c r="D42" t="n">
-        <v>99.8981819</v>
+        <v>99.79426398</v>
       </c>
       <c r="E42" t="n">
-        <v>99.98994227</v>
+        <v>99.96255384</v>
       </c>
       <c r="F42" t="n">
-        <v>100.16976832</v>
+        <v>99.96472453</v>
       </c>
       <c r="G42" t="n">
-        <v>100.0938999</v>
+        <v>100.04026674</v>
       </c>
       <c r="H42" t="n">
-        <v>99.96820378</v>
+        <v>100.1541233</v>
       </c>
       <c r="I42" t="n">
-        <v>99.98466194</v>
+        <v>99.79375405</v>
       </c>
       <c r="J42" t="n">
-        <v>99.88780903999999</v>
+        <v>99.98310195000001</v>
       </c>
       <c r="K42" t="n">
-        <v>99.91235433</v>
+        <v>99.86795428000001</v>
       </c>
       <c r="L42" t="n">
-        <v>100.01546998</v>
+        <v>100.04156254</v>
       </c>
       <c r="M42" t="n">
-        <v>100.25218226</v>
+        <v>100.00710501</v>
       </c>
       <c r="N42" t="n">
-        <v>100.36086704</v>
+        <v>98.65509796000001</v>
       </c>
       <c r="O42" t="n">
-        <v>100.10093436</v>
+        <v>99.8930965</v>
       </c>
       <c r="P42" t="n">
-        <v>99.83843840999999</v>
+        <v>98.93640436</v>
       </c>
       <c r="Q42" t="n">
-        <v>100.14597535</v>
+        <v>100.60332656</v>
       </c>
       <c r="R42" t="n">
-        <v>100.03241887</v>
+        <v>99.85237487000001</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>100.12108126</v>
+        <v>100.15126344</v>
       </c>
       <c r="C43" t="n">
-        <v>100.01450376</v>
+        <v>100.18287461</v>
       </c>
       <c r="D43" t="n">
-        <v>99.96633153000001</v>
+        <v>99.8865711</v>
       </c>
       <c r="E43" t="n">
-        <v>100.0020885</v>
+        <v>100.05177736</v>
       </c>
       <c r="F43" t="n">
-        <v>99.99109262</v>
+        <v>100.08498174</v>
       </c>
       <c r="G43" t="n">
-        <v>99.80816129999999</v>
+        <v>100.21270163</v>
       </c>
       <c r="H43" t="n">
-        <v>100.19836223</v>
+        <v>99.96388014</v>
       </c>
       <c r="I43" t="n">
-        <v>100.00765165</v>
+        <v>99.72330304</v>
       </c>
       <c r="J43" t="n">
-        <v>99.9835831</v>
+        <v>99.92805269</v>
       </c>
       <c r="K43" t="n">
-        <v>99.89109748</v>
+        <v>99.95752419</v>
       </c>
       <c r="L43" t="n">
-        <v>100.0609122</v>
+        <v>100.12628027</v>
       </c>
       <c r="M43" t="n">
-        <v>99.70329886</v>
+        <v>101.15007747</v>
       </c>
       <c r="N43" t="n">
-        <v>100.03206258</v>
+        <v>98.65258695</v>
       </c>
       <c r="O43" t="n">
-        <v>99.90592143000001</v>
+        <v>100.13068263</v>
       </c>
       <c r="P43" t="n">
-        <v>99.84870157</v>
+        <v>97.69100895</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.46629625999999</v>
+        <v>100.81291863</v>
       </c>
       <c r="R43" t="n">
-        <v>99.97946894</v>
+        <v>99.91660237000001</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>100.10140219</v>
+        <v>100.1682638</v>
       </c>
       <c r="C44" t="n">
-        <v>100.00074153</v>
+        <v>100.01606682</v>
       </c>
       <c r="D44" t="n">
-        <v>99.88049839</v>
+        <v>99.8308182</v>
       </c>
       <c r="E44" t="n">
-        <v>100.00600289</v>
+        <v>100.05869937</v>
       </c>
       <c r="F44" t="n">
-        <v>100.03528011</v>
+        <v>100.07912055</v>
       </c>
       <c r="G44" t="n">
-        <v>99.89391406</v>
+        <v>99.84672589</v>
       </c>
       <c r="H44" t="n">
-        <v>99.91766622999999</v>
+        <v>100.26877776</v>
       </c>
       <c r="I44" t="n">
-        <v>99.89267426000001</v>
+        <v>99.74522269000001</v>
       </c>
       <c r="J44" t="n">
-        <v>99.96104654</v>
+        <v>100.0305928</v>
       </c>
       <c r="K44" t="n">
-        <v>99.93656319999999</v>
+        <v>99.9881036</v>
       </c>
       <c r="L44" t="n">
-        <v>99.95206579000001</v>
+        <v>100.13678632</v>
       </c>
       <c r="M44" t="n">
-        <v>99.32825527999999</v>
+        <v>100.96848564</v>
       </c>
       <c r="N44" t="n">
-        <v>100.11026049</v>
+        <v>98.42252504</v>
       </c>
       <c r="O44" t="n">
-        <v>100.05151692</v>
+        <v>100.2468299</v>
       </c>
       <c r="P44" t="n">
-        <v>101.03631388</v>
+        <v>98.47622373</v>
       </c>
       <c r="Q44" t="n">
-        <v>99.84221757</v>
+        <v>99.6696642</v>
       </c>
       <c r="R44" t="n">
-        <v>99.96709842999999</v>
+        <v>100.11498407</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>100.19964816</v>
+        <v>100.25869626</v>
       </c>
       <c r="C45" t="n">
-        <v>100.04398833</v>
+        <v>100.05241418</v>
       </c>
       <c r="D45" t="n">
-        <v>99.79426398</v>
+        <v>100.00642012</v>
       </c>
       <c r="E45" t="n">
-        <v>99.96255384</v>
+        <v>100.04222052</v>
       </c>
       <c r="F45" t="n">
-        <v>99.96472453</v>
+        <v>99.90396362</v>
       </c>
       <c r="G45" t="n">
-        <v>100.04026674</v>
+        <v>99.77630653</v>
       </c>
       <c r="H45" t="n">
-        <v>100.1541233</v>
+        <v>100.15965467</v>
       </c>
       <c r="I45" t="n">
-        <v>99.79375405</v>
+        <v>100.14365621</v>
       </c>
       <c r="J45" t="n">
-        <v>99.98310195000001</v>
+        <v>100.16888513</v>
       </c>
       <c r="K45" t="n">
-        <v>99.86795428000001</v>
+        <v>100.02336516</v>
       </c>
       <c r="L45" t="n">
-        <v>100.04156254</v>
+        <v>100.04069779</v>
       </c>
       <c r="M45" t="n">
-        <v>100.00710501</v>
+        <v>100.86401428</v>
       </c>
       <c r="N45" t="n">
-        <v>98.65509796000001</v>
+        <v>96.97405601</v>
       </c>
       <c r="O45" t="n">
-        <v>99.8930965</v>
+        <v>100.03285716</v>
       </c>
       <c r="P45" t="n">
-        <v>98.93640436</v>
+        <v>97.67917507</v>
       </c>
       <c r="Q45" t="n">
-        <v>100.60332656</v>
+        <v>99.73604704</v>
       </c>
       <c r="R45" t="n">
-        <v>99.85237487000001</v>
+        <v>100.12002793</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>100.15126344</v>
+        <v>100.29404523</v>
       </c>
       <c r="C46" t="n">
-        <v>100.18287461</v>
+        <v>100.15693003</v>
       </c>
       <c r="D46" t="n">
-        <v>99.8865711</v>
+        <v>99.88168835</v>
       </c>
       <c r="E46" t="n">
-        <v>100.05177736</v>
+        <v>99.96747114999999</v>
       </c>
       <c r="F46" t="n">
-        <v>100.08498174</v>
+        <v>100.05974962</v>
       </c>
       <c r="G46" t="n">
-        <v>100.21270163</v>
+        <v>100.25153069</v>
       </c>
       <c r="H46" t="n">
-        <v>99.96388014</v>
+        <v>100.06852698</v>
       </c>
       <c r="I46" t="n">
-        <v>99.72330304</v>
+        <v>99.90696672</v>
       </c>
       <c r="J46" t="n">
-        <v>99.92805269</v>
+        <v>99.92463384</v>
       </c>
       <c r="K46" t="n">
-        <v>99.95752419</v>
+        <v>100.04045691</v>
       </c>
       <c r="L46" t="n">
-        <v>100.12628027</v>
+        <v>100.00651509</v>
       </c>
       <c r="M46" t="n">
-        <v>101.15007747</v>
+        <v>100.0555241</v>
       </c>
       <c r="N46" t="n">
-        <v>98.65258695</v>
+        <v>97.46222948</v>
       </c>
       <c r="O46" t="n">
-        <v>100.13068263</v>
+        <v>100.13088021</v>
       </c>
       <c r="P46" t="n">
-        <v>97.69100895</v>
+        <v>100.04889249</v>
       </c>
       <c r="Q46" t="n">
-        <v>100.81291863</v>
+        <v>101.32779105</v>
       </c>
       <c r="R46" t="n">
-        <v>99.91660237000001</v>
+        <v>100.01101541</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>100.38967478</v>
+        <v>100.16683504</v>
       </c>
       <c r="C47" t="n">
-        <v>99.95415017000001</v>
+        <v>101.96070186</v>
       </c>
       <c r="D47" t="n">
-        <v>99.92289014000001</v>
+        <v>99.90264961</v>
       </c>
       <c r="E47" t="n">
-        <v>100.02128567</v>
+        <v>100.2139641</v>
       </c>
       <c r="F47" t="n">
-        <v>100.04298289</v>
+        <v>100.04855883</v>
       </c>
       <c r="G47" t="n">
-        <v>99.7541602</v>
+        <v>99.94291337999999</v>
       </c>
       <c r="H47" t="n">
-        <v>100.16990256</v>
+        <v>100.15848332</v>
       </c>
       <c r="I47" t="n">
-        <v>99.89586788</v>
+        <v>99.92740268999999</v>
       </c>
       <c r="J47" t="n">
-        <v>99.9173866</v>
+        <v>99.94469907</v>
       </c>
       <c r="K47" t="n">
-        <v>100.01341415</v>
+        <v>100.05762027</v>
       </c>
       <c r="L47" t="n">
-        <v>100.07620411</v>
+        <v>100.08451196</v>
       </c>
       <c r="M47" t="n">
-        <v>100.67336429</v>
+        <v>99.55919591</v>
       </c>
       <c r="N47" t="n">
-        <v>100.35084425</v>
+        <v>95.4882375</v>
       </c>
       <c r="O47" t="n">
-        <v>100.11097238</v>
+        <v>99.88623776999999</v>
       </c>
       <c r="P47" t="n">
-        <v>100.48461097</v>
+        <v>102.11212531</v>
       </c>
       <c r="Q47" t="n">
-        <v>98.89307427999999</v>
+        <v>100.70869387</v>
       </c>
       <c r="R47" t="n">
-        <v>100.10737295</v>
+        <v>100.01888058</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>100.12057542</v>
+        <v>100.09251986</v>
       </c>
       <c r="C48" t="n">
-        <v>100.04586991</v>
+        <v>100.13176385</v>
       </c>
       <c r="D48" t="n">
-        <v>99.88740161</v>
+        <v>99.85149416</v>
       </c>
       <c r="E48" t="n">
-        <v>99.99733968</v>
+        <v>99.93012621</v>
       </c>
       <c r="F48" t="n">
-        <v>100.01366304</v>
+        <v>100.23139505</v>
       </c>
       <c r="G48" t="n">
-        <v>100.05217504</v>
+        <v>100.86661691</v>
       </c>
       <c r="H48" t="n">
-        <v>100.10760569</v>
+        <v>99.96340117</v>
       </c>
       <c r="I48" t="n">
-        <v>99.87836829</v>
+        <v>99.74346138</v>
       </c>
       <c r="J48" t="n">
-        <v>99.92630009</v>
+        <v>99.79645671999999</v>
       </c>
       <c r="K48" t="n">
-        <v>99.99630215000001</v>
+        <v>99.89195522999999</v>
       </c>
       <c r="L48" t="n">
-        <v>100.04952432</v>
+        <v>100.03301454</v>
       </c>
       <c r="M48" t="n">
-        <v>100.53052925</v>
+        <v>99.75075817</v>
       </c>
       <c r="N48" t="n">
-        <v>99.47646776000001</v>
+        <v>98.85375749000001</v>
       </c>
       <c r="O48" t="n">
-        <v>100.01424289</v>
+        <v>99.95589026</v>
       </c>
       <c r="P48" t="n">
-        <v>97.49283214</v>
+        <v>99.17994125</v>
       </c>
       <c r="Q48" t="n">
-        <v>100.21135066</v>
+        <v>103.11958487</v>
       </c>
       <c r="R48" t="n">
-        <v>100.1145228</v>
+        <v>99.82453425999999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>100.23186664</v>
+        <v>100.19596371</v>
       </c>
       <c r="C49" t="n">
-        <v>100.00689483</v>
+        <v>100.11528746</v>
       </c>
       <c r="D49" t="n">
-        <v>99.88514943</v>
+        <v>99.92231701</v>
       </c>
       <c r="E49" t="n">
-        <v>99.98822112000001</v>
+        <v>100.12711186</v>
       </c>
       <c r="F49" t="n">
-        <v>100.03150298</v>
+        <v>100.02079894</v>
       </c>
       <c r="G49" t="n">
-        <v>100.47128466</v>
+        <v>99.66171171000001</v>
       </c>
       <c r="H49" t="n">
-        <v>100.10066915</v>
+        <v>99.9769479</v>
       </c>
       <c r="I49" t="n">
-        <v>99.90874619</v>
+        <v>99.89460726999999</v>
       </c>
       <c r="J49" t="n">
-        <v>99.89801233999999</v>
+        <v>99.81951261</v>
       </c>
       <c r="K49" t="n">
-        <v>100.03680741</v>
+        <v>99.91287514</v>
       </c>
       <c r="L49" t="n">
-        <v>100.06125604</v>
+        <v>100.20819665</v>
       </c>
       <c r="M49" t="n">
-        <v>99.85696048</v>
+        <v>101.00565162</v>
       </c>
       <c r="N49" t="n">
-        <v>98.90025188</v>
+        <v>102.61943045</v>
       </c>
       <c r="O49" t="n">
-        <v>100.16908414</v>
+        <v>100.20383388</v>
       </c>
       <c r="P49" t="n">
-        <v>99.17867241</v>
+        <v>98.23918569999999</v>
       </c>
       <c r="Q49" t="n">
-        <v>101.72518033</v>
+        <v>98.19382529000001</v>
       </c>
       <c r="R49" t="n">
-        <v>99.99653598</v>
+        <v>100.17931806</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2015年1月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>100.16683504</v>
+        <v>100.07362831</v>
       </c>
       <c r="C50" t="n">
-        <v>101.96070186</v>
+        <v>100.04565275</v>
       </c>
       <c r="D50" t="n">
-        <v>99.90264961</v>
+        <v>99.71937871</v>
       </c>
       <c r="E50" t="n">
-        <v>100.2139641</v>
+        <v>100.0283932</v>
       </c>
       <c r="F50" t="n">
-        <v>100.04855883</v>
+        <v>100.08858449</v>
       </c>
       <c r="G50" t="n">
-        <v>99.94291337999999</v>
+        <v>99.64684434</v>
       </c>
       <c r="H50" t="n">
-        <v>100.15848332</v>
+        <v>100.05879839</v>
       </c>
       <c r="I50" t="n">
-        <v>99.92740268999999</v>
+        <v>99.92326525999999</v>
       </c>
       <c r="J50" t="n">
-        <v>99.94469907</v>
+        <v>100.02154376</v>
       </c>
       <c r="K50" t="n">
-        <v>100.05762027</v>
+        <v>99.95488906</v>
       </c>
       <c r="L50" t="n">
-        <v>100.08451196</v>
+        <v>99.99418660000001</v>
       </c>
       <c r="M50" t="n">
-        <v>99.55919591</v>
+        <v>100.47285588</v>
       </c>
       <c r="N50" t="n">
-        <v>95.4882375</v>
+        <v>99.38567112</v>
       </c>
       <c r="O50" t="n">
-        <v>99.88623776999999</v>
+        <v>99.83036278</v>
       </c>
       <c r="P50" t="n">
-        <v>102.11212531</v>
+        <v>100.06951867</v>
       </c>
       <c r="Q50" t="n">
-        <v>100.70869387</v>
+        <v>98.97868644</v>
       </c>
       <c r="R50" t="n">
-        <v>100.01888058</v>
+        <v>100.08697246</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>100.09251986</v>
+        <v>100.19561592</v>
       </c>
       <c r="C51" t="n">
-        <v>100.13176385</v>
+        <v>99.98913334</v>
       </c>
       <c r="D51" t="n">
-        <v>99.85149416</v>
+        <v>99.85000826</v>
       </c>
       <c r="E51" t="n">
-        <v>99.93012621</v>
+        <v>99.96725716</v>
       </c>
       <c r="F51" t="n">
-        <v>100.23139505</v>
+        <v>99.93875190999999</v>
       </c>
       <c r="G51" t="n">
-        <v>100.86661691</v>
+        <v>99.90816284</v>
       </c>
       <c r="H51" t="n">
-        <v>99.96340117</v>
+        <v>100.18794003</v>
       </c>
       <c r="I51" t="n">
-        <v>99.74346138</v>
+        <v>99.91323617</v>
       </c>
       <c r="J51" t="n">
-        <v>99.79645671999999</v>
+        <v>99.94579664</v>
       </c>
       <c r="K51" t="n">
-        <v>99.89195522999999</v>
+        <v>99.88843581</v>
       </c>
       <c r="L51" t="n">
-        <v>100.03301454</v>
+        <v>100.02074758</v>
       </c>
       <c r="M51" t="n">
-        <v>99.75075817</v>
+        <v>100.15130898</v>
       </c>
       <c r="N51" t="n">
-        <v>98.85375749000001</v>
+        <v>102.35578933</v>
       </c>
       <c r="O51" t="n">
-        <v>99.95589026</v>
+        <v>99.96324011999999</v>
       </c>
       <c r="P51" t="n">
-        <v>99.17994125</v>
+        <v>99.55901965</v>
       </c>
       <c r="Q51" t="n">
-        <v>103.11958487</v>
+        <v>98.94553976</v>
       </c>
       <c r="R51" t="n">
-        <v>99.82453425999999</v>
+        <v>101.46637213</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>100.19596371</v>
+        <v>100.5229654</v>
       </c>
       <c r="C52" t="n">
-        <v>100.11528746</v>
+        <v>99.9415478</v>
       </c>
       <c r="D52" t="n">
-        <v>99.92231701</v>
+        <v>99.63037008000001</v>
       </c>
       <c r="E52" t="n">
-        <v>100.12711186</v>
+        <v>100.0418603</v>
       </c>
       <c r="F52" t="n">
-        <v>100.02079894</v>
+        <v>100.12369895</v>
       </c>
       <c r="G52" t="n">
-        <v>99.66171171000001</v>
+        <v>99.91256930999999</v>
       </c>
       <c r="H52" t="n">
-        <v>99.9769479</v>
+        <v>100.21369561</v>
       </c>
       <c r="I52" t="n">
-        <v>99.89460726999999</v>
+        <v>99.92841598</v>
       </c>
       <c r="J52" t="n">
-        <v>99.81951261</v>
+        <v>99.80880209</v>
       </c>
       <c r="K52" t="n">
-        <v>99.91287514</v>
+        <v>99.89471798</v>
       </c>
       <c r="L52" t="n">
-        <v>100.20819665</v>
+        <v>100.00592637</v>
       </c>
       <c r="M52" t="n">
-        <v>101.00565162</v>
+        <v>99.73944673</v>
       </c>
       <c r="N52" t="n">
-        <v>102.61943045</v>
+        <v>99.73075075</v>
       </c>
       <c r="O52" t="n">
-        <v>100.20383388</v>
+        <v>100.16460824</v>
       </c>
       <c r="P52" t="n">
-        <v>98.23918569999999</v>
+        <v>98.95391497</v>
       </c>
       <c r="Q52" t="n">
-        <v>98.19382529000001</v>
+        <v>99.71623993</v>
       </c>
       <c r="R52" t="n">
-        <v>100.17931806</v>
+        <v>101.12617681</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>100.07362831</v>
+        <v>100.33500347</v>
       </c>
       <c r="C53" t="n">
-        <v>100.04565275</v>
+        <v>100.22578471</v>
       </c>
       <c r="D53" t="n">
-        <v>99.71937871</v>
+        <v>99.73567516999999</v>
       </c>
       <c r="E53" t="n">
-        <v>100.0283932</v>
+        <v>100.06101909</v>
       </c>
       <c r="F53" t="n">
-        <v>100.08858449</v>
+        <v>99.96397966000001</v>
       </c>
       <c r="G53" t="n">
-        <v>99.64684434</v>
+        <v>100.02795116</v>
       </c>
       <c r="H53" t="n">
-        <v>100.05879839</v>
+        <v>100.08234333</v>
       </c>
       <c r="I53" t="n">
-        <v>99.92326525999999</v>
+        <v>99.84571192999999</v>
       </c>
       <c r="J53" t="n">
-        <v>100.02154376</v>
+        <v>99.74982213</v>
       </c>
       <c r="K53" t="n">
-        <v>99.95488906</v>
+        <v>99.91916572</v>
       </c>
       <c r="L53" t="n">
-        <v>99.99418660000001</v>
+        <v>100.02442535</v>
       </c>
       <c r="M53" t="n">
-        <v>100.47285588</v>
+        <v>99.41672603000001</v>
       </c>
       <c r="N53" t="n">
-        <v>99.38567112</v>
+        <v>98.62250091</v>
       </c>
       <c r="O53" t="n">
-        <v>99.83036278</v>
+        <v>100.04507429</v>
       </c>
       <c r="P53" t="n">
-        <v>100.06951867</v>
+        <v>97.84351345</v>
       </c>
       <c r="Q53" t="n">
-        <v>98.97868644</v>
+        <v>100.68755389</v>
       </c>
       <c r="R53" t="n">
-        <v>100.08697246</v>
+        <v>100.0648892</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>100.19561592</v>
+        <v>100.26247218</v>
       </c>
       <c r="C54" t="n">
-        <v>99.98913334</v>
+        <v>100.04646338</v>
       </c>
       <c r="D54" t="n">
-        <v>99.85000826</v>
+        <v>99.56648453</v>
       </c>
       <c r="E54" t="n">
-        <v>99.96725716</v>
+        <v>99.97899138</v>
       </c>
       <c r="F54" t="n">
-        <v>99.93875190999999</v>
+        <v>100.05472869</v>
       </c>
       <c r="G54" t="n">
-        <v>99.90816284</v>
+        <v>100.24712761</v>
       </c>
       <c r="H54" t="n">
-        <v>100.18794003</v>
+        <v>100.04650507</v>
       </c>
       <c r="I54" t="n">
-        <v>99.91323617</v>
+        <v>99.85176068</v>
       </c>
       <c r="J54" t="n">
-        <v>99.94579664</v>
+        <v>99.95095634</v>
       </c>
       <c r="K54" t="n">
-        <v>99.88843581</v>
+        <v>99.97807464</v>
       </c>
       <c r="L54" t="n">
-        <v>100.02074758</v>
+        <v>99.93421555</v>
       </c>
       <c r="M54" t="n">
-        <v>100.15130898</v>
+        <v>99.90040298</v>
       </c>
       <c r="N54" t="n">
-        <v>102.35578933</v>
+        <v>96.94872608999999</v>
       </c>
       <c r="O54" t="n">
-        <v>99.96324011999999</v>
+        <v>99.91313847000001</v>
       </c>
       <c r="P54" t="n">
-        <v>99.55901965</v>
+        <v>99.16341545</v>
       </c>
       <c r="Q54" t="n">
-        <v>98.94553976</v>
+        <v>101.59179137</v>
       </c>
       <c r="R54" t="n">
-        <v>101.46637213</v>
+        <v>100.00422378</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>100.5229654</v>
+        <v>100.24890137</v>
       </c>
       <c r="C55" t="n">
-        <v>99.9415478</v>
+        <v>100.02751665</v>
       </c>
       <c r="D55" t="n">
-        <v>99.63037008000001</v>
+        <v>99.60917992</v>
       </c>
       <c r="E55" t="n">
-        <v>100.0418603</v>
+        <v>100.03741356</v>
       </c>
       <c r="F55" t="n">
-        <v>100.12369895</v>
+        <v>99.96437595</v>
       </c>
       <c r="G55" t="n">
-        <v>99.91256930999999</v>
+        <v>99.90676635</v>
       </c>
       <c r="H55" t="n">
-        <v>100.21369561</v>
+        <v>99.92857834</v>
       </c>
       <c r="I55" t="n">
-        <v>99.92841598</v>
+        <v>99.84142946</v>
       </c>
       <c r="J55" t="n">
-        <v>99.80880209</v>
+        <v>99.83897476</v>
       </c>
       <c r="K55" t="n">
-        <v>99.89471798</v>
+        <v>100.00041367</v>
       </c>
       <c r="L55" t="n">
-        <v>100.00592637</v>
+        <v>100.03835562</v>
       </c>
       <c r="M55" t="n">
-        <v>99.73944673</v>
+        <v>101.01494258</v>
       </c>
       <c r="N55" t="n">
-        <v>99.73075075</v>
+        <v>98.41204127</v>
       </c>
       <c r="O55" t="n">
-        <v>100.16460824</v>
+        <v>100.14825171</v>
       </c>
       <c r="P55" t="n">
-        <v>98.95391497</v>
+        <v>100.45003469</v>
       </c>
       <c r="Q55" t="n">
-        <v>99.71623993</v>
+        <v>99.85165108</v>
       </c>
       <c r="R55" t="n">
-        <v>101.12617681</v>
+        <v>99.91682102</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>100.33500347</v>
+        <v>100.38967478</v>
       </c>
       <c r="C56" t="n">
-        <v>100.22578471</v>
+        <v>99.95415017000001</v>
       </c>
       <c r="D56" t="n">
-        <v>99.73567516999999</v>
+        <v>99.92289014000001</v>
       </c>
       <c r="E56" t="n">
-        <v>100.06101909</v>
+        <v>100.02128567</v>
       </c>
       <c r="F56" t="n">
-        <v>99.96397966000001</v>
+        <v>100.04298289</v>
       </c>
       <c r="G56" t="n">
-        <v>100.02795116</v>
+        <v>99.7541602</v>
       </c>
       <c r="H56" t="n">
-        <v>100.08234333</v>
+        <v>100.16990256</v>
       </c>
       <c r="I56" t="n">
-        <v>99.84571192999999</v>
+        <v>99.89586788</v>
       </c>
       <c r="J56" t="n">
-        <v>99.74982213</v>
+        <v>99.9173866</v>
       </c>
       <c r="K56" t="n">
-        <v>99.91916572</v>
+        <v>100.01341415</v>
       </c>
       <c r="L56" t="n">
-        <v>100.02442535</v>
+        <v>100.07620411</v>
       </c>
       <c r="M56" t="n">
-        <v>99.41672603000001</v>
+        <v>100.67336429</v>
       </c>
       <c r="N56" t="n">
-        <v>98.62250091</v>
+        <v>100.35084425</v>
       </c>
       <c r="O56" t="n">
-        <v>100.04507429</v>
+        <v>100.11097238</v>
       </c>
       <c r="P56" t="n">
-        <v>97.84351345</v>
+        <v>100.48461097</v>
       </c>
       <c r="Q56" t="n">
-        <v>100.68755389</v>
+        <v>98.89307427999999</v>
       </c>
       <c r="R56" t="n">
-        <v>100.0648892</v>
+        <v>100.10737295</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>100.26247218</v>
+        <v>100.12057542</v>
       </c>
       <c r="C57" t="n">
-        <v>100.04646338</v>
+        <v>100.04586991</v>
       </c>
       <c r="D57" t="n">
-        <v>99.56648453</v>
+        <v>99.88740161</v>
       </c>
       <c r="E57" t="n">
-        <v>99.97899138</v>
+        <v>99.99733968</v>
       </c>
       <c r="F57" t="n">
-        <v>100.05472869</v>
+        <v>100.01366304</v>
       </c>
       <c r="G57" t="n">
-        <v>100.24712761</v>
+        <v>100.05217504</v>
       </c>
       <c r="H57" t="n">
-        <v>100.04650507</v>
+        <v>100.10760569</v>
       </c>
       <c r="I57" t="n">
-        <v>99.85176068</v>
+        <v>99.87836829</v>
       </c>
       <c r="J57" t="n">
-        <v>99.95095634</v>
+        <v>99.92630009</v>
       </c>
       <c r="K57" t="n">
-        <v>99.97807464</v>
+        <v>99.99630215000001</v>
       </c>
       <c r="L57" t="n">
-        <v>99.93421555</v>
+        <v>100.04952432</v>
       </c>
       <c r="M57" t="n">
-        <v>99.90040298</v>
+        <v>100.53052925</v>
       </c>
       <c r="N57" t="n">
-        <v>96.94872608999999</v>
+        <v>99.47646776000001</v>
       </c>
       <c r="O57" t="n">
-        <v>99.91313847000001</v>
+        <v>100.01424289</v>
       </c>
       <c r="P57" t="n">
-        <v>99.16341545</v>
+        <v>97.49283214</v>
       </c>
       <c r="Q57" t="n">
-        <v>101.59179137</v>
+        <v>100.21135066</v>
       </c>
       <c r="R57" t="n">
-        <v>100.00422378</v>
+        <v>100.1145228</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>100.24890137</v>
+        <v>100.23186664</v>
       </c>
       <c r="C58" t="n">
-        <v>100.02751665</v>
+        <v>100.00689483</v>
       </c>
       <c r="D58" t="n">
-        <v>99.60917992</v>
+        <v>99.88514943</v>
       </c>
       <c r="E58" t="n">
-        <v>100.03741356</v>
+        <v>99.98822112000001</v>
       </c>
       <c r="F58" t="n">
-        <v>99.96437595</v>
+        <v>100.03150298</v>
       </c>
       <c r="G58" t="n">
-        <v>99.90676635</v>
+        <v>100.47128466</v>
       </c>
       <c r="H58" t="n">
-        <v>99.92857834</v>
+        <v>100.10066915</v>
       </c>
       <c r="I58" t="n">
-        <v>99.84142946</v>
+        <v>99.90874619</v>
       </c>
       <c r="J58" t="n">
-        <v>99.83897476</v>
+        <v>99.89801233999999</v>
       </c>
       <c r="K58" t="n">
-        <v>100.00041367</v>
+        <v>100.03680741</v>
       </c>
       <c r="L58" t="n">
-        <v>100.03835562</v>
+        <v>100.06125604</v>
       </c>
       <c r="M58" t="n">
-        <v>101.01494258</v>
+        <v>99.85696048</v>
       </c>
       <c r="N58" t="n">
-        <v>98.41204127</v>
+        <v>98.90025188</v>
       </c>
       <c r="O58" t="n">
-        <v>100.14825171</v>
+        <v>100.16908414</v>
       </c>
       <c r="P58" t="n">
-        <v>100.45003469</v>
+        <v>99.17867241</v>
       </c>
       <c r="Q58" t="n">
-        <v>99.85165108</v>
+        <v>101.72518033</v>
       </c>
       <c r="R58" t="n">
-        <v>99.91682102</v>
+        <v>99.99653598</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>100.373390999999</v>
+        <v>100.50244571</v>
       </c>
       <c r="C59" t="n">
-        <v>100.043667799999</v>
+        <v>100.74268214</v>
       </c>
       <c r="D59" t="n">
-        <v>99.97924586000001</v>
+        <v>99.88702084000001</v>
       </c>
       <c r="E59" t="n">
-        <v>100.086938799999</v>
+        <v>100.14414876</v>
       </c>
       <c r="F59" t="n">
-        <v>100.1247431</v>
+        <v>100.06995123</v>
       </c>
       <c r="G59" t="n">
-        <v>99.96169165000001</v>
+        <v>100.36561704</v>
       </c>
       <c r="H59" t="n">
-        <v>99.9433373199999</v>
+        <v>100.15066632</v>
       </c>
       <c r="I59" t="n">
-        <v>99.98954046999989</v>
+        <v>99.86563101</v>
       </c>
       <c r="J59" t="n">
-        <v>100.101594199999</v>
+        <v>100.07339502</v>
       </c>
       <c r="K59" t="n">
-        <v>99.92888211</v>
+        <v>99.85704174999999</v>
       </c>
       <c r="L59" t="n">
-        <v>100.0121508</v>
+        <v>99.98029115</v>
       </c>
       <c r="M59" t="n">
-        <v>100.588087</v>
+        <v>99.5701823</v>
       </c>
       <c r="N59" t="n">
-        <v>101.0918616</v>
+        <v>99.73263461000001</v>
       </c>
       <c r="O59" t="n">
-        <v>100.4563275</v>
+        <v>100.04501954</v>
       </c>
       <c r="P59" t="n">
-        <v>96.95761819000001</v>
+        <v>102.15353942</v>
       </c>
       <c r="Q59" t="n">
-        <v>99.22616852</v>
+        <v>101.75140278</v>
       </c>
       <c r="R59" t="n">
-        <v>100.166624999999</v>
+        <v>99.82817117</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>100.6093178</v>
+        <v>100.22861857</v>
       </c>
       <c r="C60" t="n">
-        <v>100.036932</v>
+        <v>100.08582195</v>
       </c>
       <c r="D60" t="n">
-        <v>100.0287185</v>
+        <v>99.91967361</v>
       </c>
       <c r="E60" t="n">
-        <v>100.0339736</v>
+        <v>100.26269646</v>
       </c>
       <c r="F60" t="n">
-        <v>100.1475493</v>
+        <v>100.0823103</v>
       </c>
       <c r="G60" t="n">
-        <v>100.2760988</v>
+        <v>101.19036971</v>
       </c>
       <c r="H60" t="n">
-        <v>100.3809711</v>
+        <v>100.03716666</v>
       </c>
       <c r="I60" t="n">
-        <v>99.68457530000001</v>
+        <v>99.68221264</v>
       </c>
       <c r="J60" t="n">
-        <v>100.2844312</v>
+        <v>100.00446864</v>
       </c>
       <c r="K60" t="n">
-        <v>99.93710133</v>
+        <v>99.96694159</v>
       </c>
       <c r="L60" t="n">
-        <v>99.97853644999999</v>
+        <v>99.97226877999999</v>
       </c>
       <c r="M60" t="n">
-        <v>100.523135</v>
+        <v>99.62609688000001</v>
       </c>
       <c r="N60" t="n">
-        <v>101.3349482</v>
+        <v>99.36735603</v>
       </c>
       <c r="O60" t="n">
-        <v>100.0218833</v>
+        <v>99.86836298999999</v>
       </c>
       <c r="P60" t="n">
-        <v>100.2341661</v>
+        <v>104.42786107</v>
       </c>
       <c r="Q60" t="n">
-        <v>100.255048</v>
+        <v>105.66135696</v>
       </c>
       <c r="R60" t="n">
-        <v>100.0783762</v>
+        <v>99.84280209000001</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>100.3142613</v>
+        <v>100.4438231</v>
       </c>
       <c r="C61" t="n">
-        <v>100.0069965</v>
+        <v>99.91617443</v>
       </c>
       <c r="D61" t="n">
-        <v>100.0590617</v>
+        <v>99.86327780000001</v>
       </c>
       <c r="E61" t="n">
-        <v>100.1661298</v>
+        <v>99.88469687</v>
       </c>
       <c r="F61" t="n">
-        <v>99.95794416</v>
+        <v>100.1260418</v>
       </c>
       <c r="G61" t="n">
-        <v>100.2495837</v>
+        <v>99.72505228</v>
       </c>
       <c r="H61" t="n">
-        <v>100.2271235</v>
+        <v>99.94636514</v>
       </c>
       <c r="I61" t="n">
-        <v>100.191784</v>
+        <v>99.76628718000001</v>
       </c>
       <c r="J61" t="n">
-        <v>100.251158</v>
+        <v>99.87793025000001</v>
       </c>
       <c r="K61" t="n">
-        <v>99.99740045</v>
+        <v>99.91279781999999</v>
       </c>
       <c r="L61" t="n">
-        <v>100.1576975</v>
+        <v>100.01769059</v>
       </c>
       <c r="M61" t="n">
-        <v>99.7347931</v>
+        <v>100.5480788</v>
       </c>
       <c r="N61" t="n">
-        <v>102.1995777</v>
+        <v>99.56143728000001</v>
       </c>
       <c r="O61" t="n">
-        <v>100.0284627</v>
+        <v>100.03196927</v>
       </c>
       <c r="P61" t="n">
-        <v>96.63439345</v>
+        <v>103.19389977</v>
       </c>
       <c r="Q61" t="n">
-        <v>100.3749133</v>
+        <v>98.47098547</v>
       </c>
       <c r="R61" t="n">
-        <v>100.0388547</v>
+        <v>100.23618981</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2016年1月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>100.50244571</v>
+        <v>100.55402337</v>
       </c>
       <c r="C62" t="n">
-        <v>100.74268214</v>
+        <v>99.97420483000001</v>
       </c>
       <c r="D62" t="n">
-        <v>99.88702084000001</v>
+        <v>99.75578584</v>
       </c>
       <c r="E62" t="n">
-        <v>100.14414876</v>
+        <v>100.01545549</v>
       </c>
       <c r="F62" t="n">
-        <v>100.06995123</v>
+        <v>100.41370208</v>
       </c>
       <c r="G62" t="n">
-        <v>100.36561704</v>
+        <v>99.70627521999999</v>
       </c>
       <c r="H62" t="n">
-        <v>100.15066632</v>
+        <v>100.04709724</v>
       </c>
       <c r="I62" t="n">
-        <v>99.86563101</v>
+        <v>99.78669518</v>
       </c>
       <c r="J62" t="n">
-        <v>100.07339502</v>
+        <v>100.12604316</v>
       </c>
       <c r="K62" t="n">
-        <v>99.85704174999999</v>
+        <v>99.73633484</v>
       </c>
       <c r="L62" t="n">
-        <v>99.98029115</v>
+        <v>100.05401711</v>
       </c>
       <c r="M62" t="n">
-        <v>99.5701823</v>
+        <v>100.10442592</v>
       </c>
       <c r="N62" t="n">
-        <v>99.73263461000001</v>
+        <v>100.06179838</v>
       </c>
       <c r="O62" t="n">
-        <v>100.04501954</v>
+        <v>100.05309939</v>
       </c>
       <c r="P62" t="n">
-        <v>102.15353942</v>
+        <v>99.45822566</v>
       </c>
       <c r="Q62" t="n">
-        <v>101.75140278</v>
+        <v>98.68111678</v>
       </c>
       <c r="R62" t="n">
-        <v>99.82817117</v>
+        <v>99.99886578</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>100.22861857</v>
+        <v>100.42497917</v>
       </c>
       <c r="C63" t="n">
-        <v>100.08582195</v>
+        <v>99.98392578000001</v>
       </c>
       <c r="D63" t="n">
-        <v>99.91967361</v>
+        <v>99.69515038999999</v>
       </c>
       <c r="E63" t="n">
-        <v>100.26269646</v>
+        <v>99.99701288999999</v>
       </c>
       <c r="F63" t="n">
-        <v>100.0823103</v>
+        <v>100.17653256</v>
       </c>
       <c r="G63" t="n">
-        <v>101.19036971</v>
+        <v>99.66486555</v>
       </c>
       <c r="H63" t="n">
-        <v>100.03716666</v>
+        <v>100.03460555</v>
       </c>
       <c r="I63" t="n">
-        <v>99.68221264</v>
+        <v>99.79648872999999</v>
       </c>
       <c r="J63" t="n">
-        <v>100.00446864</v>
+        <v>100.16027973</v>
       </c>
       <c r="K63" t="n">
-        <v>99.96694159</v>
+        <v>99.74325502000001</v>
       </c>
       <c r="L63" t="n">
-        <v>99.97226877999999</v>
+        <v>100.02933762</v>
       </c>
       <c r="M63" t="n">
-        <v>99.62609688000001</v>
+        <v>100.06839554</v>
       </c>
       <c r="N63" t="n">
-        <v>99.36735603</v>
+        <v>102.00016604</v>
       </c>
       <c r="O63" t="n">
-        <v>99.86836298999999</v>
+        <v>100.12365942</v>
       </c>
       <c r="P63" t="n">
-        <v>104.42786107</v>
+        <v>102.19169835</v>
       </c>
       <c r="Q63" t="n">
-        <v>105.66135696</v>
+        <v>97.65796091999999</v>
       </c>
       <c r="R63" t="n">
-        <v>99.84280209000001</v>
+        <v>100.05207171</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>100.4438231</v>
+        <v>100.8544597</v>
       </c>
       <c r="C64" t="n">
-        <v>99.91617443</v>
+        <v>100.08165927</v>
       </c>
       <c r="D64" t="n">
-        <v>99.86327780000001</v>
+        <v>99.78531357999999</v>
       </c>
       <c r="E64" t="n">
-        <v>99.88469687</v>
+        <v>99.92732364</v>
       </c>
       <c r="F64" t="n">
-        <v>100.1260418</v>
+        <v>100.20505328</v>
       </c>
       <c r="G64" t="n">
-        <v>99.72505228</v>
+        <v>99.87278803</v>
       </c>
       <c r="H64" t="n">
-        <v>99.94636514</v>
+        <v>100.03148331</v>
       </c>
       <c r="I64" t="n">
-        <v>99.76628718000001</v>
+        <v>99.69160497999999</v>
       </c>
       <c r="J64" t="n">
-        <v>99.87793025000001</v>
+        <v>100.03085539</v>
       </c>
       <c r="K64" t="n">
-        <v>99.91279781999999</v>
+        <v>99.80862806</v>
       </c>
       <c r="L64" t="n">
-        <v>100.01769059</v>
+        <v>99.98661342</v>
       </c>
       <c r="M64" t="n">
-        <v>100.5480788</v>
+        <v>99.60058797000001</v>
       </c>
       <c r="N64" t="n">
-        <v>99.56143728000001</v>
+        <v>102.17559637</v>
       </c>
       <c r="O64" t="n">
-        <v>100.03196927</v>
+        <v>99.96847672</v>
       </c>
       <c r="P64" t="n">
-        <v>103.19389977</v>
+        <v>100.3645693</v>
       </c>
       <c r="Q64" t="n">
-        <v>98.47098547</v>
+        <v>98.73397496</v>
       </c>
       <c r="R64" t="n">
-        <v>100.23618981</v>
+        <v>99.94552139</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>100.55402337</v>
+        <v>100.52203292</v>
       </c>
       <c r="C65" t="n">
-        <v>99.97420483000001</v>
+        <v>100.10152805</v>
       </c>
       <c r="D65" t="n">
-        <v>99.75578584</v>
+        <v>99.81291337</v>
       </c>
       <c r="E65" t="n">
-        <v>100.01545549</v>
+        <v>99.93663961999999</v>
       </c>
       <c r="F65" t="n">
-        <v>100.41370208</v>
+        <v>100.29702677</v>
       </c>
       <c r="G65" t="n">
-        <v>99.70627521999999</v>
+        <v>100.03369394</v>
       </c>
       <c r="H65" t="n">
-        <v>100.04709724</v>
+        <v>99.90107543000001</v>
       </c>
       <c r="I65" t="n">
-        <v>99.78669518</v>
+        <v>99.92966108</v>
       </c>
       <c r="J65" t="n">
-        <v>100.12604316</v>
+        <v>99.96101709</v>
       </c>
       <c r="K65" t="n">
-        <v>99.73633484</v>
+        <v>99.87754397</v>
       </c>
       <c r="L65" t="n">
-        <v>100.05401711</v>
+        <v>100.00958845</v>
       </c>
       <c r="M65" t="n">
-        <v>100.10442592</v>
+        <v>99.55508965999999</v>
       </c>
       <c r="N65" t="n">
-        <v>100.06179838</v>
+        <v>99.78678368</v>
       </c>
       <c r="O65" t="n">
-        <v>100.05309939</v>
+        <v>99.799881</v>
       </c>
       <c r="P65" t="n">
-        <v>99.45822566</v>
+        <v>105.0166133</v>
       </c>
       <c r="Q65" t="n">
-        <v>98.68111678</v>
+        <v>99.96657798</v>
       </c>
       <c r="R65" t="n">
-        <v>99.99886578</v>
+        <v>100.09994479</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>100.42497917</v>
+        <v>100.52587302</v>
       </c>
       <c r="C66" t="n">
-        <v>99.98392578000001</v>
+        <v>100.20016032</v>
       </c>
       <c r="D66" t="n">
-        <v>99.69515038999999</v>
+        <v>99.85693931</v>
       </c>
       <c r="E66" t="n">
-        <v>99.99701288999999</v>
+        <v>100.0184931</v>
       </c>
       <c r="F66" t="n">
-        <v>100.17653256</v>
+        <v>99.99300165</v>
       </c>
       <c r="G66" t="n">
-        <v>99.66486555</v>
+        <v>99.94634463</v>
       </c>
       <c r="H66" t="n">
-        <v>100.03460555</v>
+        <v>100.01664649</v>
       </c>
       <c r="I66" t="n">
-        <v>99.79648872999999</v>
+        <v>99.85235307000001</v>
       </c>
       <c r="J66" t="n">
-        <v>100.16027973</v>
+        <v>100.05907598</v>
       </c>
       <c r="K66" t="n">
-        <v>99.74325502000001</v>
+        <v>99.75735296000001</v>
       </c>
       <c r="L66" t="n">
-        <v>100.02933762</v>
+        <v>99.94022579999999</v>
       </c>
       <c r="M66" t="n">
-        <v>100.06839554</v>
+        <v>100.04144684</v>
       </c>
       <c r="N66" t="n">
-        <v>102.00016604</v>
+        <v>98.25933860000001</v>
       </c>
       <c r="O66" t="n">
-        <v>100.12365942</v>
+        <v>99.92095429</v>
       </c>
       <c r="P66" t="n">
-        <v>102.19169835</v>
+        <v>100.34966295</v>
       </c>
       <c r="Q66" t="n">
-        <v>97.65796091999999</v>
+        <v>100.36413816</v>
       </c>
       <c r="R66" t="n">
-        <v>100.05207171</v>
+        <v>100.01210587</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>100.8544597</v>
+        <v>100.404204899999</v>
       </c>
       <c r="C67" t="n">
-        <v>100.08165927</v>
+        <v>100.423091999999</v>
       </c>
       <c r="D67" t="n">
-        <v>99.78531357999999</v>
+        <v>99.7364916399999</v>
       </c>
       <c r="E67" t="n">
-        <v>99.92732364</v>
+        <v>100.060535799999</v>
       </c>
       <c r="F67" t="n">
-        <v>100.20505328</v>
+        <v>99.98335631</v>
       </c>
       <c r="G67" t="n">
-        <v>99.87278803</v>
+        <v>100.518104699999</v>
       </c>
       <c r="H67" t="n">
-        <v>100.03148331</v>
+        <v>99.92906825</v>
       </c>
       <c r="I67" t="n">
-        <v>99.69160497999999</v>
+        <v>99.72036515000001</v>
       </c>
       <c r="J67" t="n">
-        <v>100.03085539</v>
+        <v>100.0356172</v>
       </c>
       <c r="K67" t="n">
-        <v>99.80862806</v>
+        <v>99.8202450499999</v>
       </c>
       <c r="L67" t="n">
-        <v>99.98661342</v>
+        <v>99.99742962000001</v>
       </c>
       <c r="M67" t="n">
-        <v>99.60058797000001</v>
+        <v>100.9548319</v>
       </c>
       <c r="N67" t="n">
-        <v>102.17559637</v>
+        <v>101.841957399999</v>
       </c>
       <c r="O67" t="n">
-        <v>99.96847672</v>
+        <v>100.1565856</v>
       </c>
       <c r="P67" t="n">
-        <v>100.3645693</v>
+        <v>99.63183657</v>
       </c>
       <c r="Q67" t="n">
-        <v>98.73397496</v>
+        <v>101.4960734</v>
       </c>
       <c r="R67" t="n">
-        <v>99.94552139</v>
+        <v>99.95228342999989</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>100.52203292</v>
+        <v>100.373390999999</v>
       </c>
       <c r="C68" t="n">
-        <v>100.10152805</v>
+        <v>100.043667799999</v>
       </c>
       <c r="D68" t="n">
-        <v>99.81291337</v>
+        <v>99.97924586000001</v>
       </c>
       <c r="E68" t="n">
-        <v>99.93663961999999</v>
+        <v>100.086938799999</v>
       </c>
       <c r="F68" t="n">
-        <v>100.29702677</v>
+        <v>100.1247431</v>
       </c>
       <c r="G68" t="n">
-        <v>100.03369394</v>
+        <v>99.96169165000001</v>
       </c>
       <c r="H68" t="n">
-        <v>99.90107543000001</v>
+        <v>99.9433373199999</v>
       </c>
       <c r="I68" t="n">
-        <v>99.92966108</v>
+        <v>99.98954046999989</v>
       </c>
       <c r="J68" t="n">
-        <v>99.96101709</v>
+        <v>100.101594199999</v>
       </c>
       <c r="K68" t="n">
-        <v>99.87754397</v>
+        <v>99.92888211</v>
       </c>
       <c r="L68" t="n">
-        <v>100.00958845</v>
+        <v>100.0121508</v>
       </c>
       <c r="M68" t="n">
-        <v>99.55508965999999</v>
+        <v>100.588087</v>
       </c>
       <c r="N68" t="n">
-        <v>99.78678368</v>
+        <v>101.0918616</v>
       </c>
       <c r="O68" t="n">
-        <v>99.799881</v>
+        <v>100.4563275</v>
       </c>
       <c r="P68" t="n">
-        <v>105.0166133</v>
+        <v>96.95761819000001</v>
       </c>
       <c r="Q68" t="n">
-        <v>99.96657798</v>
+        <v>99.22616852</v>
       </c>
       <c r="R68" t="n">
-        <v>100.09994479</v>
+        <v>100.166624999999</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>100.52587302</v>
+        <v>100.6093178</v>
       </c>
       <c r="C69" t="n">
-        <v>100.20016032</v>
+        <v>100.036932</v>
       </c>
       <c r="D69" t="n">
-        <v>99.85693931</v>
+        <v>100.0287185</v>
       </c>
       <c r="E69" t="n">
-        <v>100.0184931</v>
+        <v>100.0339736</v>
       </c>
       <c r="F69" t="n">
-        <v>99.99300165</v>
+        <v>100.1475493</v>
       </c>
       <c r="G69" t="n">
-        <v>99.94634463</v>
+        <v>100.2760988</v>
       </c>
       <c r="H69" t="n">
-        <v>100.01664649</v>
+        <v>100.3809711</v>
       </c>
       <c r="I69" t="n">
-        <v>99.85235307000001</v>
+        <v>99.68457530000001</v>
       </c>
       <c r="J69" t="n">
-        <v>100.05907598</v>
+        <v>100.2844312</v>
       </c>
       <c r="K69" t="n">
-        <v>99.75735296000001</v>
+        <v>99.93710133</v>
       </c>
       <c r="L69" t="n">
-        <v>99.94022579999999</v>
+        <v>99.97853644999999</v>
       </c>
       <c r="M69" t="n">
-        <v>100.04144684</v>
+        <v>100.523135</v>
       </c>
       <c r="N69" t="n">
-        <v>98.25933860000001</v>
+        <v>101.3349482</v>
       </c>
       <c r="O69" t="n">
-        <v>99.92095429</v>
+        <v>100.0218833</v>
       </c>
       <c r="P69" t="n">
-        <v>100.34966295</v>
+        <v>100.2341661</v>
       </c>
       <c r="Q69" t="n">
-        <v>100.36413816</v>
+        <v>100.255048</v>
       </c>
       <c r="R69" t="n">
-        <v>100.01210587</v>
+        <v>100.0783762</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>100.404204899999</v>
+        <v>100.3142613</v>
       </c>
       <c r="C70" t="n">
-        <v>100.423091999999</v>
+        <v>100.0069965</v>
       </c>
       <c r="D70" t="n">
-        <v>99.7364916399999</v>
+        <v>100.0590617</v>
       </c>
       <c r="E70" t="n">
-        <v>100.060535799999</v>
+        <v>100.1661298</v>
       </c>
       <c r="F70" t="n">
-        <v>99.98335631</v>
+        <v>99.95794416</v>
       </c>
       <c r="G70" t="n">
-        <v>100.518104699999</v>
+        <v>100.2495837</v>
       </c>
       <c r="H70" t="n">
-        <v>99.92906825</v>
+        <v>100.2271235</v>
       </c>
       <c r="I70" t="n">
-        <v>99.72036515000001</v>
+        <v>100.191784</v>
       </c>
       <c r="J70" t="n">
-        <v>100.0356172</v>
+        <v>100.251158</v>
       </c>
       <c r="K70" t="n">
-        <v>99.8202450499999</v>
+        <v>99.99740045</v>
       </c>
       <c r="L70" t="n">
-        <v>99.99742962000001</v>
+        <v>100.1576975</v>
       </c>
       <c r="M70" t="n">
-        <v>100.9548319</v>
+        <v>99.7347931</v>
       </c>
       <c r="N70" t="n">
-        <v>101.841957399999</v>
+        <v>102.1995777</v>
       </c>
       <c r="O70" t="n">
-        <v>100.1565856</v>
+        <v>100.0284627</v>
       </c>
       <c r="P70" t="n">
-        <v>99.63183657</v>
+        <v>96.63439345</v>
       </c>
       <c r="Q70" t="n">
-        <v>101.4960734</v>
+        <v>100.3749133</v>
       </c>
       <c r="R70" t="n">
-        <v>99.95228342999989</v>
+        <v>100.0388547</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>100.2567781</v>
+        <v>100.2550383</v>
       </c>
       <c r="C71" t="n">
-        <v>100.0846815</v>
+        <v>100.4748119</v>
       </c>
       <c r="D71" t="n">
-        <v>99.89444652</v>
+        <v>99.98318015</v>
       </c>
       <c r="E71" t="n">
-        <v>100.0162539</v>
+        <v>100.1114628</v>
       </c>
       <c r="F71" t="n">
-        <v>100.1312106</v>
+        <v>99.96147607</v>
       </c>
       <c r="G71" t="n">
-        <v>100.2936714</v>
+        <v>100.7600446</v>
       </c>
       <c r="H71" t="n">
-        <v>100.2868111</v>
+        <v>100.1070436</v>
       </c>
       <c r="I71" t="n">
-        <v>99.95246206</v>
+        <v>100.0804928</v>
       </c>
       <c r="J71" t="n">
-        <v>100.3809631</v>
+        <v>100.2592457</v>
       </c>
       <c r="K71" t="n">
-        <v>99.99586076</v>
+        <v>100.1205888</v>
       </c>
       <c r="L71" t="n">
-        <v>100.2550092</v>
+        <v>99.95678217</v>
       </c>
       <c r="M71" t="n">
-        <v>100.5351335</v>
+        <v>99.4133442</v>
       </c>
       <c r="N71" t="n">
-        <v>102.4429482</v>
+        <v>103.5556333</v>
       </c>
       <c r="O71" t="n">
-        <v>100.2718224</v>
+        <v>99.76713551</v>
       </c>
       <c r="P71" t="n">
-        <v>98.79914097</v>
+        <v>101.5051889</v>
       </c>
       <c r="Q71" t="n">
-        <v>100.0003088</v>
+        <v>102.0888666</v>
       </c>
       <c r="R71" t="n">
-        <v>100.1860758</v>
+        <v>99.85361760000001</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>100.256889</v>
+        <v>100.25403618</v>
       </c>
       <c r="C72" t="n">
-        <v>100.3015949</v>
+        <v>100.10729634</v>
       </c>
       <c r="D72" t="n">
-        <v>99.96003579000001</v>
+        <v>99.88919781</v>
       </c>
       <c r="E72" t="n">
-        <v>100.1305411</v>
+        <v>100.18117966</v>
       </c>
       <c r="F72" t="n">
-        <v>99.92132037</v>
+        <v>100.13736441</v>
       </c>
       <c r="G72" t="n">
-        <v>100.2443951</v>
+        <v>99.98404318999999</v>
       </c>
       <c r="H72" t="n">
-        <v>100.454521</v>
+        <v>100.23334683</v>
       </c>
       <c r="I72" t="n">
-        <v>99.85276260000001</v>
+        <v>100.25642307</v>
       </c>
       <c r="J72" t="n">
-        <v>100.3343474</v>
+        <v>100.02814832</v>
       </c>
       <c r="K72" t="n">
-        <v>100.0241663</v>
+        <v>99.96910724999999</v>
       </c>
       <c r="L72" t="n">
-        <v>100.1990855</v>
+        <v>100.07118485</v>
       </c>
       <c r="M72" t="n">
-        <v>100.5615235</v>
+        <v>99.84109868</v>
       </c>
       <c r="N72" t="n">
-        <v>102.4029364</v>
+        <v>100.13516112</v>
       </c>
       <c r="O72" t="n">
-        <v>100.0322537</v>
+        <v>99.84230709000001</v>
       </c>
       <c r="P72" t="n">
-        <v>100.0759618</v>
+        <v>101.99280404</v>
       </c>
       <c r="Q72" t="n">
-        <v>99.62638539</v>
+        <v>99.58059344</v>
       </c>
       <c r="R72" t="n">
-        <v>100.177486</v>
+        <v>100.17408529</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>100.2651587</v>
+        <v>100.5394869</v>
       </c>
       <c r="C73" t="n">
-        <v>100.1440353</v>
+        <v>100.0384528</v>
       </c>
       <c r="D73" t="n">
-        <v>100.0977658</v>
+        <v>99.73618858</v>
       </c>
       <c r="E73" t="n">
-        <v>100.0975153</v>
+        <v>99.93503251</v>
       </c>
       <c r="F73" t="n">
-        <v>100.1526428</v>
+        <v>100.0715515</v>
       </c>
       <c r="G73" t="n">
-        <v>100.3996203</v>
+        <v>99.70878135</v>
       </c>
       <c r="H73" t="n">
-        <v>100.1195887</v>
+        <v>100.2243453</v>
       </c>
       <c r="I73" t="n">
-        <v>100.1995632</v>
+        <v>100.098168</v>
       </c>
       <c r="J73" t="n">
-        <v>100.5233669</v>
+        <v>100.2272985</v>
       </c>
       <c r="K73" t="n">
-        <v>100.2673564</v>
+        <v>100.1612197</v>
       </c>
       <c r="L73" t="n">
-        <v>100.1375405</v>
+        <v>100.1170885</v>
       </c>
       <c r="M73" t="n">
-        <v>99.88903558</v>
+        <v>100.6662752</v>
       </c>
       <c r="N73" t="n">
-        <v>101.4130287</v>
+        <v>99.61214726999999</v>
       </c>
       <c r="O73" t="n">
-        <v>100.1036324</v>
+        <v>99.93206647</v>
       </c>
       <c r="P73" t="n">
-        <v>98.61546482</v>
+        <v>99.77700496</v>
       </c>
       <c r="Q73" t="n">
-        <v>100.9420736</v>
+        <v>98.34677069</v>
       </c>
       <c r="R73" t="n">
-        <v>100.1532888</v>
+        <v>100.288864</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2017年1月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>100.2550383</v>
+        <v>100.4805827</v>
       </c>
       <c r="C74" t="n">
-        <v>100.4748119</v>
+        <v>99.96277012</v>
       </c>
       <c r="D74" t="n">
-        <v>99.98318015</v>
+        <v>99.86989893000001</v>
       </c>
       <c r="E74" t="n">
-        <v>100.1114628</v>
+        <v>99.99883796</v>
       </c>
       <c r="F74" t="n">
-        <v>99.96147607</v>
+        <v>100.3971527</v>
       </c>
       <c r="G74" t="n">
-        <v>100.7600446</v>
+        <v>99.94145686</v>
       </c>
       <c r="H74" t="n">
-        <v>100.1070436</v>
+        <v>100.2790406</v>
       </c>
       <c r="I74" t="n">
-        <v>100.0804928</v>
+        <v>100.1840013</v>
       </c>
       <c r="J74" t="n">
-        <v>100.2592457</v>
+        <v>100.2443104</v>
       </c>
       <c r="K74" t="n">
-        <v>100.1205888</v>
+        <v>100.0564746</v>
       </c>
       <c r="L74" t="n">
-        <v>99.95678217</v>
+        <v>100.0304702</v>
       </c>
       <c r="M74" t="n">
-        <v>99.4133442</v>
+        <v>100.1619873</v>
       </c>
       <c r="N74" t="n">
-        <v>103.5556333</v>
+        <v>99.05933388</v>
       </c>
       <c r="O74" t="n">
-        <v>99.76713551</v>
+        <v>100.1996413</v>
       </c>
       <c r="P74" t="n">
-        <v>101.5051889</v>
+        <v>101.5289461</v>
       </c>
       <c r="Q74" t="n">
-        <v>102.0888666</v>
+        <v>99.59012529</v>
       </c>
       <c r="R74" t="n">
-        <v>99.85361760000001</v>
+        <v>100.1828217</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>100.25403618</v>
+        <v>100.5736155</v>
       </c>
       <c r="C75" t="n">
-        <v>100.10729634</v>
+        <v>100.1266941</v>
       </c>
       <c r="D75" t="n">
-        <v>99.88919781</v>
+        <v>99.63785952000001</v>
       </c>
       <c r="E75" t="n">
-        <v>100.18117966</v>
+        <v>100.1021788</v>
       </c>
       <c r="F75" t="n">
-        <v>100.13736441</v>
+        <v>100.1574597</v>
       </c>
       <c r="G75" t="n">
-        <v>99.98404318999999</v>
+        <v>99.84980362</v>
       </c>
       <c r="H75" t="n">
-        <v>100.23334683</v>
+        <v>100.220859</v>
       </c>
       <c r="I75" t="n">
-        <v>100.25642307</v>
+        <v>100.079734</v>
       </c>
       <c r="J75" t="n">
-        <v>100.02814832</v>
+        <v>100.1515472</v>
       </c>
       <c r="K75" t="n">
-        <v>99.96910724999999</v>
+        <v>99.86586852000001</v>
       </c>
       <c r="L75" t="n">
-        <v>100.07118485</v>
+        <v>100.0461038</v>
       </c>
       <c r="M75" t="n">
-        <v>99.84109868</v>
+        <v>100.0838661</v>
       </c>
       <c r="N75" t="n">
-        <v>100.13516112</v>
+        <v>99.36872461999999</v>
       </c>
       <c r="O75" t="n">
-        <v>99.84230709000001</v>
+        <v>100.326106</v>
       </c>
       <c r="P75" t="n">
-        <v>101.99280404</v>
+        <v>99.37115978</v>
       </c>
       <c r="Q75" t="n">
-        <v>99.58059344</v>
+        <v>99.49464159999999</v>
       </c>
       <c r="R75" t="n">
-        <v>100.17408529</v>
+        <v>100.1180311</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>100.5394869</v>
+        <v>100.372812</v>
       </c>
       <c r="C76" t="n">
-        <v>100.0384528</v>
+        <v>99.95758651</v>
       </c>
       <c r="D76" t="n">
-        <v>99.73618858</v>
+        <v>99.75866004</v>
       </c>
       <c r="E76" t="n">
-        <v>99.93503251</v>
+        <v>99.91004263000001</v>
       </c>
       <c r="F76" t="n">
-        <v>100.0715515</v>
+        <v>99.94835911</v>
       </c>
       <c r="G76" t="n">
-        <v>99.70878135</v>
+        <v>99.66482343</v>
       </c>
       <c r="H76" t="n">
-        <v>100.2243453</v>
+        <v>100.1443395</v>
       </c>
       <c r="I76" t="n">
-        <v>100.098168</v>
+        <v>99.88329027</v>
       </c>
       <c r="J76" t="n">
-        <v>100.2272985</v>
+        <v>100.1643976</v>
       </c>
       <c r="K76" t="n">
-        <v>100.1612197</v>
+        <v>99.948065</v>
       </c>
       <c r="L76" t="n">
-        <v>100.1170885</v>
+        <v>99.98553022999999</v>
       </c>
       <c r="M76" t="n">
-        <v>100.6662752</v>
+        <v>99.76327972</v>
       </c>
       <c r="N76" t="n">
-        <v>99.61214726999999</v>
+        <v>98.34434824</v>
       </c>
       <c r="O76" t="n">
-        <v>99.93206647</v>
+        <v>100.0583205</v>
       </c>
       <c r="P76" t="n">
-        <v>99.77700496</v>
+        <v>99.99606321</v>
       </c>
       <c r="Q76" t="n">
-        <v>98.34677069</v>
+        <v>99.24360002</v>
       </c>
       <c r="R76" t="n">
-        <v>100.288864</v>
+        <v>100.0526436</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>100.4805827</v>
+        <v>100.1645838</v>
       </c>
       <c r="C77" t="n">
-        <v>99.96277012</v>
+        <v>100.0955772</v>
       </c>
       <c r="D77" t="n">
-        <v>99.86989893000001</v>
+        <v>99.79435757</v>
       </c>
       <c r="E77" t="n">
-        <v>99.99883796</v>
+        <v>100.0198944</v>
       </c>
       <c r="F77" t="n">
-        <v>100.3971527</v>
+        <v>100.1295808</v>
       </c>
       <c r="G77" t="n">
-        <v>99.94145686</v>
+        <v>99.7762767</v>
       </c>
       <c r="H77" t="n">
-        <v>100.2790406</v>
+        <v>100.2307035</v>
       </c>
       <c r="I77" t="n">
-        <v>100.1840013</v>
+        <v>99.99423858</v>
       </c>
       <c r="J77" t="n">
-        <v>100.2443104</v>
+        <v>100.0661586</v>
       </c>
       <c r="K77" t="n">
-        <v>100.0564746</v>
+        <v>100.0081855</v>
       </c>
       <c r="L77" t="n">
-        <v>100.0304702</v>
+        <v>99.99522469999999</v>
       </c>
       <c r="M77" t="n">
-        <v>100.1619873</v>
+        <v>99.55772352</v>
       </c>
       <c r="N77" t="n">
-        <v>99.05933388</v>
+        <v>98.17996072</v>
       </c>
       <c r="O77" t="n">
-        <v>100.1996413</v>
+        <v>99.97958887</v>
       </c>
       <c r="P77" t="n">
-        <v>101.5289461</v>
+        <v>98.50782508</v>
       </c>
       <c r="Q77" t="n">
-        <v>99.59012529</v>
+        <v>100.0185214</v>
       </c>
       <c r="R77" t="n">
-        <v>100.1828217</v>
+        <v>100.1125943</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>100.5736155</v>
+        <v>100.4157119</v>
       </c>
       <c r="C78" t="n">
-        <v>100.1266941</v>
+        <v>100.1895069</v>
       </c>
       <c r="D78" t="n">
-        <v>99.63785952000001</v>
+        <v>99.92969499</v>
       </c>
       <c r="E78" t="n">
-        <v>100.1021788</v>
+        <v>100.0321617</v>
       </c>
       <c r="F78" t="n">
-        <v>100.1574597</v>
+        <v>100.0436699</v>
       </c>
       <c r="G78" t="n">
-        <v>99.84980362</v>
+        <v>100.4036477</v>
       </c>
       <c r="H78" t="n">
-        <v>100.220859</v>
+        <v>100.3564098</v>
       </c>
       <c r="I78" t="n">
-        <v>100.079734</v>
+        <v>99.90875355999999</v>
       </c>
       <c r="J78" t="n">
-        <v>100.1515472</v>
+        <v>100.2084124</v>
       </c>
       <c r="K78" t="n">
-        <v>99.86586852000001</v>
+        <v>99.96649896</v>
       </c>
       <c r="L78" t="n">
-        <v>100.0461038</v>
+        <v>99.92331129999999</v>
       </c>
       <c r="M78" t="n">
-        <v>100.0838661</v>
+        <v>99.83795462</v>
       </c>
       <c r="N78" t="n">
-        <v>99.36872461999999</v>
+        <v>101.8533441</v>
       </c>
       <c r="O78" t="n">
-        <v>100.326106</v>
+        <v>100.0152036</v>
       </c>
       <c r="P78" t="n">
-        <v>99.37115978</v>
+        <v>100.8356499</v>
       </c>
       <c r="Q78" t="n">
-        <v>99.49464159999999</v>
+        <v>101.0004226</v>
       </c>
       <c r="R78" t="n">
-        <v>100.1180311</v>
+        <v>100.0566559</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>100.372812</v>
+        <v>100.3679324</v>
       </c>
       <c r="C79" t="n">
-        <v>99.95758651</v>
+        <v>100.6835299</v>
       </c>
       <c r="D79" t="n">
-        <v>99.75866004</v>
+        <v>99.98245824999999</v>
       </c>
       <c r="E79" t="n">
-        <v>99.91004263000001</v>
+        <v>100.1486087</v>
       </c>
       <c r="F79" t="n">
-        <v>99.94835911</v>
+        <v>100.1000097</v>
       </c>
       <c r="G79" t="n">
-        <v>99.66482343</v>
+        <v>100.3500864</v>
       </c>
       <c r="H79" t="n">
-        <v>100.1443395</v>
+        <v>100.3239631</v>
       </c>
       <c r="I79" t="n">
-        <v>99.88329027</v>
+        <v>99.80755225999999</v>
       </c>
       <c r="J79" t="n">
-        <v>100.1643976</v>
+        <v>100.204947</v>
       </c>
       <c r="K79" t="n">
-        <v>99.948065</v>
+        <v>100.2111824</v>
       </c>
       <c r="L79" t="n">
-        <v>99.98553022999999</v>
+        <v>100.1108906</v>
       </c>
       <c r="M79" t="n">
-        <v>99.76327972</v>
+        <v>100.9899148</v>
       </c>
       <c r="N79" t="n">
-        <v>98.34434824</v>
+        <v>101.3151939</v>
       </c>
       <c r="O79" t="n">
-        <v>100.0583205</v>
+        <v>99.92874361</v>
       </c>
       <c r="P79" t="n">
-        <v>99.99606321</v>
+        <v>100.4527069</v>
       </c>
       <c r="Q79" t="n">
-        <v>99.24360002</v>
+        <v>100.3607458</v>
       </c>
       <c r="R79" t="n">
-        <v>100.0526436</v>
+        <v>100.0450585</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>100.1645838</v>
+        <v>100.2567781</v>
       </c>
       <c r="C80" t="n">
-        <v>100.0955772</v>
+        <v>100.0846815</v>
       </c>
       <c r="D80" t="n">
-        <v>99.79435757</v>
+        <v>99.89444652</v>
       </c>
       <c r="E80" t="n">
-        <v>100.0198944</v>
+        <v>100.0162539</v>
       </c>
       <c r="F80" t="n">
-        <v>100.1295808</v>
+        <v>100.1312106</v>
       </c>
       <c r="G80" t="n">
-        <v>99.7762767</v>
+        <v>100.2936714</v>
       </c>
       <c r="H80" t="n">
-        <v>100.2307035</v>
+        <v>100.2868111</v>
       </c>
       <c r="I80" t="n">
-        <v>99.99423858</v>
+        <v>99.95246206</v>
       </c>
       <c r="J80" t="n">
-        <v>100.0661586</v>
+        <v>100.3809631</v>
       </c>
       <c r="K80" t="n">
-        <v>100.0081855</v>
+        <v>99.99586076</v>
       </c>
       <c r="L80" t="n">
-        <v>99.99522469999999</v>
+        <v>100.2550092</v>
       </c>
       <c r="M80" t="n">
-        <v>99.55772352</v>
+        <v>100.5351335</v>
       </c>
       <c r="N80" t="n">
-        <v>98.17996072</v>
+        <v>102.4429482</v>
       </c>
       <c r="O80" t="n">
-        <v>99.97958887</v>
+        <v>100.2718224</v>
       </c>
       <c r="P80" t="n">
-        <v>98.50782508</v>
+        <v>98.79914097</v>
       </c>
       <c r="Q80" t="n">
-        <v>100.0185214</v>
+        <v>100.0003088</v>
       </c>
       <c r="R80" t="n">
-        <v>100.1125943</v>
+        <v>100.1860758</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>100.4157119</v>
+        <v>100.256889</v>
       </c>
       <c r="C81" t="n">
-        <v>100.1895069</v>
+        <v>100.3015949</v>
       </c>
       <c r="D81" t="n">
-        <v>99.92969499</v>
+        <v>99.96003579000001</v>
       </c>
       <c r="E81" t="n">
-        <v>100.0321617</v>
+        <v>100.1305411</v>
       </c>
       <c r="F81" t="n">
-        <v>100.0436699</v>
+        <v>99.92132037</v>
       </c>
       <c r="G81" t="n">
-        <v>100.4036477</v>
+        <v>100.2443951</v>
       </c>
       <c r="H81" t="n">
-        <v>100.3564098</v>
+        <v>100.454521</v>
       </c>
       <c r="I81" t="n">
-        <v>99.90875355999999</v>
+        <v>99.85276260000001</v>
       </c>
       <c r="J81" t="n">
-        <v>100.2084124</v>
+        <v>100.3343474</v>
       </c>
       <c r="K81" t="n">
-        <v>99.96649896</v>
+        <v>100.0241663</v>
       </c>
       <c r="L81" t="n">
-        <v>99.92331129999999</v>
+        <v>100.1990855</v>
       </c>
       <c r="M81" t="n">
-        <v>99.83795462</v>
+        <v>100.5615235</v>
       </c>
       <c r="N81" t="n">
-        <v>101.8533441</v>
+        <v>102.4029364</v>
       </c>
       <c r="O81" t="n">
-        <v>100.0152036</v>
+        <v>100.0322537</v>
       </c>
       <c r="P81" t="n">
-        <v>100.8356499</v>
+        <v>100.0759618</v>
       </c>
       <c r="Q81" t="n">
-        <v>101.0004226</v>
+        <v>99.62638539</v>
       </c>
       <c r="R81" t="n">
-        <v>100.0566559</v>
+        <v>100.177486</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>100.3679324</v>
+        <v>100.2651587</v>
       </c>
       <c r="C82" t="n">
-        <v>100.6835299</v>
+        <v>100.1440353</v>
       </c>
       <c r="D82" t="n">
-        <v>99.98245824999999</v>
+        <v>100.0977658</v>
       </c>
       <c r="E82" t="n">
-        <v>100.1486087</v>
+        <v>100.0975153</v>
       </c>
       <c r="F82" t="n">
-        <v>100.1000097</v>
+        <v>100.1526428</v>
       </c>
       <c r="G82" t="n">
-        <v>100.3500864</v>
+        <v>100.3996203</v>
       </c>
       <c r="H82" t="n">
-        <v>100.3239631</v>
+        <v>100.1195887</v>
       </c>
       <c r="I82" t="n">
-        <v>99.80755225999999</v>
+        <v>100.1995632</v>
       </c>
       <c r="J82" t="n">
-        <v>100.204947</v>
+        <v>100.5233669</v>
       </c>
       <c r="K82" t="n">
-        <v>100.2111824</v>
+        <v>100.2673564</v>
       </c>
       <c r="L82" t="n">
-        <v>100.1108906</v>
+        <v>100.1375405</v>
       </c>
       <c r="M82" t="n">
-        <v>100.9899148</v>
+        <v>99.88903558</v>
       </c>
       <c r="N82" t="n">
-        <v>101.3151939</v>
+        <v>101.4130287</v>
       </c>
       <c r="O82" t="n">
-        <v>99.92874361</v>
+        <v>100.1036324</v>
       </c>
       <c r="P82" t="n">
-        <v>100.4527069</v>
+        <v>98.61546482</v>
       </c>
       <c r="Q82" t="n">
-        <v>100.3607458</v>
+        <v>100.9420736</v>
       </c>
       <c r="R82" t="n">
-        <v>100.0450585</v>
+        <v>100.1532888</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
+          <t>2018-01</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>100.36284778</v>
+        <v>100.258255</v>
       </c>
       <c r="C83" t="n">
-        <v>100.20617442</v>
+        <v>100.5939891</v>
       </c>
       <c r="D83" t="n">
-        <v>100.26508286</v>
+        <v>99.82417448</v>
       </c>
       <c r="E83" t="n">
-        <v>100.05646461</v>
+        <v>100.1501657</v>
       </c>
       <c r="F83" t="n">
-        <v>100.09516311</v>
+        <v>99.93188855</v>
       </c>
       <c r="G83" t="n">
-        <v>100.46177653</v>
+        <v>100.5853097</v>
       </c>
       <c r="H83" t="n">
-        <v>100.18896436</v>
+        <v>100.1446035</v>
       </c>
       <c r="I83" t="n">
-        <v>99.95111832000001</v>
+        <v>100.0377745</v>
       </c>
       <c r="J83" t="n">
-        <v>100.19317439</v>
+        <v>100.2791027</v>
       </c>
       <c r="K83" t="n">
-        <v>100.4057394</v>
+        <v>99.92965529</v>
       </c>
       <c r="L83" t="n">
-        <v>100.06741634</v>
+        <v>100.0246207</v>
       </c>
       <c r="M83" t="n">
-        <v>100.75465042</v>
+        <v>99.53712388</v>
       </c>
       <c r="N83" t="n">
-        <v>103.08325353</v>
+        <v>101.7639977</v>
       </c>
       <c r="O83" t="n">
-        <v>100.13225202</v>
+        <v>100.0056509</v>
       </c>
       <c r="P83" t="n">
-        <v>100.73057239</v>
+        <v>101.7533688</v>
       </c>
       <c r="Q83" t="n">
-        <v>99.83296824</v>
+        <v>101.917646</v>
       </c>
       <c r="R83" t="n">
-        <v>100.25431634</v>
+        <v>100.109934</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>100.30039887</v>
+        <v>100.1491108</v>
       </c>
       <c r="C84" t="n">
-        <v>100.16447263</v>
+        <v>100.0479569</v>
       </c>
       <c r="D84" t="n">
-        <v>100.1442242</v>
+        <v>99.7868591</v>
       </c>
       <c r="E84" t="n">
-        <v>100.02686261</v>
+        <v>100.1837134</v>
       </c>
       <c r="F84" t="n">
-        <v>100.07688448</v>
+        <v>99.98838790000001</v>
       </c>
       <c r="G84" t="n">
-        <v>99.61287883999999</v>
+        <v>100.6984177</v>
       </c>
       <c r="H84" t="n">
-        <v>100.21855076</v>
+        <v>100.2139318</v>
       </c>
       <c r="I84" t="n">
-        <v>99.68002762</v>
+        <v>99.74011699</v>
       </c>
       <c r="J84" t="n">
-        <v>100.15235298</v>
+        <v>100.0383213</v>
       </c>
       <c r="K84" t="n">
-        <v>100.06154001</v>
+        <v>99.85231589999999</v>
       </c>
       <c r="L84" t="n">
-        <v>100.07962869</v>
+        <v>99.91334184</v>
       </c>
       <c r="M84" t="n">
-        <v>100.37341522</v>
+        <v>99.37684097</v>
       </c>
       <c r="N84" t="n">
-        <v>97.0168206</v>
+        <v>100.0594956</v>
       </c>
       <c r="O84" t="n">
-        <v>100.28259934</v>
+        <v>99.8457298</v>
       </c>
       <c r="P84" t="n">
-        <v>101.32873341</v>
+        <v>98.05723352</v>
       </c>
       <c r="Q84" t="n">
-        <v>98.98274435</v>
+        <v>103.8851518</v>
       </c>
       <c r="R84" t="n">
-        <v>100.20155404</v>
+        <v>99.84699987</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>100.20886663</v>
+        <v>100.4889515</v>
       </c>
       <c r="C85" t="n">
-        <v>100.07124128</v>
+        <v>100.1642301</v>
       </c>
       <c r="D85" t="n">
-        <v>100.06538823</v>
+        <v>99.79053921000001</v>
       </c>
       <c r="E85" t="n">
-        <v>100.17044313</v>
+        <v>99.90823519</v>
       </c>
       <c r="F85" t="n">
-        <v>100.08042398</v>
+        <v>100.0020747</v>
       </c>
       <c r="G85" t="n">
-        <v>99.67955161</v>
+        <v>99.17013883</v>
       </c>
       <c r="H85" t="n">
-        <v>100.04511164</v>
+        <v>100.1750104</v>
       </c>
       <c r="I85" t="n">
-        <v>100.10203968</v>
+        <v>99.88903476</v>
       </c>
       <c r="J85" t="n">
-        <v>100.11439227</v>
+        <v>100.1998132</v>
       </c>
       <c r="K85" t="n">
-        <v>99.93695366999999</v>
+        <v>99.6934988</v>
       </c>
       <c r="L85" t="n">
-        <v>100.11889742</v>
+        <v>100.0759007</v>
       </c>
       <c r="M85" t="n">
-        <v>100.06413648</v>
+        <v>100.7408731</v>
       </c>
       <c r="N85" t="n">
-        <v>93.88258111</v>
+        <v>98.04618218</v>
       </c>
       <c r="O85" t="n">
-        <v>100.0193443</v>
+        <v>100.0015989</v>
       </c>
       <c r="P85" t="n">
-        <v>99.68062424999999</v>
+        <v>100.2578105</v>
       </c>
       <c r="Q85" t="n">
-        <v>101.0117782</v>
+        <v>96.60681989</v>
       </c>
       <c r="R85" t="n">
-        <v>100.04571112</v>
+        <v>100.3812359</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2018年1月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>100.258255</v>
+        <v>100.4960178</v>
       </c>
       <c r="C86" t="n">
-        <v>100.5939891</v>
+        <v>100.1412023</v>
       </c>
       <c r="D86" t="n">
-        <v>99.82417448</v>
+        <v>100.0097852</v>
       </c>
       <c r="E86" t="n">
-        <v>100.1501657</v>
+        <v>100.0692485</v>
       </c>
       <c r="F86" t="n">
-        <v>99.93188855</v>
+        <v>100.3006375</v>
       </c>
       <c r="G86" t="n">
-        <v>100.5853097</v>
+        <v>99.89176703</v>
       </c>
       <c r="H86" t="n">
-        <v>100.1446035</v>
+        <v>100.0666302</v>
       </c>
       <c r="I86" t="n">
-        <v>100.0377745</v>
+        <v>99.960477</v>
       </c>
       <c r="J86" t="n">
-        <v>100.2791027</v>
+        <v>100.1664212</v>
       </c>
       <c r="K86" t="n">
-        <v>99.92965529</v>
+        <v>100.1017214</v>
       </c>
       <c r="L86" t="n">
-        <v>100.0246207</v>
+        <v>100.2532624</v>
       </c>
       <c r="M86" t="n">
-        <v>99.53712388</v>
+        <v>100.1705549</v>
       </c>
       <c r="N86" t="n">
-        <v>101.7639977</v>
+        <v>101.1823752</v>
       </c>
       <c r="O86" t="n">
-        <v>100.0056509</v>
+        <v>100.2036114</v>
       </c>
       <c r="P86" t="n">
-        <v>101.7533688</v>
+        <v>100.2113643</v>
       </c>
       <c r="Q86" t="n">
-        <v>101.917646</v>
+        <v>98.52467396999999</v>
       </c>
       <c r="R86" t="n">
-        <v>100.109934</v>
+        <v>100.14591</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>100.1491108</v>
+        <v>100.3754209</v>
       </c>
       <c r="C87" t="n">
-        <v>100.0479569</v>
+        <v>100.0476818</v>
       </c>
       <c r="D87" t="n">
-        <v>99.7868591</v>
+        <v>99.81900229999999</v>
       </c>
       <c r="E87" t="n">
-        <v>100.1837134</v>
+        <v>100.0904424</v>
       </c>
       <c r="F87" t="n">
-        <v>99.98838790000001</v>
+        <v>100.0148807</v>
       </c>
       <c r="G87" t="n">
-        <v>100.6984177</v>
+        <v>100.0172364</v>
       </c>
       <c r="H87" t="n">
-        <v>100.2139318</v>
+        <v>100.2680353</v>
       </c>
       <c r="I87" t="n">
-        <v>99.74011699</v>
+        <v>100.0560368</v>
       </c>
       <c r="J87" t="n">
-        <v>100.0383213</v>
+        <v>100.2892212</v>
       </c>
       <c r="K87" t="n">
-        <v>99.85231589999999</v>
+        <v>99.78931108</v>
       </c>
       <c r="L87" t="n">
-        <v>99.91334184</v>
+        <v>100.2409766</v>
       </c>
       <c r="M87" t="n">
-        <v>99.37684097</v>
+        <v>100.1709018</v>
       </c>
       <c r="N87" t="n">
-        <v>100.0594956</v>
+        <v>102.0901166</v>
       </c>
       <c r="O87" t="n">
-        <v>99.8457298</v>
+        <v>100.2115732</v>
       </c>
       <c r="P87" t="n">
-        <v>98.05723352</v>
+        <v>99.61216802</v>
       </c>
       <c r="Q87" t="n">
-        <v>103.8851518</v>
+        <v>98.92478060000001</v>
       </c>
       <c r="R87" t="n">
-        <v>99.84699987</v>
+        <v>100.19696</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>100.4889515</v>
+        <v>100.46931308</v>
       </c>
       <c r="C88" t="n">
-        <v>100.1642301</v>
+        <v>100.00022774</v>
       </c>
       <c r="D88" t="n">
-        <v>99.79053921000001</v>
+        <v>99.90643364</v>
       </c>
       <c r="E88" t="n">
-        <v>99.90823519</v>
+        <v>99.99294762</v>
       </c>
       <c r="F88" t="n">
-        <v>100.0020747</v>
+        <v>100.09502612</v>
       </c>
       <c r="G88" t="n">
-        <v>99.17013883</v>
+        <v>99.97501803</v>
       </c>
       <c r="H88" t="n">
-        <v>100.1750104</v>
+        <v>100.20356041</v>
       </c>
       <c r="I88" t="n">
-        <v>99.88903476</v>
+        <v>99.87291776000001</v>
       </c>
       <c r="J88" t="n">
-        <v>100.1998132</v>
+        <v>100.00541578</v>
       </c>
       <c r="K88" t="n">
-        <v>99.6934988</v>
+        <v>99.90477906</v>
       </c>
       <c r="L88" t="n">
-        <v>100.0759007</v>
+        <v>99.92225765000001</v>
       </c>
       <c r="M88" t="n">
-        <v>100.7408731</v>
+        <v>99.79703092</v>
       </c>
       <c r="N88" t="n">
-        <v>98.04618218</v>
+        <v>101.24508744</v>
       </c>
       <c r="O88" t="n">
-        <v>100.0015989</v>
+        <v>100.09428131</v>
       </c>
       <c r="P88" t="n">
-        <v>100.2578105</v>
+        <v>99.6928796</v>
       </c>
       <c r="Q88" t="n">
-        <v>96.60681989</v>
+        <v>99.35379609</v>
       </c>
       <c r="R88" t="n">
-        <v>100.3812359</v>
+        <v>100.11246779</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>100.4960178</v>
+        <v>100.44055579</v>
       </c>
       <c r="C89" t="n">
-        <v>100.1412023</v>
+        <v>101.31556172</v>
       </c>
       <c r="D89" t="n">
-        <v>100.0097852</v>
+        <v>99.68991414</v>
       </c>
       <c r="E89" t="n">
-        <v>100.0692485</v>
+        <v>100.04754664</v>
       </c>
       <c r="F89" t="n">
-        <v>100.3006375</v>
+        <v>100.09283311</v>
       </c>
       <c r="G89" t="n">
-        <v>99.89176703</v>
+        <v>100.11606711</v>
       </c>
       <c r="H89" t="n">
-        <v>100.0666302</v>
+        <v>99.99430787</v>
       </c>
       <c r="I89" t="n">
-        <v>99.960477</v>
+        <v>100.07548269</v>
       </c>
       <c r="J89" t="n">
-        <v>100.1664212</v>
+        <v>100.1362492</v>
       </c>
       <c r="K89" t="n">
-        <v>100.1017214</v>
+        <v>99.82976068000001</v>
       </c>
       <c r="L89" t="n">
-        <v>100.2532624</v>
+        <v>100.12354803</v>
       </c>
       <c r="M89" t="n">
-        <v>100.1705549</v>
+        <v>99.59638162</v>
       </c>
       <c r="N89" t="n">
-        <v>101.1823752</v>
+        <v>100.81111588</v>
       </c>
       <c r="O89" t="n">
-        <v>100.2036114</v>
+        <v>100.12427436</v>
       </c>
       <c r="P89" t="n">
-        <v>100.2113643</v>
+        <v>99.80982935999999</v>
       </c>
       <c r="Q89" t="n">
-        <v>98.52467396999999</v>
+        <v>100.18560439</v>
       </c>
       <c r="R89" t="n">
-        <v>100.14591</v>
+        <v>100.25005846</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>100.3754209</v>
+        <v>100.63024974</v>
       </c>
       <c r="C90" t="n">
-        <v>100.0476818</v>
+        <v>101.28605743</v>
       </c>
       <c r="D90" t="n">
-        <v>99.81900229999999</v>
+        <v>99.70159379</v>
       </c>
       <c r="E90" t="n">
-        <v>100.0904424</v>
+        <v>100.12048466</v>
       </c>
       <c r="F90" t="n">
-        <v>100.0148807</v>
+        <v>100.2684152</v>
       </c>
       <c r="G90" t="n">
-        <v>100.0172364</v>
+        <v>100.49276851</v>
       </c>
       <c r="H90" t="n">
-        <v>100.2680353</v>
+        <v>100.10488712</v>
       </c>
       <c r="I90" t="n">
-        <v>100.0560368</v>
+        <v>99.87280298</v>
       </c>
       <c r="J90" t="n">
-        <v>100.2892212</v>
+        <v>100.0801918</v>
       </c>
       <c r="K90" t="n">
-        <v>99.78931108</v>
+        <v>99.9309465</v>
       </c>
       <c r="L90" t="n">
-        <v>100.2409766</v>
+        <v>100.01548132</v>
       </c>
       <c r="M90" t="n">
-        <v>100.1709018</v>
+        <v>99.98011477999999</v>
       </c>
       <c r="N90" t="n">
-        <v>102.0901166</v>
+        <v>100.70807394</v>
       </c>
       <c r="O90" t="n">
-        <v>100.2115732</v>
+        <v>99.92671372</v>
       </c>
       <c r="P90" t="n">
-        <v>99.61216802</v>
+        <v>99.48205409000001</v>
       </c>
       <c r="Q90" t="n">
-        <v>98.92478060000001</v>
+        <v>101.91134013</v>
       </c>
       <c r="R90" t="n">
-        <v>100.19696</v>
+        <v>100.12261349</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>100.46931308</v>
+        <v>100.42415356</v>
       </c>
       <c r="C91" t="n">
-        <v>100.00022774</v>
+        <v>100.78328343</v>
       </c>
       <c r="D91" t="n">
-        <v>99.90643364</v>
+        <v>99.94689448</v>
       </c>
       <c r="E91" t="n">
-        <v>99.99294762</v>
+        <v>100.03510053</v>
       </c>
       <c r="F91" t="n">
-        <v>100.09502612</v>
+        <v>100.29273292</v>
       </c>
       <c r="G91" t="n">
-        <v>99.97501803</v>
+        <v>100.71599575</v>
       </c>
       <c r="H91" t="n">
-        <v>100.20356041</v>
+        <v>100.03449218</v>
       </c>
       <c r="I91" t="n">
-        <v>99.87291776000001</v>
+        <v>99.80701996000001</v>
       </c>
       <c r="J91" t="n">
-        <v>100.00541578</v>
+        <v>100.03722441</v>
       </c>
       <c r="K91" t="n">
-        <v>99.90477906</v>
+        <v>100.44040382</v>
       </c>
       <c r="L91" t="n">
-        <v>99.92225765000001</v>
+        <v>100.23171404</v>
       </c>
       <c r="M91" t="n">
-        <v>99.79703092</v>
+        <v>100.82255464</v>
       </c>
       <c r="N91" t="n">
-        <v>101.24508744</v>
+        <v>102.19529517</v>
       </c>
       <c r="O91" t="n">
-        <v>100.09428131</v>
+        <v>100.22498359</v>
       </c>
       <c r="P91" t="n">
-        <v>99.6928796</v>
+        <v>98.90981299000001</v>
       </c>
       <c r="Q91" t="n">
-        <v>99.35379609</v>
+        <v>101.85137384</v>
       </c>
       <c r="R91" t="n">
-        <v>100.11246779</v>
+        <v>99.90141136</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>100.44055579</v>
+        <v>100.36284778</v>
       </c>
       <c r="C92" t="n">
-        <v>101.31556172</v>
+        <v>100.20617442</v>
       </c>
       <c r="D92" t="n">
-        <v>99.68991414</v>
+        <v>100.26508286</v>
       </c>
       <c r="E92" t="n">
-        <v>100.04754664</v>
+        <v>100.05646461</v>
       </c>
       <c r="F92" t="n">
-        <v>100.09283311</v>
+        <v>100.09516311</v>
       </c>
       <c r="G92" t="n">
-        <v>100.11606711</v>
+        <v>100.46177653</v>
       </c>
       <c r="H92" t="n">
-        <v>99.99430787</v>
+        <v>100.18896436</v>
       </c>
       <c r="I92" t="n">
-        <v>100.07548269</v>
+        <v>99.95111832000001</v>
       </c>
       <c r="J92" t="n">
-        <v>100.1362492</v>
+        <v>100.19317439</v>
       </c>
       <c r="K92" t="n">
-        <v>99.82976068000001</v>
+        <v>100.4057394</v>
       </c>
       <c r="L92" t="n">
-        <v>100.12354803</v>
+        <v>100.06741634</v>
       </c>
       <c r="M92" t="n">
-        <v>99.59638162</v>
+        <v>100.75465042</v>
       </c>
       <c r="N92" t="n">
-        <v>100.81111588</v>
+        <v>103.08325353</v>
       </c>
       <c r="O92" t="n">
-        <v>100.12427436</v>
+        <v>100.13225202</v>
       </c>
       <c r="P92" t="n">
-        <v>99.80982935999999</v>
+        <v>100.73057239</v>
       </c>
       <c r="Q92" t="n">
-        <v>100.18560439</v>
+        <v>99.83296824</v>
       </c>
       <c r="R92" t="n">
-        <v>100.25005846</v>
+        <v>100.25431634</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>100.63024974</v>
+        <v>100.30039887</v>
       </c>
       <c r="C93" t="n">
-        <v>101.28605743</v>
+        <v>100.16447263</v>
       </c>
       <c r="D93" t="n">
-        <v>99.70159379</v>
+        <v>100.1442242</v>
       </c>
       <c r="E93" t="n">
-        <v>100.12048466</v>
+        <v>100.02686261</v>
       </c>
       <c r="F93" t="n">
-        <v>100.2684152</v>
+        <v>100.07688448</v>
       </c>
       <c r="G93" t="n">
-        <v>100.49276851</v>
+        <v>99.61287883999999</v>
       </c>
       <c r="H93" t="n">
-        <v>100.10488712</v>
+        <v>100.21855076</v>
       </c>
       <c r="I93" t="n">
-        <v>99.87280298</v>
+        <v>99.68002762</v>
       </c>
       <c r="J93" t="n">
-        <v>100.0801918</v>
+        <v>100.15235298</v>
       </c>
       <c r="K93" t="n">
-        <v>99.9309465</v>
+        <v>100.06154001</v>
       </c>
       <c r="L93" t="n">
-        <v>100.01548132</v>
+        <v>100.07962869</v>
       </c>
       <c r="M93" t="n">
-        <v>99.98011477999999</v>
+        <v>100.37341522</v>
       </c>
       <c r="N93" t="n">
-        <v>100.70807394</v>
+        <v>97.0168206</v>
       </c>
       <c r="O93" t="n">
-        <v>99.92671372</v>
+        <v>100.28259934</v>
       </c>
       <c r="P93" t="n">
-        <v>99.48205409000001</v>
+        <v>101.32873341</v>
       </c>
       <c r="Q93" t="n">
-        <v>101.91134013</v>
+        <v>98.98274435</v>
       </c>
       <c r="R93" t="n">
-        <v>100.12261349</v>
+        <v>100.20155404</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>100.42415356</v>
+        <v>100.20886663</v>
       </c>
       <c r="C94" t="n">
-        <v>100.78328343</v>
+        <v>100.07124128</v>
       </c>
       <c r="D94" t="n">
-        <v>99.94689448</v>
+        <v>100.06538823</v>
       </c>
       <c r="E94" t="n">
-        <v>100.03510053</v>
+        <v>100.17044313</v>
       </c>
       <c r="F94" t="n">
-        <v>100.29273292</v>
+        <v>100.08042398</v>
       </c>
       <c r="G94" t="n">
-        <v>100.71599575</v>
+        <v>99.67955161</v>
       </c>
       <c r="H94" t="n">
-        <v>100.03449218</v>
+        <v>100.04511164</v>
       </c>
       <c r="I94" t="n">
-        <v>99.80701996000001</v>
+        <v>100.10203968</v>
       </c>
       <c r="J94" t="n">
-        <v>100.03722441</v>
+        <v>100.11439227</v>
       </c>
       <c r="K94" t="n">
-        <v>100.44040382</v>
+        <v>99.93695366999999</v>
       </c>
       <c r="L94" t="n">
-        <v>100.23171404</v>
+        <v>100.11889742</v>
       </c>
       <c r="M94" t="n">
-        <v>100.82255464</v>
+        <v>100.06413648</v>
       </c>
       <c r="N94" t="n">
-        <v>102.19529517</v>
+        <v>93.88258111</v>
       </c>
       <c r="O94" t="n">
-        <v>100.22498359</v>
+        <v>100.0193443</v>
       </c>
       <c r="P94" t="n">
-        <v>98.90981299000001</v>
+        <v>99.68062424999999</v>
       </c>
       <c r="Q94" t="n">
-        <v>101.85137384</v>
+        <v>101.0117782</v>
       </c>
       <c r="R94" t="n">
-        <v>99.90141136</v>
+        <v>100.04571112</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
+          <t>2019-01</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>100.09533668</v>
+        <v>100.194536</v>
       </c>
       <c r="C95" t="n">
-        <v>100.00949549</v>
+        <v>101.53555321</v>
       </c>
       <c r="D95" t="n">
-        <v>100.01277</v>
+        <v>99.83559905</v>
       </c>
       <c r="E95" t="n">
-        <v>100.13614544</v>
+        <v>99.97048383000001</v>
       </c>
       <c r="F95" t="n">
-        <v>100.24903458</v>
+        <v>100.00253113</v>
       </c>
       <c r="G95" t="n">
-        <v>100.73874591</v>
+        <v>100.11810081</v>
       </c>
       <c r="H95" t="n">
-        <v>99.94066075000001</v>
+        <v>100.11966268</v>
       </c>
       <c r="I95" t="n">
-        <v>99.95090937000001</v>
+        <v>99.94696415999999</v>
       </c>
       <c r="J95" t="n">
-        <v>100.13080672</v>
+        <v>100.11549459</v>
       </c>
       <c r="K95" t="n">
-        <v>100.08351756</v>
+        <v>99.96098218</v>
       </c>
       <c r="L95" t="n">
-        <v>100.03299971</v>
+        <v>99.91563116</v>
       </c>
       <c r="M95" t="n">
-        <v>100.23914813</v>
+        <v>99.65410814000001</v>
       </c>
       <c r="N95" t="n">
-        <v>100.52771948</v>
+        <v>97.83299495</v>
       </c>
       <c r="O95" t="n">
-        <v>100.2589005</v>
+        <v>100.02994088</v>
       </c>
       <c r="P95" t="n">
-        <v>99.36088986999999</v>
+        <v>102.16951279</v>
       </c>
       <c r="Q95" t="n">
-        <v>102.80179811</v>
+        <v>101.40647646</v>
       </c>
       <c r="R95" t="n">
-        <v>100.2539016</v>
+        <v>99.73047156</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>100.0880806</v>
+        <v>100.35394179</v>
       </c>
       <c r="C96" t="n">
-        <v>100.13342772</v>
+        <v>100.105934</v>
       </c>
       <c r="D96" t="n">
-        <v>99.90446568999999</v>
+        <v>99.90654168</v>
       </c>
       <c r="E96" t="n">
-        <v>99.94714347999999</v>
+        <v>100.21710769</v>
       </c>
       <c r="F96" t="n">
-        <v>100.03852554</v>
+        <v>100.09299967</v>
       </c>
       <c r="G96" t="n">
-        <v>100.36980605</v>
+        <v>100.76648554</v>
       </c>
       <c r="H96" t="n">
-        <v>99.99532868999999</v>
+        <v>100.1054638</v>
       </c>
       <c r="I96" t="n">
-        <v>99.33941683</v>
+        <v>99.78026899</v>
       </c>
       <c r="J96" t="n">
-        <v>100.11561383</v>
+        <v>99.97018932</v>
       </c>
       <c r="K96" t="n">
-        <v>100.00728381</v>
+        <v>99.7773438</v>
       </c>
       <c r="L96" t="n">
-        <v>99.93130776</v>
+        <v>100.22834521</v>
       </c>
       <c r="M96" t="n">
-        <v>100.40387463</v>
+        <v>99.82494523</v>
       </c>
       <c r="N96" t="n">
-        <v>100.16024111</v>
+        <v>101.81207371</v>
       </c>
       <c r="O96" t="n">
-        <v>100.11872853</v>
+        <v>99.88102176</v>
       </c>
       <c r="P96" t="n">
-        <v>97.86454729</v>
+        <v>99.47091444</v>
       </c>
       <c r="Q96" t="n">
-        <v>101.67449115</v>
+        <v>102.86057181</v>
       </c>
       <c r="R96" t="n">
-        <v>100.18873046</v>
+        <v>99.93664665999999</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>100.05372618</v>
+        <v>100.32610552</v>
       </c>
       <c r="C97" t="n">
-        <v>99.97918729</v>
+        <v>100.21661344</v>
       </c>
       <c r="D97" t="n">
-        <v>99.77036821</v>
+        <v>99.71235833</v>
       </c>
       <c r="E97" t="n">
-        <v>99.96897022</v>
+        <v>99.87692131</v>
       </c>
       <c r="F97" t="n">
-        <v>100.05334218</v>
+        <v>99.74086195</v>
       </c>
       <c r="G97" t="n">
-        <v>100.07664644</v>
+        <v>100.05276887</v>
       </c>
       <c r="H97" t="n">
-        <v>99.9699334</v>
+        <v>100.02624915</v>
       </c>
       <c r="I97" t="n">
-        <v>100.07230821</v>
+        <v>99.82833607000001</v>
       </c>
       <c r="J97" t="n">
-        <v>100.17444647</v>
+        <v>100.10669871</v>
       </c>
       <c r="K97" t="n">
-        <v>100.20450471</v>
+        <v>100.22413218</v>
       </c>
       <c r="L97" t="n">
-        <v>100.15460402</v>
+        <v>99.95932947</v>
       </c>
       <c r="M97" t="n">
-        <v>99.73604752999999</v>
+        <v>100.76281161</v>
       </c>
       <c r="N97" t="n">
-        <v>101.45720169</v>
+        <v>101.94492836</v>
       </c>
       <c r="O97" t="n">
-        <v>100.01596635</v>
+        <v>100.08900139</v>
       </c>
       <c r="P97" t="n">
-        <v>99.72468754000001</v>
+        <v>99.77779372000001</v>
       </c>
       <c r="Q97" t="n">
-        <v>99.90328236000001</v>
+        <v>99.14158623</v>
       </c>
       <c r="R97" t="n">
-        <v>100.12947491</v>
+        <v>100.47778952</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2019年1月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>100.194536</v>
+        <v>100.25576178</v>
       </c>
       <c r="C98" t="n">
-        <v>101.53555321</v>
+        <v>100.14675977</v>
       </c>
       <c r="D98" t="n">
-        <v>99.83559905</v>
+        <v>99.63315632</v>
       </c>
       <c r="E98" t="n">
-        <v>99.97048383000001</v>
+        <v>99.89421968000001</v>
       </c>
       <c r="F98" t="n">
-        <v>100.00253113</v>
+        <v>100.51969752</v>
       </c>
       <c r="G98" t="n">
-        <v>100.11810081</v>
+        <v>99.93395989</v>
       </c>
       <c r="H98" t="n">
-        <v>100.11966268</v>
+        <v>100.14776775</v>
       </c>
       <c r="I98" t="n">
-        <v>99.94696415999999</v>
+        <v>100.10841149</v>
       </c>
       <c r="J98" t="n">
-        <v>100.11549459</v>
+        <v>100.03802305</v>
       </c>
       <c r="K98" t="n">
-        <v>99.96098218</v>
+        <v>99.84906296</v>
       </c>
       <c r="L98" t="n">
-        <v>99.91563116</v>
+        <v>99.92769514</v>
       </c>
       <c r="M98" t="n">
-        <v>99.65410814000001</v>
+        <v>100.04525336</v>
       </c>
       <c r="N98" t="n">
-        <v>97.83299495</v>
+        <v>99.67608767</v>
       </c>
       <c r="O98" t="n">
-        <v>100.02994088</v>
+        <v>99.82684739</v>
       </c>
       <c r="P98" t="n">
-        <v>102.16951279</v>
+        <v>101.09144656</v>
       </c>
       <c r="Q98" t="n">
-        <v>101.40647646</v>
+        <v>99.85209213</v>
       </c>
       <c r="R98" t="n">
-        <v>99.73047156</v>
+        <v>99.96216716000001</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>100.35394179</v>
+        <v>100.3134044</v>
       </c>
       <c r="C99" t="n">
-        <v>100.105934</v>
+        <v>99.87397675</v>
       </c>
       <c r="D99" t="n">
-        <v>99.90654168</v>
+        <v>99.43788788000001</v>
       </c>
       <c r="E99" t="n">
-        <v>100.21710769</v>
+        <v>99.93029452</v>
       </c>
       <c r="F99" t="n">
-        <v>100.09299967</v>
+        <v>100.13511032</v>
       </c>
       <c r="G99" t="n">
-        <v>100.76648554</v>
+        <v>100.07235007</v>
       </c>
       <c r="H99" t="n">
-        <v>100.1054638</v>
+        <v>100.09586362</v>
       </c>
       <c r="I99" t="n">
-        <v>99.78026899</v>
+        <v>99.94539064999999</v>
       </c>
       <c r="J99" t="n">
-        <v>99.97018932</v>
+        <v>100.00196908</v>
       </c>
       <c r="K99" t="n">
-        <v>99.7773438</v>
+        <v>99.93912534</v>
       </c>
       <c r="L99" t="n">
-        <v>100.22834521</v>
+        <v>100.05266598</v>
       </c>
       <c r="M99" t="n">
-        <v>99.82494523</v>
+        <v>100.06700846</v>
       </c>
       <c r="N99" t="n">
-        <v>101.81207371</v>
+        <v>101.14379887</v>
       </c>
       <c r="O99" t="n">
-        <v>99.88102176</v>
+        <v>100.11591748</v>
       </c>
       <c r="P99" t="n">
-        <v>99.47091444</v>
+        <v>99.81831316</v>
       </c>
       <c r="Q99" t="n">
-        <v>102.86057181</v>
+        <v>100.12850309</v>
       </c>
       <c r="R99" t="n">
-        <v>99.93664665999999</v>
+        <v>100.01952159</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>100.32610552</v>
+        <v>100.25609346</v>
       </c>
       <c r="C100" t="n">
-        <v>100.21661344</v>
+        <v>99.99895761000001</v>
       </c>
       <c r="D100" t="n">
-        <v>99.71235833</v>
+        <v>99.74377081999999</v>
       </c>
       <c r="E100" t="n">
-        <v>99.87692131</v>
+        <v>99.87770179</v>
       </c>
       <c r="F100" t="n">
-        <v>99.74086195</v>
+        <v>100.2633061</v>
       </c>
       <c r="G100" t="n">
-        <v>100.05276887</v>
+        <v>99.72687406</v>
       </c>
       <c r="H100" t="n">
-        <v>100.02624915</v>
+        <v>99.97735777</v>
       </c>
       <c r="I100" t="n">
-        <v>99.82833607000001</v>
+        <v>99.56095988</v>
       </c>
       <c r="J100" t="n">
-        <v>100.10669871</v>
+        <v>99.99572293</v>
       </c>
       <c r="K100" t="n">
-        <v>100.22413218</v>
+        <v>99.63182513</v>
       </c>
       <c r="L100" t="n">
-        <v>99.95932947</v>
+        <v>99.97454515</v>
       </c>
       <c r="M100" t="n">
-        <v>100.76281161</v>
+        <v>99.87933853</v>
       </c>
       <c r="N100" t="n">
-        <v>101.94492836</v>
+        <v>97.69729676999999</v>
       </c>
       <c r="O100" t="n">
-        <v>100.08900139</v>
+        <v>99.92063570000001</v>
       </c>
       <c r="P100" t="n">
-        <v>99.77779372000001</v>
+        <v>102.88346039</v>
       </c>
       <c r="Q100" t="n">
-        <v>99.14158623</v>
+        <v>99.72651860000001</v>
       </c>
       <c r="R100" t="n">
-        <v>100.47778952</v>
+        <v>100.21103271</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>100.25576178</v>
+        <v>100.22355833</v>
       </c>
       <c r="C101" t="n">
-        <v>100.14675977</v>
+        <v>99.96867245999999</v>
       </c>
       <c r="D101" t="n">
-        <v>99.63315632</v>
+        <v>99.85803017000001</v>
       </c>
       <c r="E101" t="n">
-        <v>99.89421968000001</v>
+        <v>100.04231601</v>
       </c>
       <c r="F101" t="n">
-        <v>100.51969752</v>
+        <v>100.22308109</v>
       </c>
       <c r="G101" t="n">
-        <v>99.93395989</v>
+        <v>100.07291251</v>
       </c>
       <c r="H101" t="n">
-        <v>100.14776775</v>
+        <v>100.106877</v>
       </c>
       <c r="I101" t="n">
-        <v>100.10841149</v>
+        <v>100.03265156</v>
       </c>
       <c r="J101" t="n">
-        <v>100.03802305</v>
+        <v>100.0756636</v>
       </c>
       <c r="K101" t="n">
-        <v>99.84906296</v>
+        <v>99.90423912</v>
       </c>
       <c r="L101" t="n">
-        <v>99.92769514</v>
+        <v>100.10505257</v>
       </c>
       <c r="M101" t="n">
-        <v>100.04525336</v>
+        <v>99.59889787</v>
       </c>
       <c r="N101" t="n">
-        <v>99.67608767</v>
+        <v>98.58937249</v>
       </c>
       <c r="O101" t="n">
-        <v>99.82684739</v>
+        <v>100.11122068</v>
       </c>
       <c r="P101" t="n">
-        <v>101.09144656</v>
+        <v>102.68973806</v>
       </c>
       <c r="Q101" t="n">
-        <v>99.85209213</v>
+        <v>100.69204051</v>
       </c>
       <c r="R101" t="n">
-        <v>99.96216716000001</v>
+        <v>100.34841438</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>100.3134044</v>
+        <v>100.23798059</v>
       </c>
       <c r="C102" t="n">
-        <v>99.87397675</v>
+        <v>100.25964228</v>
       </c>
       <c r="D102" t="n">
-        <v>99.43788788000001</v>
+        <v>99.79707745</v>
       </c>
       <c r="E102" t="n">
-        <v>99.93029452</v>
+        <v>99.95694099000001</v>
       </c>
       <c r="F102" t="n">
-        <v>100.13511032</v>
+        <v>100.17227805</v>
       </c>
       <c r="G102" t="n">
-        <v>100.07235007</v>
+        <v>100.50901226</v>
       </c>
       <c r="H102" t="n">
-        <v>100.09586362</v>
+        <v>99.99999526000001</v>
       </c>
       <c r="I102" t="n">
-        <v>99.94539064999999</v>
+        <v>99.82073945</v>
       </c>
       <c r="J102" t="n">
-        <v>100.00196908</v>
+        <v>99.98940224</v>
       </c>
       <c r="K102" t="n">
-        <v>99.93912534</v>
+        <v>99.66414033</v>
       </c>
       <c r="L102" t="n">
-        <v>100.05266598</v>
+        <v>99.97431613000001</v>
       </c>
       <c r="M102" t="n">
-        <v>100.06700846</v>
+        <v>99.75848809</v>
       </c>
       <c r="N102" t="n">
-        <v>101.14379887</v>
+        <v>99.30399337999999</v>
       </c>
       <c r="O102" t="n">
-        <v>100.11591748</v>
+        <v>100.18403495</v>
       </c>
       <c r="P102" t="n">
-        <v>99.81831316</v>
+        <v>105.23093542</v>
       </c>
       <c r="Q102" t="n">
-        <v>100.12850309</v>
+        <v>102.25974214</v>
       </c>
       <c r="R102" t="n">
-        <v>100.01952159</v>
+        <v>100.22873394</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>100.25609346</v>
+        <v>100.11143793</v>
       </c>
       <c r="C103" t="n">
-        <v>99.99895761000001</v>
+        <v>100.71462378</v>
       </c>
       <c r="D103" t="n">
-        <v>99.74377081999999</v>
+        <v>100.05663441</v>
       </c>
       <c r="E103" t="n">
-        <v>99.87770179</v>
+        <v>100.08414055</v>
       </c>
       <c r="F103" t="n">
-        <v>100.2633061</v>
+        <v>100.12638566</v>
       </c>
       <c r="G103" t="n">
-        <v>99.72687406</v>
+        <v>100.77412049</v>
       </c>
       <c r="H103" t="n">
-        <v>99.97735777</v>
+        <v>100.03025111</v>
       </c>
       <c r="I103" t="n">
-        <v>99.56095988</v>
+        <v>99.72133761000001</v>
       </c>
       <c r="J103" t="n">
-        <v>99.99572293</v>
+        <v>100.01065796</v>
       </c>
       <c r="K103" t="n">
-        <v>99.63182513</v>
+        <v>100.00973344</v>
       </c>
       <c r="L103" t="n">
-        <v>99.97454515</v>
+        <v>100.01055857</v>
       </c>
       <c r="M103" t="n">
-        <v>99.87933853</v>
+        <v>100.88846156</v>
       </c>
       <c r="N103" t="n">
-        <v>97.69729676999999</v>
+        <v>100.05086088</v>
       </c>
       <c r="O103" t="n">
-        <v>99.92063570000001</v>
+        <v>99.83422007999999</v>
       </c>
       <c r="P103" t="n">
-        <v>102.88346039</v>
+        <v>104.24892421</v>
       </c>
       <c r="Q103" t="n">
-        <v>99.72651860000001</v>
+        <v>102.58596224</v>
       </c>
       <c r="R103" t="n">
-        <v>100.21103271</v>
+        <v>99.98224517</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>100.22355833</v>
+        <v>100.09533668</v>
       </c>
       <c r="C104" t="n">
-        <v>99.96867245999999</v>
+        <v>100.00949549</v>
       </c>
       <c r="D104" t="n">
-        <v>99.85803017000001</v>
+        <v>100.01277</v>
       </c>
       <c r="E104" t="n">
-        <v>100.04231601</v>
+        <v>100.13614544</v>
       </c>
       <c r="F104" t="n">
-        <v>100.22308109</v>
+        <v>100.24903458</v>
       </c>
       <c r="G104" t="n">
-        <v>100.07291251</v>
+        <v>100.73874591</v>
       </c>
       <c r="H104" t="n">
-        <v>100.106877</v>
+        <v>99.94066075000001</v>
       </c>
       <c r="I104" t="n">
-        <v>100.03265156</v>
+        <v>99.95090937000001</v>
       </c>
       <c r="J104" t="n">
-        <v>100.0756636</v>
+        <v>100.13080672</v>
       </c>
       <c r="K104" t="n">
-        <v>99.90423912</v>
+        <v>100.08351756</v>
       </c>
       <c r="L104" t="n">
-        <v>100.10505257</v>
+        <v>100.03299971</v>
       </c>
       <c r="M104" t="n">
-        <v>99.59889787</v>
+        <v>100.23914813</v>
       </c>
       <c r="N104" t="n">
-        <v>98.58937249</v>
+        <v>100.52771948</v>
       </c>
       <c r="O104" t="n">
-        <v>100.11122068</v>
+        <v>100.2589005</v>
       </c>
       <c r="P104" t="n">
-        <v>102.68973806</v>
+        <v>99.36088986999999</v>
       </c>
       <c r="Q104" t="n">
-        <v>100.69204051</v>
+        <v>102.80179811</v>
       </c>
       <c r="R104" t="n">
-        <v>100.34841438</v>
+        <v>100.2539016</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>100.23798059</v>
+        <v>100.0880806</v>
       </c>
       <c r="C105" t="n">
-        <v>100.25964228</v>
+        <v>100.13342772</v>
       </c>
       <c r="D105" t="n">
-        <v>99.79707745</v>
+        <v>99.90446568999999</v>
       </c>
       <c r="E105" t="n">
-        <v>99.95694099000001</v>
+        <v>99.94714347999999</v>
       </c>
       <c r="F105" t="n">
-        <v>100.17227805</v>
+        <v>100.03852554</v>
       </c>
       <c r="G105" t="n">
-        <v>100.50901226</v>
+        <v>100.36980605</v>
       </c>
       <c r="H105" t="n">
-        <v>99.99999526000001</v>
+        <v>99.99532868999999</v>
       </c>
       <c r="I105" t="n">
-        <v>99.82073945</v>
+        <v>99.33941683</v>
       </c>
       <c r="J105" t="n">
-        <v>99.98940224</v>
+        <v>100.11561383</v>
       </c>
       <c r="K105" t="n">
-        <v>99.66414033</v>
+        <v>100.00728381</v>
       </c>
       <c r="L105" t="n">
-        <v>99.97431613000001</v>
+        <v>99.93130776</v>
       </c>
       <c r="M105" t="n">
-        <v>99.75848809</v>
+        <v>100.40387463</v>
       </c>
       <c r="N105" t="n">
-        <v>99.30399337999999</v>
+        <v>100.16024111</v>
       </c>
       <c r="O105" t="n">
-        <v>100.18403495</v>
+        <v>100.11872853</v>
       </c>
       <c r="P105" t="n">
-        <v>105.23093542</v>
+        <v>97.86454729</v>
       </c>
       <c r="Q105" t="n">
-        <v>102.25974214</v>
+        <v>101.67449115</v>
       </c>
       <c r="R105" t="n">
-        <v>100.22873394</v>
+        <v>100.18873046</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>100.11143793</v>
+        <v>100.05372618</v>
       </c>
       <c r="C106" t="n">
-        <v>100.71462378</v>
+        <v>99.97918729</v>
       </c>
       <c r="D106" t="n">
-        <v>100.05663441</v>
+        <v>99.77036821</v>
       </c>
       <c r="E106" t="n">
-        <v>100.08414055</v>
+        <v>99.96897022</v>
       </c>
       <c r="F106" t="n">
-        <v>100.12638566</v>
+        <v>100.05334218</v>
       </c>
       <c r="G106" t="n">
-        <v>100.77412049</v>
+        <v>100.07664644</v>
       </c>
       <c r="H106" t="n">
-        <v>100.03025111</v>
+        <v>99.9699334</v>
       </c>
       <c r="I106" t="n">
-        <v>99.72133761000001</v>
+        <v>100.07230821</v>
       </c>
       <c r="J106" t="n">
-        <v>100.01065796</v>
+        <v>100.17444647</v>
       </c>
       <c r="K106" t="n">
-        <v>100.00973344</v>
+        <v>100.20450471</v>
       </c>
       <c r="L106" t="n">
-        <v>100.01055857</v>
+        <v>100.15460402</v>
       </c>
       <c r="M106" t="n">
-        <v>100.88846156</v>
+        <v>99.73604752999999</v>
       </c>
       <c r="N106" t="n">
-        <v>100.05086088</v>
+        <v>101.45720169</v>
       </c>
       <c r="O106" t="n">
-        <v>99.83422007999999</v>
+        <v>100.01596635</v>
       </c>
       <c r="P106" t="n">
-        <v>104.24892421</v>
+        <v>99.72468754000001</v>
       </c>
       <c r="Q106" t="n">
-        <v>102.58596224</v>
+        <v>99.90328236000001</v>
       </c>
       <c r="R106" t="n">
-        <v>99.98224517</v>
+        <v>100.12947491</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
+          <t>2020-01</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>100.1</v>
+        <v>99.73679853</v>
       </c>
       <c r="C107" t="n">
-        <v>100.1</v>
+        <v>100.33581662</v>
       </c>
       <c r="D107" t="n">
-        <v>100</v>
+        <v>99.94783866</v>
       </c>
       <c r="E107" t="n">
-        <v>100.1</v>
+        <v>100.08901877</v>
       </c>
       <c r="F107" t="n">
-        <v>100.1</v>
+        <v>100.1830197</v>
       </c>
       <c r="G107" t="n">
-        <v>99.59999999999999</v>
+        <v>101.01003338</v>
       </c>
       <c r="H107" t="n">
-        <v>100.2</v>
+        <v>99.91934799000001</v>
       </c>
       <c r="I107" t="n">
-        <v>100.2</v>
+        <v>99.73153514000001</v>
       </c>
       <c r="J107" t="n">
-        <v>100.2</v>
+        <v>100.09069169</v>
       </c>
       <c r="K107" t="n">
-        <v>100.2</v>
+        <v>99.91659292</v>
       </c>
       <c r="L107" t="n">
-        <v>100.1</v>
+        <v>99.97942467999999</v>
       </c>
       <c r="M107" t="n">
-        <v>100.4</v>
+        <v>99.34292933</v>
       </c>
       <c r="N107" t="n">
-        <v>99.2</v>
+        <v>101.89344613</v>
       </c>
       <c r="O107" t="n">
-        <v>100</v>
+        <v>99.73959850999999</v>
       </c>
       <c r="P107" t="n">
-        <v>97.90000000000001</v>
+        <v>103.41242582</v>
       </c>
       <c r="Q107" t="n">
-        <v>98.59999999999999</v>
+        <v>103.75659504</v>
       </c>
       <c r="R107" t="n">
-        <v>100.3</v>
+        <v>99.61384955</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>100.1</v>
+        <v>100.09192777</v>
       </c>
       <c r="C108" t="n">
-        <v>100.1</v>
+        <v>99.99395505</v>
       </c>
       <c r="D108" t="n">
-        <v>100.2</v>
+        <v>100.03034879</v>
       </c>
       <c r="E108" t="n">
-        <v>100.1</v>
+        <v>100.0665474</v>
       </c>
       <c r="F108" t="n">
-        <v>99.90000000000001</v>
+        <v>100.12531358</v>
       </c>
       <c r="G108" t="n">
-        <v>99.59999999999999</v>
+        <v>100.62634244</v>
       </c>
       <c r="H108" t="n">
-        <v>100.1</v>
+        <v>100.02365272</v>
       </c>
       <c r="I108" t="n">
-        <v>99.90000000000001</v>
+        <v>99.99835629</v>
       </c>
       <c r="J108" t="n">
-        <v>100.1</v>
+        <v>100.01041195</v>
       </c>
       <c r="K108" t="n">
-        <v>100</v>
+        <v>100.10959567</v>
       </c>
       <c r="L108" t="n">
-        <v>100</v>
+        <v>100.24113495</v>
       </c>
       <c r="M108" t="n">
-        <v>100.4</v>
+        <v>99.73811612</v>
       </c>
       <c r="N108" t="n">
-        <v>100.2</v>
+        <v>96.62711038</v>
       </c>
       <c r="O108" t="n">
-        <v>99.90000000000001</v>
+        <v>100.04008402</v>
       </c>
       <c r="P108" t="n">
-        <v>98.90000000000001</v>
+        <v>100.35087628</v>
       </c>
       <c r="Q108" t="n">
-        <v>98.09999999999999</v>
+        <v>103.66038729</v>
       </c>
       <c r="R108" t="n">
-        <v>100.3</v>
+        <v>100.33075772</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>100</v>
+        <v>100.1610876</v>
       </c>
       <c r="C109" t="n">
-        <v>100.1</v>
+        <v>100.12035876</v>
       </c>
       <c r="D109" t="n">
-        <v>100.2</v>
+        <v>99.93264342000001</v>
       </c>
       <c r="E109" t="n">
-        <v>100.1</v>
+        <v>99.87318844000001</v>
       </c>
       <c r="F109" t="n">
-        <v>100.1</v>
+        <v>99.87407924999999</v>
       </c>
       <c r="G109" t="n">
-        <v>100.8</v>
+        <v>98.67477635</v>
       </c>
       <c r="H109" t="n">
-        <v>100</v>
+        <v>99.95131043000001</v>
       </c>
       <c r="I109" t="n">
-        <v>100.1</v>
+        <v>99.79043623</v>
       </c>
       <c r="J109" t="n">
-        <v>100.1</v>
+        <v>99.76584560000001</v>
       </c>
       <c r="K109" t="n">
-        <v>100.1</v>
+        <v>100.42181909</v>
       </c>
       <c r="L109" t="n">
-        <v>100.1</v>
+        <v>99.99282389</v>
       </c>
       <c r="M109" t="n">
-        <v>100</v>
+        <v>99.90073844</v>
       </c>
       <c r="N109" t="n">
-        <v>103.5</v>
+        <v>93.69277162</v>
       </c>
       <c r="O109" t="n">
-        <v>100.2</v>
+        <v>99.94758813999999</v>
       </c>
       <c r="P109" t="n">
-        <v>98.7</v>
+        <v>102.05318037</v>
       </c>
       <c r="Q109" t="n">
-        <v>102.3</v>
+        <v>96.74238004999999</v>
       </c>
       <c r="R109" t="n">
-        <v>100.1</v>
+        <v>100.14338976</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2020年1月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>99.73679853</v>
+        <v>100.02026169</v>
       </c>
       <c r="C110" t="n">
-        <v>100.33581662</v>
+        <v>99.95029138</v>
       </c>
       <c r="D110" t="n">
-        <v>99.94783866</v>
+        <v>100.04075159</v>
       </c>
       <c r="E110" t="n">
-        <v>100.08901877</v>
+        <v>99.79490937</v>
       </c>
       <c r="F110" t="n">
-        <v>100.1830197</v>
+        <v>100.29773474</v>
       </c>
       <c r="G110" t="n">
-        <v>101.01003338</v>
+        <v>98.96647681</v>
       </c>
       <c r="H110" t="n">
-        <v>99.91934799000001</v>
+        <v>99.76401923</v>
       </c>
       <c r="I110" t="n">
-        <v>99.73153514000001</v>
+        <v>99.68237366</v>
       </c>
       <c r="J110" t="n">
-        <v>100.09069169</v>
+        <v>99.81091614</v>
       </c>
       <c r="K110" t="n">
-        <v>99.91659292</v>
+        <v>100.11912692</v>
       </c>
       <c r="L110" t="n">
-        <v>99.97942467999999</v>
+        <v>99.83184488000001</v>
       </c>
       <c r="M110" t="n">
-        <v>99.34292933</v>
+        <v>99.91096214</v>
       </c>
       <c r="N110" t="n">
-        <v>101.89344613</v>
+        <v>95.03988964</v>
       </c>
       <c r="O110" t="n">
-        <v>99.73959850999999</v>
+        <v>99.94446120000001</v>
       </c>
       <c r="P110" t="n">
-        <v>103.41242582</v>
+        <v>100.05348946</v>
       </c>
       <c r="Q110" t="n">
-        <v>103.75659504</v>
+        <v>97.5625374</v>
       </c>
       <c r="R110" t="n">
-        <v>99.61384955</v>
+        <v>100.03963357</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>100.09192777</v>
+        <v>99.70452803000001</v>
       </c>
       <c r="C111" t="n">
-        <v>99.99395505</v>
+        <v>100.07238577</v>
       </c>
       <c r="D111" t="n">
-        <v>100.03034879</v>
+        <v>99.74412150000001</v>
       </c>
       <c r="E111" t="n">
-        <v>100.0665474</v>
+        <v>100.00102833</v>
       </c>
       <c r="F111" t="n">
-        <v>100.12531358</v>
+        <v>99.94972014</v>
       </c>
       <c r="G111" t="n">
-        <v>100.62634244</v>
+        <v>99.27625799</v>
       </c>
       <c r="H111" t="n">
-        <v>100.02365272</v>
+        <v>100.079402</v>
       </c>
       <c r="I111" t="n">
-        <v>99.99835629</v>
+        <v>99.86982765</v>
       </c>
       <c r="J111" t="n">
-        <v>100.01041195</v>
+        <v>99.99531804999999</v>
       </c>
       <c r="K111" t="n">
-        <v>100.10959567</v>
+        <v>100.06426072</v>
       </c>
       <c r="L111" t="n">
-        <v>100.24113495</v>
+        <v>100.07324134</v>
       </c>
       <c r="M111" t="n">
-        <v>99.73811612</v>
+        <v>100.16531266</v>
       </c>
       <c r="N111" t="n">
-        <v>96.62711038</v>
+        <v>99.46082319</v>
       </c>
       <c r="O111" t="n">
-        <v>100.04008402</v>
+        <v>100.03095098</v>
       </c>
       <c r="P111" t="n">
-        <v>100.35087628</v>
+        <v>101.78277317</v>
       </c>
       <c r="Q111" t="n">
-        <v>103.66038729</v>
+        <v>97.23267104</v>
       </c>
       <c r="R111" t="n">
-        <v>100.33075772</v>
+        <v>99.91798126</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>100.1610876</v>
+        <v>99.90062011000001</v>
       </c>
       <c r="C112" t="n">
-        <v>100.12035876</v>
+        <v>100.32643606</v>
       </c>
       <c r="D112" t="n">
-        <v>99.93264342000001</v>
+        <v>99.5771573</v>
       </c>
       <c r="E112" t="n">
-        <v>99.87318844000001</v>
+        <v>99.86839156000001</v>
       </c>
       <c r="F112" t="n">
-        <v>99.87407924999999</v>
+        <v>99.94142916</v>
       </c>
       <c r="G112" t="n">
-        <v>98.67477635</v>
+        <v>99.90934486</v>
       </c>
       <c r="H112" t="n">
-        <v>99.95131043000001</v>
+        <v>99.85165193</v>
       </c>
       <c r="I112" t="n">
-        <v>99.79043623</v>
+        <v>99.42394504000001</v>
       </c>
       <c r="J112" t="n">
-        <v>99.76584560000001</v>
+        <v>99.95573425000001</v>
       </c>
       <c r="K112" t="n">
-        <v>100.42181909</v>
+        <v>99.88661761</v>
       </c>
       <c r="L112" t="n">
-        <v>99.99282389</v>
+        <v>99.93170762</v>
       </c>
       <c r="M112" t="n">
-        <v>99.90073844</v>
+        <v>99.67980774</v>
       </c>
       <c r="N112" t="n">
-        <v>93.69277162</v>
+        <v>99.97212763</v>
       </c>
       <c r="O112" t="n">
-        <v>99.94758813999999</v>
+        <v>99.80447631</v>
       </c>
       <c r="P112" t="n">
-        <v>102.05318037</v>
+        <v>101.3576555</v>
       </c>
       <c r="Q112" t="n">
-        <v>96.74238004999999</v>
+        <v>100.09501963</v>
       </c>
       <c r="R112" t="n">
-        <v>100.14338976</v>
+        <v>100.07294923</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>100.02026169</v>
+        <v>100.02483641</v>
       </c>
       <c r="C113" t="n">
-        <v>99.95029138</v>
+        <v>100.03578981</v>
       </c>
       <c r="D113" t="n">
-        <v>100.04075159</v>
+        <v>99.77793686</v>
       </c>
       <c r="E113" t="n">
-        <v>99.79490937</v>
+        <v>99.91595329</v>
       </c>
       <c r="F113" t="n">
-        <v>100.29773474</v>
+        <v>100.11622731</v>
       </c>
       <c r="G113" t="n">
-        <v>98.96647681</v>
+        <v>100.60320017</v>
       </c>
       <c r="H113" t="n">
-        <v>99.76401923</v>
+        <v>100.1019318</v>
       </c>
       <c r="I113" t="n">
-        <v>99.68237366</v>
+        <v>100.00823178</v>
       </c>
       <c r="J113" t="n">
-        <v>99.81091614</v>
+        <v>99.9321236</v>
       </c>
       <c r="K113" t="n">
-        <v>100.11912692</v>
+        <v>99.7875973</v>
       </c>
       <c r="L113" t="n">
-        <v>99.83184488000001</v>
+        <v>100.02496214</v>
       </c>
       <c r="M113" t="n">
-        <v>99.91096214</v>
+        <v>99.42846831</v>
       </c>
       <c r="N113" t="n">
-        <v>95.03988964</v>
+        <v>101.20429532</v>
       </c>
       <c r="O113" t="n">
-        <v>99.94446120000001</v>
+        <v>100.00230126</v>
       </c>
       <c r="P113" t="n">
-        <v>100.05348946</v>
+        <v>102.92202852</v>
       </c>
       <c r="Q113" t="n">
-        <v>97.5625374</v>
+        <v>102.19575801</v>
       </c>
       <c r="R113" t="n">
-        <v>100.03963357</v>
+        <v>100.15372873</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>99.70452803000001</v>
+        <v>100.11407708</v>
       </c>
       <c r="C114" t="n">
-        <v>100.07238577</v>
+        <v>100.05727699</v>
       </c>
       <c r="D114" t="n">
-        <v>99.74412150000001</v>
+        <v>100.00890228</v>
       </c>
       <c r="E114" t="n">
-        <v>100.00102833</v>
+        <v>99.95812943</v>
       </c>
       <c r="F114" t="n">
-        <v>99.94972014</v>
+        <v>100.1185775</v>
       </c>
       <c r="G114" t="n">
-        <v>99.27625799</v>
+        <v>100.50572796</v>
       </c>
       <c r="H114" t="n">
-        <v>100.079402</v>
+        <v>100.06691129</v>
       </c>
       <c r="I114" t="n">
-        <v>99.86982765</v>
+        <v>99.93578221</v>
       </c>
       <c r="J114" t="n">
-        <v>99.99531804999999</v>
+        <v>100.02086211</v>
       </c>
       <c r="K114" t="n">
-        <v>100.06426072</v>
+        <v>99.97490609</v>
       </c>
       <c r="L114" t="n">
-        <v>100.07324134</v>
+        <v>99.96861355999999</v>
       </c>
       <c r="M114" t="n">
-        <v>100.16531266</v>
+        <v>99.85998883000001</v>
       </c>
       <c r="N114" t="n">
-        <v>99.46082319</v>
+        <v>100.4411252</v>
       </c>
       <c r="O114" t="n">
-        <v>100.03095098</v>
+        <v>99.87180403000001</v>
       </c>
       <c r="P114" t="n">
-        <v>101.78277317</v>
+        <v>108.47127382</v>
       </c>
       <c r="Q114" t="n">
-        <v>97.23267104</v>
+        <v>101.13264795</v>
       </c>
       <c r="R114" t="n">
-        <v>99.91798126</v>
+        <v>100.10409786</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>99.90062011000001</v>
+        <v>99.97546617</v>
       </c>
       <c r="C115" t="n">
-        <v>100.32643606</v>
+        <v>100.13058351</v>
       </c>
       <c r="D115" t="n">
-        <v>99.5771573</v>
+        <v>99.95865947999999</v>
       </c>
       <c r="E115" t="n">
-        <v>99.86839156000001</v>
+        <v>100.0732547</v>
       </c>
       <c r="F115" t="n">
-        <v>99.94142916</v>
+        <v>100.17308731</v>
       </c>
       <c r="G115" t="n">
-        <v>99.90934486</v>
+        <v>100.04628955</v>
       </c>
       <c r="H115" t="n">
-        <v>99.85165193</v>
+        <v>99.81176252</v>
       </c>
       <c r="I115" t="n">
-        <v>99.42394504000001</v>
+        <v>99.95367236</v>
       </c>
       <c r="J115" t="n">
-        <v>99.95573425000001</v>
+        <v>99.98224466000001</v>
       </c>
       <c r="K115" t="n">
-        <v>99.88661761</v>
+        <v>99.9223111</v>
       </c>
       <c r="L115" t="n">
-        <v>99.93170762</v>
+        <v>99.82512387</v>
       </c>
       <c r="M115" t="n">
-        <v>99.67980774</v>
+        <v>101.04207209</v>
       </c>
       <c r="N115" t="n">
-        <v>99.97212763</v>
+        <v>99.56154610999999</v>
       </c>
       <c r="O115" t="n">
-        <v>99.80447631</v>
+        <v>100.08636133</v>
       </c>
       <c r="P115" t="n">
-        <v>101.3576555</v>
+        <v>96.40221105000001</v>
       </c>
       <c r="Q115" t="n">
-        <v>100.09501963</v>
+        <v>100.4210122</v>
       </c>
       <c r="R115" t="n">
-        <v>100.07294923</v>
+        <v>99.90411616999999</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>100.02483641</v>
+        <v>100.1</v>
       </c>
       <c r="C116" t="n">
-        <v>100.03578981</v>
+        <v>100.1</v>
       </c>
       <c r="D116" t="n">
-        <v>99.77793686</v>
+        <v>100</v>
       </c>
       <c r="E116" t="n">
-        <v>99.91595329</v>
+        <v>100.1</v>
       </c>
       <c r="F116" t="n">
-        <v>100.11622731</v>
+        <v>100.1</v>
       </c>
       <c r="G116" t="n">
-        <v>100.60320017</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="H116" t="n">
-        <v>100.1019318</v>
+        <v>100.2</v>
       </c>
       <c r="I116" t="n">
-        <v>100.00823178</v>
+        <v>100.2</v>
       </c>
       <c r="J116" t="n">
-        <v>99.9321236</v>
+        <v>100.2</v>
       </c>
       <c r="K116" t="n">
-        <v>99.7875973</v>
+        <v>100.2</v>
       </c>
       <c r="L116" t="n">
-        <v>100.02496214</v>
+        <v>100.1</v>
       </c>
       <c r="M116" t="n">
-        <v>99.42846831</v>
+        <v>100.4</v>
       </c>
       <c r="N116" t="n">
-        <v>101.20429532</v>
+        <v>99.2</v>
       </c>
       <c r="O116" t="n">
-        <v>100.00230126</v>
+        <v>100</v>
       </c>
       <c r="P116" t="n">
-        <v>102.92202852</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="Q116" t="n">
-        <v>102.19575801</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="R116" t="n">
-        <v>100.15372873</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>100.11407708</v>
+        <v>100.1</v>
       </c>
       <c r="C117" t="n">
-        <v>100.05727699</v>
+        <v>100.1</v>
       </c>
       <c r="D117" t="n">
-        <v>100.00890228</v>
+        <v>100.2</v>
       </c>
       <c r="E117" t="n">
-        <v>99.95812943</v>
+        <v>100.1</v>
       </c>
       <c r="F117" t="n">
-        <v>100.1185775</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="G117" t="n">
-        <v>100.50572796</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="H117" t="n">
-        <v>100.06691129</v>
+        <v>100.1</v>
       </c>
       <c r="I117" t="n">
-        <v>99.93578221</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J117" t="n">
-        <v>100.02086211</v>
+        <v>100.1</v>
       </c>
       <c r="K117" t="n">
-        <v>99.97490609</v>
+        <v>100</v>
       </c>
       <c r="L117" t="n">
-        <v>99.96861355999999</v>
+        <v>100</v>
       </c>
       <c r="M117" t="n">
-        <v>99.85998883000001</v>
+        <v>100.4</v>
       </c>
       <c r="N117" t="n">
-        <v>100.4411252</v>
+        <v>100.2</v>
       </c>
       <c r="O117" t="n">
-        <v>99.87180403000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="P117" t="n">
-        <v>108.47127382</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="Q117" t="n">
-        <v>101.13264795</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="R117" t="n">
-        <v>100.10409786</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>99.97546617</v>
+        <v>100</v>
       </c>
       <c r="C118" t="n">
-        <v>100.13058351</v>
+        <v>100.1</v>
       </c>
       <c r="D118" t="n">
-        <v>99.95865947999999</v>
+        <v>100.2</v>
       </c>
       <c r="E118" t="n">
-        <v>100.0732547</v>
+        <v>100.1</v>
       </c>
       <c r="F118" t="n">
-        <v>100.17308731</v>
+        <v>100.1</v>
       </c>
       <c r="G118" t="n">
-        <v>100.04628955</v>
+        <v>100.8</v>
       </c>
       <c r="H118" t="n">
-        <v>99.81176252</v>
+        <v>100</v>
       </c>
       <c r="I118" t="n">
-        <v>99.95367236</v>
+        <v>100.1</v>
       </c>
       <c r="J118" t="n">
-        <v>99.98224466000001</v>
+        <v>100.1</v>
       </c>
       <c r="K118" t="n">
-        <v>99.9223111</v>
+        <v>100.1</v>
       </c>
       <c r="L118" t="n">
-        <v>99.82512387</v>
+        <v>100.1</v>
       </c>
       <c r="M118" t="n">
-        <v>101.04207209</v>
+        <v>100</v>
       </c>
       <c r="N118" t="n">
-        <v>99.56154610999999</v>
+        <v>103.5</v>
       </c>
       <c r="O118" t="n">
-        <v>100.08636133</v>
+        <v>100.2</v>
       </c>
       <c r="P118" t="n">
-        <v>96.40221105000001</v>
+        <v>98.7</v>
       </c>
       <c r="Q118" t="n">
-        <v>100.4210122</v>
+        <v>102.3</v>
       </c>
       <c r="R118" t="n">
-        <v>99.90411616999999</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C119" t="n">
         <v>100</v>
       </c>
       <c r="D119" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="E119" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="F119" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="G119" t="n">
+        <v>101</v>
+      </c>
+      <c r="H119" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="J119" t="n">
         <v>100</v>
       </c>
-      <c r="E119" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="F119" t="n">
-        <v>100.9</v>
-      </c>
-      <c r="G119" t="n">
-        <v>100.9</v>
-      </c>
-      <c r="H119" t="n">
+      <c r="K119" t="n">
+        <v>100</v>
+      </c>
+      <c r="L119" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="M119" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="N119" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="O119" t="n">
         <v>100.2</v>
       </c>
-      <c r="I119" t="n">
+      <c r="P119" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>103.2</v>
+      </c>
+      <c r="R119" t="n">
         <v>100</v>
-      </c>
-      <c r="J119" t="n">
-        <v>101</v>
-      </c>
-      <c r="K119" t="n">
-        <v>100.9</v>
-      </c>
-      <c r="L119" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="M119" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="N119" t="n">
-        <v>105.4</v>
-      </c>
-      <c r="O119" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="P119" t="n">
-        <v>98.8</v>
-      </c>
-      <c r="Q119" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="R119" t="n">
-        <v>100.2</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>99.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="C120" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="D120" t="n">
-        <v>99.7</v>
+        <v>100.3</v>
       </c>
       <c r="E120" t="n">
         <v>100.2</v>
       </c>
       <c r="F120" t="n">
-        <v>98.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="G120" t="n">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="H120" t="n">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="I120" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J120" t="n">
-        <v>100.6</v>
+        <v>100.1</v>
       </c>
       <c r="K120" t="n">
-        <v>99.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="L120" t="n">
-        <v>98.90000000000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="M120" t="n">
-        <v>100.2</v>
+        <v>99.5</v>
       </c>
       <c r="N120" t="n">
-        <v>101.9</v>
+        <v>102.4</v>
       </c>
       <c r="O120" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="P120" t="n">
-        <v>101.7</v>
+        <v>98</v>
       </c>
       <c r="Q120" t="n">
         <v>101.6</v>
       </c>
       <c r="R120" t="n">
-        <v>100.4</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="C121" t="n">
-        <v>99.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="D121" t="n">
         <v>100</v>
       </c>
       <c r="E121" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="F121" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="G121" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="H121" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="I121" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="J121" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="K121" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="L121" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="M121" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="N121" t="n">
+        <v>104.2</v>
+      </c>
+      <c r="O121" t="n">
         <v>100.1</v>
       </c>
-      <c r="F121" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="G121" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="H121" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="I121" t="n">
+      <c r="P121" t="n">
+        <v>97</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="R121" t="n">
         <v>100.5</v>
-      </c>
-      <c r="J121" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="K121" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="L121" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="M121" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="N121" t="n">
-        <v>95.90000000000001</v>
-      </c>
-      <c r="O121" t="n">
-        <v>100</v>
-      </c>
-      <c r="P121" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="Q121" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="R121" t="n">
-        <v>100.1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2021年1月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B122" t="n">
+        <v>100</v>
+      </c>
+      <c r="C122" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>100</v>
+      </c>
+      <c r="E122" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="F122" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="G122" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="H122" t="n">
+        <v>100</v>
+      </c>
+      <c r="I122" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="J122" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="K122" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="L122" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="C122" t="n">
+      <c r="M122" t="n">
         <v>100</v>
       </c>
-      <c r="D122" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="E122" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="F122" t="n">
+      <c r="N122" t="n">
         <v>99.5</v>
-      </c>
-      <c r="G122" t="n">
-        <v>101</v>
-      </c>
-      <c r="H122" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="J122" t="n">
-        <v>100</v>
-      </c>
-      <c r="K122" t="n">
-        <v>100</v>
-      </c>
-      <c r="L122" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="M122" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="N122" t="n">
-        <v>103.5</v>
       </c>
       <c r="O122" t="n">
         <v>100.2</v>
       </c>
       <c r="P122" t="n">
-        <v>101.3</v>
+        <v>102.3</v>
       </c>
       <c r="Q122" t="n">
-        <v>103.2</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="R122" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>100</v>
       </c>
       <c r="C123" t="n">
-        <v>100</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D123" t="n">
-        <v>100.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E123" t="n">
         <v>100.2</v>
       </c>
       <c r="F123" t="n">
-        <v>98.90000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="G123" t="n">
-        <v>100.5</v>
+        <v>100</v>
       </c>
       <c r="H123" t="n">
-        <v>100.5</v>
+        <v>100.2</v>
       </c>
       <c r="I123" t="n">
-        <v>99.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="J123" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="K123" t="n">
         <v>100.1</v>
       </c>
-      <c r="K123" t="n">
-        <v>100</v>
-      </c>
       <c r="L123" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="M123" t="n">
-        <v>99.5</v>
+        <v>100.4</v>
       </c>
       <c r="N123" t="n">
-        <v>102.4</v>
+        <v>101.5</v>
       </c>
       <c r="O123" t="n">
         <v>100.1</v>
       </c>
       <c r="P123" t="n">
-        <v>98</v>
+        <v>101.9</v>
       </c>
       <c r="Q123" t="n">
-        <v>101.6</v>
+        <v>99</v>
       </c>
       <c r="R123" t="n">
-        <v>99.8</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B124" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="C124" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="D124" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="E124" t="n">
+        <v>100</v>
+      </c>
+      <c r="F124" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="G124" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="H124" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="I124" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="C124" t="n">
+      <c r="J124" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="K124" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="L124" t="n">
+        <v>100</v>
+      </c>
+      <c r="M124" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="N124" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="O124" t="n">
+        <v>100</v>
+      </c>
+      <c r="P124" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="R124" t="n">
         <v>100.2</v>
-      </c>
-      <c r="D124" t="n">
-        <v>100</v>
-      </c>
-      <c r="E124" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="F124" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="G124" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="H124" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="I124" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="J124" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="K124" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="L124" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="M124" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="N124" t="n">
-        <v>104.2</v>
-      </c>
-      <c r="O124" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="P124" t="n">
-        <v>97</v>
-      </c>
-      <c r="Q124" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="R124" t="n">
-        <v>100.5</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="C125" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="D125" t="n">
         <v>100.1</v>
       </c>
-      <c r="D125" t="n">
-        <v>100</v>
-      </c>
       <c r="E125" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="F125" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="G125" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="H125" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="I125" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="J125" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="K125" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="L125" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="M125" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="N125" t="n">
+        <v>102.6</v>
+      </c>
+      <c r="O125" t="n">
         <v>99.8</v>
       </c>
-      <c r="F125" t="n">
-        <v>100.9</v>
-      </c>
-      <c r="G125" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="H125" t="n">
-        <v>100</v>
-      </c>
-      <c r="I125" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="J125" t="n">
+      <c r="P125" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="R125" t="n">
         <v>100.3</v>
-      </c>
-      <c r="K125" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="L125" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="M125" t="n">
-        <v>100</v>
-      </c>
-      <c r="N125" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="O125" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="P125" t="n">
-        <v>102.3</v>
-      </c>
-      <c r="Q125" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="R125" t="n">
-        <v>100.2</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B126" t="n">
         <v>100</v>
       </c>
       <c r="C126" t="n">
-        <v>99.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="D126" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="E126" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="F126" t="n">
-        <v>99.2</v>
+        <v>101.5</v>
       </c>
       <c r="G126" t="n">
         <v>100</v>
       </c>
       <c r="H126" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J126" t="n">
         <v>100.2</v>
       </c>
-      <c r="I126" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="J126" t="n">
-        <v>100.3</v>
-      </c>
       <c r="K126" t="n">
-        <v>100.1</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="L126" t="n">
-        <v>99.8</v>
+        <v>99.2</v>
       </c>
       <c r="M126" t="n">
-        <v>100.4</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="N126" t="n">
-        <v>101.5</v>
+        <v>99.5</v>
       </c>
       <c r="O126" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="P126" t="n">
-        <v>101.9</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="Q126" t="n">
-        <v>99</v>
+        <v>100.6</v>
       </c>
       <c r="R126" t="n">
         <v>100.1</v>
@@ -7773,233 +7773,233 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B127" t="n">
+        <v>100</v>
+      </c>
+      <c r="C127" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="D127" t="n">
         <v>100.1</v>
-      </c>
-      <c r="C127" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="D127" t="n">
-        <v>99.8</v>
       </c>
       <c r="E127" t="n">
         <v>100</v>
       </c>
       <c r="F127" t="n">
+        <v>99</v>
+      </c>
+      <c r="G127" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="H127" t="n">
+        <v>100</v>
+      </c>
+      <c r="I127" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="K127" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="L127" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="M127" t="n">
+        <v>101</v>
+      </c>
+      <c r="N127" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="O127" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="P127" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="Q127" t="n">
         <v>99.5</v>
       </c>
-      <c r="G127" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="H127" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="I127" t="n">
+      <c r="R127" t="n">
         <v>99.90000000000001</v>
-      </c>
-      <c r="J127" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="K127" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="L127" t="n">
-        <v>100</v>
-      </c>
-      <c r="M127" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="N127" t="n">
-        <v>101.6</v>
-      </c>
-      <c r="O127" t="n">
-        <v>100</v>
-      </c>
-      <c r="P127" t="n">
-        <v>100.9</v>
-      </c>
-      <c r="Q127" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="R127" t="n">
-        <v>100.2</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>100.1</v>
       </c>
       <c r="C128" t="n">
-        <v>100.3</v>
+        <v>100</v>
       </c>
       <c r="D128" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="E128" t="n">
         <v>100.1</v>
       </c>
       <c r="F128" t="n">
-        <v>99.5</v>
+        <v>100.9</v>
       </c>
       <c r="G128" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="H128" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="I128" t="n">
+        <v>100</v>
+      </c>
+      <c r="J128" t="n">
+        <v>101</v>
+      </c>
+      <c r="K128" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="L128" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="M128" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="N128" t="n">
+        <v>105.4</v>
+      </c>
+      <c r="O128" t="n">
         <v>100.3</v>
       </c>
-      <c r="H128" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="I128" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="J128" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="K128" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="L128" t="n">
-        <v>101.1</v>
-      </c>
-      <c r="M128" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="N128" t="n">
-        <v>102.6</v>
-      </c>
-      <c r="O128" t="n">
-        <v>99.8</v>
-      </c>
       <c r="P128" t="n">
-        <v>97.2</v>
+        <v>98.8</v>
       </c>
       <c r="Q128" t="n">
-        <v>99.8</v>
+        <v>101.3</v>
       </c>
       <c r="R128" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>100</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C129" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="D129" t="n">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="E129" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="F129" t="n">
-        <v>101.5</v>
+        <v>98.8</v>
       </c>
       <c r="G129" t="n">
-        <v>100</v>
+        <v>100.4</v>
       </c>
       <c r="H129" t="n">
-        <v>100.1</v>
+        <v>100.6</v>
       </c>
       <c r="I129" t="n">
         <v>99.8</v>
       </c>
       <c r="J129" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="K129" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="L129" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="M129" t="n">
         <v>100.2</v>
       </c>
-      <c r="K129" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="L129" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="M129" t="n">
-        <v>99.90000000000001</v>
-      </c>
       <c r="N129" t="n">
-        <v>99.5</v>
+        <v>101.9</v>
       </c>
       <c r="O129" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="P129" t="n">
-        <v>97.59999999999999</v>
+        <v>101.7</v>
       </c>
       <c r="Q129" t="n">
-        <v>100.6</v>
+        <v>101.6</v>
       </c>
       <c r="R129" t="n">
-        <v>100.1</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B130" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="C130" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D130" t="n">
         <v>100</v>
       </c>
-      <c r="C130" t="n">
+      <c r="E130" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="F130" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="G130" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="H130" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="I130" t="n">
         <v>100.5</v>
       </c>
-      <c r="D130" t="n">
+      <c r="J130" t="n">
         <v>100.1</v>
       </c>
-      <c r="E130" t="n">
+      <c r="K130" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="L130" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="M130" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="N130" t="n">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="O130" t="n">
         <v>100</v>
       </c>
-      <c r="F130" t="n">
-        <v>99</v>
-      </c>
-      <c r="G130" t="n">
+      <c r="P130" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="R130" t="n">
         <v>100.1</v>
-      </c>
-      <c r="H130" t="n">
-        <v>100</v>
-      </c>
-      <c r="I130" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="J130" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="K130" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="L130" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="M130" t="n">
-        <v>101</v>
-      </c>
-      <c r="N130" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="O130" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="P130" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="Q130" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="R130" t="n">
-        <v>99.90000000000001</v>
       </c>
     </row>
   </sheetData>
